--- a/test_case_data/bmc/bmc_testcase01_20210513.xlsx
+++ b/test_case_data/bmc/bmc_testcase01_20210513.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="样例" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5583" uniqueCount="1925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5583" uniqueCount="1931">
   <si>
     <t>caseNum</t>
   </si>
@@ -7404,10 +7404,6 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>/dlVeh/qr</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <t>{"bCityCode":"520100","bNetTag":"trf_mgt"}</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
@@ -7519,6 +7515,34 @@
       </rPr>
       <t/>
     </r>
+  </si>
+  <si>
+    <t>二维码详情</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"bCityCode":"520100","bNetTag":"trf_mgt"}</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"bCityCode":"","bNetTag":"trf_mgt"}</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"bCityCode":"520100","bNetTag":""}</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>/drivingLicense/image/audit/status</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子驾驶证</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>testPoint</t>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7733,7 +7757,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7882,6 +7906,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -15445,7 +15472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -16819,7 +16846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -18257,8 +18284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18296,7 +18323,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>4</v>
+        <v>1930</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>5</v>
@@ -18345,8 +18372,8 @@
       <c r="B2" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>595</v>
+      <c r="C2" s="49" t="s">
+        <v>1924</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -18355,7 +18382,7 @@
         <v>596</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1918</v>
+        <v>1913</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="2" t="s">
@@ -18365,7 +18392,7 @@
         <v>98</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>599</v>
@@ -18374,7 +18401,7 @@
         <v>101</v>
       </c>
       <c r="O2" s="48" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>73</v>
@@ -18410,7 +18437,7 @@
         <v>98</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>359</v>
+        <v>1926</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>599</v>
@@ -18455,7 +18482,7 @@
         <v>98</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>362</v>
+        <v>1927</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>599</v>
@@ -18475,7 +18502,7 @@
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>594</v>
@@ -18490,7 +18517,7 @@
         <v>605</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="2" t="s">
@@ -18499,8 +18526,8 @@
       <c r="I5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>353</v>
+      <c r="K5" s="51" t="s">
+        <v>1925</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>604</v>
@@ -18520,7 +18547,7 @@
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>594</v>
@@ -18565,7 +18592,7 @@
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>594</v>
@@ -18625,7 +18652,7 @@
         <v>611</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>612</v>
+        <v>1928</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="2" t="s">
@@ -18973,7 +19000,7 @@
         <v>641</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>594</v>
+        <v>1929</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>630</v>
@@ -20955,8 +20982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27392,6 +27419,39 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="11"/>
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="12"/>
+  <pixelatorList sheetStid="9"/>
+  <pixelatorList sheetStid="8"/>
+  <pixelatorList sheetStid="10"/>
+  <pixelatorList sheetStid="13"/>
+  <pixelatorList sheetStid="14"/>
+  <pixelatorList sheetStid="15"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="11" master=""/>
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="12" master=""/>
+  <rangeList sheetStid="9" master=""/>
+  <rangeList sheetStid="8" master=""/>
+  <rangeList sheetStid="10" master=""/>
+  <rangeList sheetStid="13" master=""/>
+  <rangeList sheetStid="14" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
@@ -27413,45 +27473,12 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="11" master=""/>
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="12" master=""/>
-  <rangeList sheetStid="9" master=""/>
-  <rangeList sheetStid="8" master=""/>
-  <rangeList sheetStid="10" master=""/>
-  <rangeList sheetStid="13" master=""/>
-  <rangeList sheetStid="14" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="11"/>
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="12"/>
-  <pixelatorList sheetStid="9"/>
-  <pixelatorList sheetStid="8"/>
-  <pixelatorList sheetStid="10"/>
-  <pixelatorList sheetStid="13"/>
-  <pixelatorList sheetStid="14"/>
-  <pixelatorList sheetStid="15"/>
-</pixelators>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -27469,7 +27496,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/test_case_data/bmc/bmc_testcase01_20210513.xlsx
+++ b/test_case_data/bmc/bmc_testcase01_20210513.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="样例" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5583" uniqueCount="1931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5583" uniqueCount="1932">
   <si>
     <t>caseNum</t>
   </si>
@@ -7390,12 +7390,6 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>dlVehqr002</t>
-  </si>
-  <si>
-    <t>dlVehqr003</t>
-  </si>
-  <si>
     <t>获取驾驶证图片状态</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
@@ -7542,6 +7536,18 @@
   </si>
   <si>
     <t>testPoint</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>reqData</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlVehqr003</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlVehqrskip002</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -7726,7 +7732,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7736,6 +7742,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF2F5496"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7757,7 +7769,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7904,11 +7916,14 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8599,13 +8614,13 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
       <c r="H10" s="42"/>
@@ -8620,11 +8635,11 @@
       <c r="Q10" s="42"/>
     </row>
     <row r="11" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
@@ -12010,8 +12025,8 @@
   <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15472,7 +15487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -18284,24 +18299,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="15" customWidth="1"/>
     <col min="4" max="4" width="6.875" customWidth="1"/>
     <col min="5" max="5" width="22.125" customWidth="1"/>
     <col min="6" max="6" width="31.125" customWidth="1"/>
     <col min="7" max="7" width="8.5" customWidth="1"/>
     <col min="8" max="8" width="20.125" customWidth="1"/>
     <col min="9" max="9" width="4.625" customWidth="1"/>
-    <col min="11" max="11" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.75" customWidth="1"/>
+    <col min="11" max="11" width="65.625" customWidth="1"/>
     <col min="12" max="12" width="22.75" customWidth="1"/>
-    <col min="13" max="13" width="66.625" customWidth="1"/>
+    <col min="13" max="13" width="53" customWidth="1"/>
     <col min="14" max="14" width="19.75" customWidth="1"/>
     <col min="15" max="15" width="56.625" customWidth="1"/>
     <col min="16" max="16" width="9.25" customWidth="1"/>
@@ -18323,7 +18339,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>5</v>
@@ -18341,7 +18357,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>10</v>
+        <v>1929</v>
       </c>
       <c r="L1" s="17" t="s">
         <v>11</v>
@@ -18367,13 +18383,13 @@
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="46" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>594</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -18392,7 +18408,7 @@
         <v>98</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>599</v>
@@ -18401,7 +18417,7 @@
         <v>101</v>
       </c>
       <c r="O2" s="48" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>73</v>
@@ -18411,8 +18427,8 @@
       </c>
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>1914</v>
+      <c r="A3" s="52" t="s">
+        <v>1931</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>594</v>
@@ -18437,7 +18453,7 @@
         <v>98</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>599</v>
@@ -18457,7 +18473,7 @@
     </row>
     <row r="4" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>1915</v>
+        <v>1930</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>594</v>
@@ -18482,7 +18498,7 @@
         <v>98</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>599</v>
@@ -18502,7 +18518,7 @@
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>594</v>
@@ -18517,7 +18533,7 @@
         <v>605</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="2" t="s">
@@ -18526,8 +18542,8 @@
       <c r="I5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="51" t="s">
-        <v>1925</v>
+      <c r="K5" s="50" t="s">
+        <v>1923</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>604</v>
@@ -18547,13 +18563,13 @@
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>594</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>76</v>
@@ -18592,7 +18608,7 @@
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>594</v>
@@ -18652,7 +18668,7 @@
         <v>611</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="2" t="s">
@@ -19000,7 +19016,7 @@
         <v>641</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>630</v>
@@ -20982,8 +20998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27419,39 +27435,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="11"/>
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="12"/>
-  <pixelatorList sheetStid="9"/>
-  <pixelatorList sheetStid="8"/>
-  <pixelatorList sheetStid="10"/>
-  <pixelatorList sheetStid="13"/>
-  <pixelatorList sheetStid="14"/>
-  <pixelatorList sheetStid="15"/>
-</pixelators>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="11" master=""/>
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="12" master=""/>
-  <rangeList sheetStid="9" master=""/>
-  <rangeList sheetStid="8" master=""/>
-  <rangeList sheetStid="10" master=""/>
-  <rangeList sheetStid="13" master=""/>
-  <rangeList sheetStid="14" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
@@ -27473,12 +27456,45 @@
 </woProps>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="11" master=""/>
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="12" master=""/>
+  <rangeList sheetStid="9" master=""/>
+  <rangeList sheetStid="8" master=""/>
+  <rangeList sheetStid="10" master=""/>
+  <rangeList sheetStid="13" master=""/>
+  <rangeList sheetStid="14" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="11"/>
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="12"/>
+  <pixelatorList sheetStid="9"/>
+  <pixelatorList sheetStid="8"/>
+  <pixelatorList sheetStid="10"/>
+  <pixelatorList sheetStid="13"/>
+  <pixelatorList sheetStid="14"/>
+  <pixelatorList sheetStid="15"/>
+</pixelators>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -27496,7 +27512,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/test_case_data/bmc/bmc_testcase01_20210513.xlsx
+++ b/test_case_data/bmc/bmc_testcase01_20210513.xlsx
@@ -18303,7 +18303,7 @@
   <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/test_case_data/bmc/bmc_testcase01_20210513.xlsx
+++ b/test_case_data/bmc/bmc_testcase01_20210513.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5583" uniqueCount="1937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5583" uniqueCount="1938">
   <si>
     <t>caseNum</t>
   </si>
@@ -7656,6 +7656,7 @@
       </rPr>
       <t/>
     </r>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7703,6 +7704,11 @@
       </rPr>
       <t/>
     </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://testbmcpvtapp.hikcreate.com</t>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -18462,8 +18468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A13"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18472,7 +18478,7 @@
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="15" customWidth="1"/>
     <col min="4" max="4" width="6.875" customWidth="1"/>
-    <col min="5" max="5" width="22.125" customWidth="1"/>
+    <col min="5" max="5" width="30.375" customWidth="1"/>
     <col min="6" max="6" width="31.125" customWidth="1"/>
     <col min="7" max="7" width="8.5" customWidth="1"/>
     <col min="8" max="8" width="20.125" customWidth="1"/>
@@ -18631,7 +18637,7 @@
         <v>73</v>
       </c>
       <c r="R3" s="32" t="s">
-        <v>600</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">

--- a/test_case_data/bmc/bmc_testcase01_20210513.xlsx
+++ b/test_case_data/bmc/bmc_testcase01_20210513.xlsx
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5656" uniqueCount="1983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5607" uniqueCount="1981">
   <si>
     <t>caseNum</t>
   </si>
@@ -8814,10 +8814,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/55878</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>/integral/center/sign</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -8920,10 +8916,6 @@
   </si>
   <si>
     <t>/integral/center/integralGoods</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/57138</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
@@ -9379,7 +9371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9568,20 +9560,8 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10272,13 +10252,13 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
       <c r="H10" s="42"/>
@@ -10293,11 +10273,11 @@
       <c r="Q10" s="42"/>
     </row>
     <row r="11" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="67"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
@@ -26316,10 +26296,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26329,23 +26309,22 @@
     <col min="3" max="3" width="20.25" style="15" customWidth="1"/>
     <col min="4" max="4" width="13.625" customWidth="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
-    <col min="6" max="6" width="63.125" style="66" customWidth="1"/>
-    <col min="7" max="7" width="31.375" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="21.25" customWidth="1"/>
-    <col min="10" max="10" width="7.375" customWidth="1"/>
-    <col min="11" max="11" width="8.5" customWidth="1"/>
-    <col min="12" max="12" width="64.625" customWidth="1"/>
-    <col min="13" max="13" width="23.125" style="16" customWidth="1"/>
-    <col min="14" max="14" width="178.875" customWidth="1"/>
-    <col min="15" max="15" width="19.875" customWidth="1"/>
-    <col min="16" max="16" width="56.625" customWidth="1"/>
-    <col min="17" max="17" width="9.25" customWidth="1"/>
-    <col min="18" max="18" width="13.125" customWidth="1"/>
-    <col min="19" max="19" width="34.875" customWidth="1"/>
+    <col min="6" max="6" width="31.375" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="21.25" customWidth="1"/>
+    <col min="9" max="9" width="7.375" customWidth="1"/>
+    <col min="10" max="10" width="8.5" customWidth="1"/>
+    <col min="11" max="11" width="64.625" customWidth="1"/>
+    <col min="12" max="12" width="23.125" style="16" customWidth="1"/>
+    <col min="13" max="13" width="178.875" customWidth="1"/>
+    <col min="14" max="14" width="19.875" customWidth="1"/>
+    <col min="15" max="15" width="56.625" customWidth="1"/>
+    <col min="16" max="16" width="9.25" customWidth="1"/>
+    <col min="17" max="17" width="13.125" customWidth="1"/>
+    <col min="18" max="18" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -26361,50 +26340,47 @@
       <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>13</v>
-      </c>
       <c r="P1" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
         <v>1904</v>
       </c>
@@ -26420,35 +26396,32 @@
       <c r="E2" s="2" t="s">
         <v>1216</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="22" t="s">
+        <v>1958</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="I2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>1217</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O2" s="48" t="s">
         <v>1954</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>1958</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="J2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>1217</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="P2" s="48" t="s">
-        <v>1954</v>
-      </c>
-      <c r="Q2" s="24" t="s">
+      <c r="P2" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1215</v>
@@ -26462,37 +26435,34 @@
       <c r="E3" s="2" t="s">
         <v>1218</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="22" t="s">
         <v>1959</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>1960</v>
-      </c>
-      <c r="H3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="2" t="s">
+        <v>1219</v>
+      </c>
       <c r="I3" s="2" t="s">
-        <v>1219</v>
-      </c>
-      <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8" t="s">
+        <v>1220</v>
+      </c>
       <c r="M3" s="8" t="s">
-        <v>1220</v>
-      </c>
-      <c r="N3" s="8" t="s">
         <v>1221</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="O3" s="23" t="s">
         <v>1222</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="P3" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
         <v>1955</v>
       </c>
@@ -26500,7 +26470,7 @@
         <v>1215</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -26508,36 +26478,33 @@
       <c r="E4" s="2" t="s">
         <v>1223</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="22" t="s">
+        <v>1962</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="I4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8" t="s">
+        <v>1224</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O4" s="23" t="s">
         <v>1226</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>1963</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="J4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8" t="s">
-        <v>1224</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>1225</v>
-      </c>
-      <c r="P4" s="23" t="s">
-        <v>1226</v>
-      </c>
-      <c r="Q4" s="24" t="s">
+      <c r="P4" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1215</v>
@@ -26551,45 +26518,42 @@
       <c r="E5" s="2" t="s">
         <v>1227</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="22" t="s">
+        <v>1963</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>1230</v>
+      </c>
+      <c r="O5" s="23" t="s">
         <v>1231</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>1964</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="2" t="s">
-        <v>1228</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="2" t="s">
-        <v>1229</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>1230</v>
-      </c>
-      <c r="P5" s="23" t="s">
-        <v>1231</v>
-      </c>
-      <c r="Q5" s="24" t="s">
+      <c r="P5" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1215</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
@@ -26597,34 +26561,31 @@
       <c r="E6" s="2" t="s">
         <v>1232</v>
       </c>
-      <c r="F6" s="68" t="s">
-        <v>1969</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>1968</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="J6" s="2" t="s">
+      <c r="F6" s="22" t="s">
+        <v>1967</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="I6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="22" t="s">
+      <c r="K6" s="8"/>
+      <c r="L6" s="22" t="s">
         <v>1232</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="M6" s="8" t="s">
         <v>1233</v>
       </c>
-      <c r="P6" s="23" t="s">
+      <c r="O6" s="23" t="s">
         <v>1234</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="P6" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
         <v>1906</v>
       </c>
@@ -26632,7 +26593,7 @@
         <v>1215</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
@@ -26640,36 +26601,33 @@
       <c r="E7" s="2" t="s">
         <v>1236</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="22" t="s">
+        <v>1969</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="I7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>1238</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>1235</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>1239</v>
+      </c>
+      <c r="O7" s="23" t="s">
         <v>1240</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>1971</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="J7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>1238</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>1235</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>1239</v>
-      </c>
-      <c r="P7" s="23" t="s">
-        <v>1240</v>
-      </c>
-      <c r="Q7" s="24" t="s">
+      <c r="P7" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
         <v>1907</v>
       </c>
@@ -26685,36 +26643,33 @@
       <c r="E8" s="2" t="s">
         <v>1241</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="22" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="I8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>1242</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>1243</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>1244</v>
+      </c>
+      <c r="O8" s="23" t="s">
         <v>1240</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>1237</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="J8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>1242</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>1243</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>1244</v>
-      </c>
-      <c r="P8" s="23" t="s">
-        <v>1240</v>
-      </c>
-      <c r="Q8" s="24" t="s">
+      <c r="P8" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
         <v>1908</v>
       </c>
@@ -26730,36 +26685,33 @@
       <c r="E9" s="2" t="s">
         <v>1245</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="F9" s="22" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="I9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>1246</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>1243</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>1244</v>
+      </c>
+      <c r="O9" s="23" t="s">
         <v>1240</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>1237</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="J9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>1246</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>1243</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>1244</v>
-      </c>
-      <c r="P9" s="23" t="s">
-        <v>1240</v>
-      </c>
-      <c r="Q9" s="24" t="s">
+      <c r="P9" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="R9" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>1909</v>
       </c>
@@ -26775,44 +26727,41 @@
       <c r="E10" s="2" t="s">
         <v>1247</v>
       </c>
-      <c r="F10" s="65" t="s">
+      <c r="F10" s="22" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="I10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>1248</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>1243</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>1244</v>
+      </c>
+      <c r="O10" s="23" t="s">
         <v>1240</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>1237</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="J10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>1248</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>1243</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>1244</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>1240</v>
-      </c>
-      <c r="Q10" s="24" t="s">
+      <c r="P10" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1215</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>31</v>
@@ -26820,41 +26769,38 @@
       <c r="E11" s="2" t="s">
         <v>1249</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="51" t="s">
+        <v>1972</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="I11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>1249</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O11" s="23" t="s">
         <v>1250</v>
       </c>
-      <c r="G11" s="51" t="s">
-        <v>1974</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="J11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M11" s="22" t="s">
-        <v>1249</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="P11" s="23" t="s">
-        <v>1250</v>
-      </c>
-      <c r="Q11" s="24" t="s">
+      <c r="P11" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="R11" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="46" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1215</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>20</v>
@@ -26862,39 +26808,36 @@
       <c r="E12" s="2" t="s">
         <v>1251</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="51" t="s">
+        <v>1975</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>1254</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>1255</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>1957</v>
+      </c>
+      <c r="O12" s="23" t="s">
         <v>1256</v>
       </c>
-      <c r="G12" s="51" t="s">
-        <v>1977</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="2" t="s">
-        <v>1253</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>1254</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>1255</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>1957</v>
-      </c>
-      <c r="P12" s="23" t="s">
-        <v>1256</v>
-      </c>
-      <c r="Q12" s="24" t="s">
+      <c r="P12" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="R12" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="46" t="s">
         <v>1910</v>
       </c>
@@ -26910,47 +26853,44 @@
       <c r="E13" s="2" t="s">
         <v>1257</v>
       </c>
-      <c r="F13" s="65" t="s">
+      <c r="F13" s="7" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>1258</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>1259</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>1260</v>
+      </c>
+      <c r="O13" s="23" t="s">
         <v>1256</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>1252</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="2" t="s">
-        <v>1253</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>1258</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>1259</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>1260</v>
-      </c>
-      <c r="P13" s="23" t="s">
-        <v>1256</v>
-      </c>
-      <c r="Q13" s="24" t="s">
+      <c r="P13" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="R13" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="46" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1215</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>31</v>
@@ -26958,41 +26898,38 @@
       <c r="E14" s="2" t="s">
         <v>1261</v>
       </c>
-      <c r="F14" s="65" t="s">
+      <c r="F14" s="51" t="s">
+        <v>1978</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="I14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>1262</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O14" s="23" t="s">
         <v>1263</v>
       </c>
-      <c r="G14" s="51" t="s">
-        <v>1980</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="J14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>1262</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="P14" s="23" t="s">
-        <v>1263</v>
-      </c>
-      <c r="Q14" s="24" t="s">
+      <c r="P14" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="R14" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1215</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>20</v>
@@ -27000,39 +26937,36 @@
       <c r="E15" s="2" t="s">
         <v>1264</v>
       </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="22" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>1267</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>1268</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O15" s="23" t="s">
         <v>1269</v>
       </c>
-      <c r="G15" s="22" t="s">
-        <v>1265</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="2" t="s">
-        <v>1266</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>1267</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>1268</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="P15" s="23" t="s">
-        <v>1269</v>
-      </c>
-      <c r="Q15" s="24" t="s">
+      <c r="P15" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="R15" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="46" t="s">
         <v>1911</v>
       </c>
@@ -27048,39 +26982,36 @@
       <c r="E16" s="2" t="s">
         <v>1270</v>
       </c>
-      <c r="F16" s="65" t="s">
+      <c r="F16" s="22" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>1273</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>1274</v>
+      </c>
+      <c r="O16" s="23" t="s">
         <v>1269</v>
       </c>
-      <c r="G16" s="22" t="s">
-        <v>1265</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="2" t="s">
-        <v>1271</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>1272</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>1273</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>1274</v>
-      </c>
-      <c r="P16" s="23" t="s">
-        <v>1269</v>
-      </c>
-      <c r="Q16" s="24" t="s">
+      <c r="P16" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="R16" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
         <v>1912</v>
       </c>
@@ -27096,36 +27027,33 @@
       <c r="E17" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="F17" s="65" t="s">
+      <c r="F17" s="22" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="I17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>1276</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>1273</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>1277</v>
+      </c>
+      <c r="O17" s="23" t="s">
         <v>1269</v>
       </c>
-      <c r="G17" s="22" t="s">
-        <v>1265</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="J17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>1276</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>1273</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>1277</v>
-      </c>
-      <c r="P17" s="23" t="s">
-        <v>1269</v>
-      </c>
-      <c r="Q17" s="24" t="s">
+      <c r="P17" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="R17" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="46" t="s">
         <v>1914</v>
       </c>
@@ -27141,36 +27069,33 @@
       <c r="E18" s="2" t="s">
         <v>1279</v>
       </c>
-      <c r="F18" s="65" t="s">
+      <c r="F18" s="51" t="s">
+        <v>1913</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="I18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>1281</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>1282</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>1283</v>
+      </c>
+      <c r="O18" s="23" t="s">
         <v>1284</v>
       </c>
-      <c r="G18" s="51" t="s">
-        <v>1913</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="J18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>1281</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>1282</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>1283</v>
-      </c>
-      <c r="P18" s="23" t="s">
-        <v>1284</v>
-      </c>
-      <c r="Q18" s="24" t="s">
+      <c r="P18" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S18" s="2" t="s">
+      <c r="R18" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="46" t="s">
         <v>1915</v>
       </c>
@@ -27186,36 +27111,33 @@
       <c r="E19" s="2" t="s">
         <v>1285</v>
       </c>
-      <c r="F19" s="65" t="s">
+      <c r="F19" s="7" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="I19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>1286</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>1287</v>
+      </c>
+      <c r="M19" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="O19" s="23" t="s">
         <v>1284</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="J19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>1286</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>1287</v>
-      </c>
-      <c r="N19" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="P19" s="23" t="s">
-        <v>1284</v>
-      </c>
-      <c r="Q19" s="24" t="s">
+      <c r="P19" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S19" s="2" t="s">
+      <c r="R19" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="46" t="s">
         <v>1916</v>
       </c>
@@ -27231,36 +27153,33 @@
       <c r="E20" s="2" t="s">
         <v>1288</v>
       </c>
-      <c r="F20" s="65" t="s">
+      <c r="F20" s="7" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="I20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>1276</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>1287</v>
+      </c>
+      <c r="M20" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="O20" s="23" t="s">
         <v>1284</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="J20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>1276</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>1287</v>
-      </c>
-      <c r="N20" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="P20" s="23" t="s">
-        <v>1284</v>
-      </c>
-      <c r="Q20" s="24" t="s">
+      <c r="P20" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S20" s="2" t="s">
+      <c r="R20" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="46" t="s">
         <v>1917</v>
       </c>
@@ -27276,36 +27195,33 @@
       <c r="E21" s="8" t="s">
         <v>1290</v>
       </c>
-      <c r="F21" s="65" t="s">
+      <c r="F21" s="7" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="I21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>1292</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>1293</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>1294</v>
+      </c>
+      <c r="O21" s="23" t="s">
         <v>1295</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>1291</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="J21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>1292</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>1293</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>1294</v>
-      </c>
-      <c r="P21" s="23" t="s">
-        <v>1295</v>
-      </c>
-      <c r="Q21" s="24" t="s">
+      <c r="P21" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="R21" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="46" t="s">
         <v>1918</v>
       </c>
@@ -27321,36 +27237,33 @@
       <c r="E22" s="8" t="s">
         <v>1296</v>
       </c>
-      <c r="F22" s="65" t="s">
+      <c r="F22" s="7" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="I22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>1297</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>1298</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>1294</v>
+      </c>
+      <c r="O22" s="23" t="s">
         <v>1295</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>1291</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="J22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>1297</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>1298</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>1294</v>
-      </c>
-      <c r="P22" s="23" t="s">
-        <v>1295</v>
-      </c>
-      <c r="Q22" s="24" t="s">
+      <c r="P22" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="R22" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="46" t="s">
         <v>1919</v>
       </c>
@@ -27366,36 +27279,33 @@
       <c r="E23" s="8" t="s">
         <v>1299</v>
       </c>
-      <c r="F23" s="65" t="s">
+      <c r="F23" s="7" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="I23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>1300</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>1301</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>1294</v>
+      </c>
+      <c r="O23" s="23" t="s">
         <v>1295</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>1291</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="J23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>1300</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>1301</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>1294</v>
-      </c>
-      <c r="P23" s="23" t="s">
-        <v>1295</v>
-      </c>
-      <c r="Q23" s="24" t="s">
+      <c r="P23" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S23" s="2" t="s">
+      <c r="R23" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="46" t="s">
         <v>1920</v>
       </c>
@@ -27411,36 +27321,33 @@
       <c r="E24" s="8" t="s">
         <v>1302</v>
       </c>
-      <c r="F24" s="65" t="s">
+      <c r="F24" s="7" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="I24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>1303</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>1304</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>1294</v>
+      </c>
+      <c r="O24" s="23" t="s">
         <v>1295</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>1291</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="J24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>1303</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>1304</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>1294</v>
-      </c>
-      <c r="P24" s="23" t="s">
-        <v>1295</v>
-      </c>
-      <c r="Q24" s="24" t="s">
+      <c r="P24" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S24" s="2" t="s">
+      <c r="R24" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="46" t="s">
         <v>1921</v>
       </c>
@@ -27456,36 +27363,33 @@
       <c r="E25" s="2" t="s">
         <v>1306</v>
       </c>
-      <c r="F25" s="65" t="s">
+      <c r="F25" s="22" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="I25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>1309</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>1310</v>
+      </c>
+      <c r="O25" s="23" t="s">
         <v>1311</v>
       </c>
-      <c r="G25" s="22" t="s">
-        <v>1307</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="J25" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>1308</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>1309</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>1310</v>
-      </c>
-      <c r="P25" s="23" t="s">
-        <v>1311</v>
-      </c>
-      <c r="Q25" s="24" t="s">
+      <c r="P25" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S25" s="2" t="s">
+      <c r="R25" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="46" t="s">
         <v>1922</v>
       </c>
@@ -27501,36 +27405,33 @@
       <c r="E26" s="2" t="s">
         <v>1312</v>
       </c>
-      <c r="F26" s="65" t="s">
+      <c r="F26" s="22" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="I26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>1314</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="O26" s="23" t="s">
         <v>1311</v>
       </c>
-      <c r="G26" s="22" t="s">
-        <v>1307</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="J26" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>1313</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>1314</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>1315</v>
-      </c>
-      <c r="P26" s="23" t="s">
-        <v>1311</v>
-      </c>
-      <c r="Q26" s="24" t="s">
+      <c r="P26" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S26" s="2" t="s">
+      <c r="R26" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="46" t="s">
         <v>1923</v>
       </c>
@@ -27546,36 +27447,33 @@
       <c r="E27" s="2" t="s">
         <v>1316</v>
       </c>
-      <c r="F27" s="65" t="s">
+      <c r="F27" s="22" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="I27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>1314</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>1318</v>
+      </c>
+      <c r="O27" s="23" t="s">
         <v>1311</v>
       </c>
-      <c r="G27" s="22" t="s">
-        <v>1307</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="J27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>1317</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>1314</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>1318</v>
-      </c>
-      <c r="P27" s="23" t="s">
-        <v>1311</v>
-      </c>
-      <c r="Q27" s="24" t="s">
+      <c r="P27" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S27" s="2" t="s">
+      <c r="R27" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="46" t="s">
         <v>1925</v>
       </c>
@@ -27591,39 +27489,36 @@
       <c r="E28" s="2" t="s">
         <v>1320</v>
       </c>
-      <c r="F28" s="65" t="s">
+      <c r="F28" s="22" t="s">
+        <v>1924</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>1324</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>1325</v>
+      </c>
+      <c r="O28" s="23" t="s">
         <v>1326</v>
       </c>
-      <c r="G28" s="22" t="s">
-        <v>1924</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="2" t="s">
-        <v>1322</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>1323</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>1324</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>1325</v>
-      </c>
-      <c r="P28" s="23" t="s">
-        <v>1326</v>
-      </c>
-      <c r="Q28" s="24" t="s">
+      <c r="P28" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S28" s="2" t="s">
+      <c r="R28" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="46" t="s">
         <v>1926</v>
       </c>
@@ -27639,39 +27534,36 @@
       <c r="E29" s="2" t="s">
         <v>1327</v>
       </c>
-      <c r="F29" s="65" t="s">
+      <c r="F29" s="22" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>1328</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>1329</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>1330</v>
+      </c>
+      <c r="O29" s="23" t="s">
         <v>1326</v>
       </c>
-      <c r="G29" s="22" t="s">
-        <v>1321</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="2" t="s">
-        <v>1322</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>1328</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>1329</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>1330</v>
-      </c>
-      <c r="P29" s="23" t="s">
-        <v>1326</v>
-      </c>
-      <c r="Q29" s="24" t="s">
+      <c r="P29" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S29" s="2" t="s">
+      <c r="R29" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
         <v>1927</v>
       </c>
@@ -27687,39 +27579,36 @@
       <c r="E30" s="2" t="s">
         <v>1331</v>
       </c>
-      <c r="F30" s="65" t="s">
+      <c r="F30" s="22" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>1332</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>1329</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="O30" s="23" t="s">
         <v>1326</v>
       </c>
-      <c r="G30" s="22" t="s">
-        <v>1321</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="2" t="s">
-        <v>1322</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>1332</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>1329</v>
-      </c>
-      <c r="N30" s="8" t="s">
-        <v>1315</v>
-      </c>
-      <c r="P30" s="23" t="s">
-        <v>1326</v>
-      </c>
-      <c r="Q30" s="24" t="s">
+      <c r="P30" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S30" s="2" t="s">
+      <c r="R30" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="46" t="s">
         <v>1928</v>
       </c>
@@ -27735,39 +27624,36 @@
       <c r="E31" s="2" t="s">
         <v>1333</v>
       </c>
-      <c r="F31" s="65" t="s">
+      <c r="F31" s="22" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>1334</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>1329</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>1330</v>
+      </c>
+      <c r="O31" s="23" t="s">
         <v>1326</v>
       </c>
-      <c r="G31" s="22" t="s">
-        <v>1321</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="2" t="s">
-        <v>1322</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>1334</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>1329</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>1330</v>
-      </c>
-      <c r="P31" s="23" t="s">
-        <v>1326</v>
-      </c>
-      <c r="Q31" s="24" t="s">
+      <c r="P31" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S31" s="2" t="s">
+      <c r="R31" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="46" t="s">
         <v>1929</v>
       </c>
@@ -27783,39 +27669,36 @@
       <c r="E32" s="2" t="s">
         <v>1335</v>
       </c>
-      <c r="F32" s="65" t="s">
+      <c r="F32" s="22" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>1336</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>1329</v>
+      </c>
+      <c r="M32" s="25" t="s">
+        <v>1337</v>
+      </c>
+      <c r="O32" s="23" t="s">
         <v>1326</v>
       </c>
-      <c r="G32" s="22" t="s">
-        <v>1321</v>
-      </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="2" t="s">
-        <v>1322</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>1336</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>1329</v>
-      </c>
-      <c r="N32" s="25" t="s">
-        <v>1337</v>
-      </c>
-      <c r="P32" s="23" t="s">
-        <v>1326</v>
-      </c>
-      <c r="Q32" s="24" t="s">
+      <c r="P32" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S32" s="2" t="s">
+      <c r="R32" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="46" t="s">
         <v>1930</v>
       </c>
@@ -27831,39 +27714,36 @@
       <c r="E33" s="2" t="s">
         <v>1338</v>
       </c>
-      <c r="F33" s="65" t="s">
+      <c r="F33" s="22" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>1329</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>1340</v>
+      </c>
+      <c r="O33" s="23" t="s">
         <v>1326</v>
       </c>
-      <c r="G33" s="22" t="s">
-        <v>1321</v>
-      </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="2" t="s">
-        <v>1322</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>1339</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>1329</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>1340</v>
-      </c>
-      <c r="P33" s="23" t="s">
-        <v>1326</v>
-      </c>
-      <c r="Q33" s="24" t="s">
+      <c r="P33" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S33" s="2" t="s">
+      <c r="R33" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="46" t="s">
         <v>1931</v>
       </c>
@@ -27879,39 +27759,36 @@
       <c r="E34" s="2" t="s">
         <v>1341</v>
       </c>
-      <c r="F34" s="65" t="s">
+      <c r="F34" s="22" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>1329</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>1344</v>
+      </c>
+      <c r="O34" s="23" t="s">
         <v>1326</v>
       </c>
-      <c r="G34" s="22" t="s">
-        <v>1321</v>
-      </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="2" t="s">
-        <v>1342</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>1343</v>
-      </c>
-      <c r="M34" s="8" t="s">
-        <v>1329</v>
-      </c>
-      <c r="N34" s="8" t="s">
-        <v>1344</v>
-      </c>
-      <c r="P34" s="23" t="s">
-        <v>1326</v>
-      </c>
-      <c r="Q34" s="24" t="s">
+      <c r="P34" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S34" s="2" t="s">
+      <c r="R34" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="46" t="s">
         <v>1932</v>
       </c>
@@ -27927,39 +27804,36 @@
       <c r="E35" s="2" t="s">
         <v>1345</v>
       </c>
-      <c r="F35" s="65" t="s">
+      <c r="F35" s="22" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>1346</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>1324</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>1325</v>
+      </c>
+      <c r="O35" s="23" t="s">
         <v>1326</v>
       </c>
-      <c r="G35" s="22" t="s">
-        <v>1321</v>
-      </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="2" t="s">
-        <v>1322</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>1346</v>
-      </c>
-      <c r="M35" s="8" t="s">
-        <v>1324</v>
-      </c>
-      <c r="N35" s="8" t="s">
-        <v>1325</v>
-      </c>
-      <c r="P35" s="23" t="s">
-        <v>1326</v>
-      </c>
-      <c r="Q35" s="24" t="s">
+      <c r="P35" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S35" s="2" t="s">
+      <c r="R35" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="46" t="s">
         <v>1934</v>
       </c>
@@ -27975,39 +27849,36 @@
       <c r="E36" s="2" t="s">
         <v>1348</v>
       </c>
-      <c r="F36" s="65" t="s">
+      <c r="F36" s="22" t="s">
+        <v>1933</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>1351</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>1352</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O36" s="23" t="s">
         <v>1353</v>
       </c>
-      <c r="G36" s="22" t="s">
-        <v>1933</v>
-      </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="2" t="s">
-        <v>1350</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>1351</v>
-      </c>
-      <c r="M36" s="8" t="s">
-        <v>1352</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="P36" s="23" t="s">
-        <v>1353</v>
-      </c>
-      <c r="Q36" s="24" t="s">
+      <c r="P36" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S36" s="2" t="s">
+      <c r="R36" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="46" t="s">
         <v>1935</v>
       </c>
@@ -28023,39 +27894,36 @@
       <c r="E37" s="2" t="s">
         <v>1354</v>
       </c>
-      <c r="F37" s="65" t="s">
+      <c r="F37" s="22" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>1355</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>1356</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>1357</v>
+      </c>
+      <c r="O37" s="23" t="s">
         <v>1353</v>
       </c>
-      <c r="G37" s="22" t="s">
-        <v>1349</v>
-      </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="2" t="s">
-        <v>1350</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>1355</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>1356</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>1357</v>
-      </c>
-      <c r="P37" s="23" t="s">
-        <v>1353</v>
-      </c>
-      <c r="Q37" s="24" t="s">
+      <c r="P37" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S37" s="2" t="s">
+      <c r="R37" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="46" t="s">
         <v>1936</v>
       </c>
@@ -28071,39 +27939,36 @@
       <c r="E38" s="2" t="s">
         <v>1358</v>
       </c>
-      <c r="F38" s="65" t="s">
+      <c r="F38" s="22" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>1359</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>1356</v>
+      </c>
+      <c r="M38" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O38" s="23" t="s">
         <v>1353</v>
       </c>
-      <c r="G38" s="22" t="s">
-        <v>1349</v>
-      </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="2" t="s">
-        <v>1350</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>1359</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>1356</v>
-      </c>
-      <c r="N38" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="P38" s="23" t="s">
-        <v>1353</v>
-      </c>
-      <c r="Q38" s="24" t="s">
+      <c r="P38" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S38" s="2" t="s">
+      <c r="R38" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="46" t="s">
         <v>1937</v>
       </c>
@@ -28119,39 +27984,36 @@
       <c r="E39" s="2" t="s">
         <v>1360</v>
       </c>
-      <c r="F39" s="65" t="s">
+      <c r="F39" s="22" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>1361</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>1356</v>
+      </c>
+      <c r="M39" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O39" s="23" t="s">
         <v>1353</v>
       </c>
-      <c r="G39" s="22" t="s">
-        <v>1349</v>
-      </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="2" t="s">
-        <v>1350</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>1361</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>1356</v>
-      </c>
-      <c r="N39" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="P39" s="23" t="s">
-        <v>1353</v>
-      </c>
-      <c r="Q39" s="24" t="s">
+      <c r="P39" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S39" s="2" t="s">
+      <c r="R39" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="46" t="s">
         <v>1938</v>
       </c>
@@ -28167,39 +28029,36 @@
       <c r="E40" s="2" t="s">
         <v>1362</v>
       </c>
-      <c r="F40" s="65" t="s">
+      <c r="F40" s="22" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>1363</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>1356</v>
+      </c>
+      <c r="M40" s="25" t="s">
+        <v>1357</v>
+      </c>
+      <c r="O40" s="23" t="s">
         <v>1353</v>
       </c>
-      <c r="G40" s="22" t="s">
-        <v>1349</v>
-      </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="2" t="s">
-        <v>1350</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>1363</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>1356</v>
-      </c>
-      <c r="N40" s="25" t="s">
-        <v>1357</v>
-      </c>
-      <c r="P40" s="23" t="s">
-        <v>1353</v>
-      </c>
-      <c r="Q40" s="24" t="s">
+      <c r="P40" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S40" s="2" t="s">
+      <c r="R40" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="46" t="s">
         <v>1940</v>
       </c>
@@ -28215,36 +28074,33 @@
       <c r="E41" s="2" t="s">
         <v>1365</v>
       </c>
-      <c r="F41" s="65" t="s">
+      <c r="F41" s="51" t="s">
+        <v>1939</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="I41" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>1367</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>1368</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>1369</v>
+      </c>
+      <c r="O41" s="23" t="s">
         <v>1370</v>
       </c>
-      <c r="G41" s="51" t="s">
-        <v>1939</v>
-      </c>
-      <c r="H41" s="7"/>
-      <c r="J41" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>1367</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>1368</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>1369</v>
-      </c>
-      <c r="P41" s="23" t="s">
-        <v>1370</v>
-      </c>
-      <c r="Q41" s="24" t="s">
+      <c r="P41" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S41" s="2" t="s">
+      <c r="R41" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="46" t="s">
         <v>1941</v>
       </c>
@@ -28260,36 +28116,33 @@
       <c r="E42" s="2" t="s">
         <v>1371</v>
       </c>
-      <c r="F42" s="65" t="s">
+      <c r="F42" s="7" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="I42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>1372</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>1373</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>1244</v>
+      </c>
+      <c r="O42" s="23" t="s">
         <v>1370</v>
       </c>
-      <c r="G42" s="7" t="s">
-        <v>1366</v>
-      </c>
-      <c r="H42" s="7"/>
-      <c r="J42" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L42" s="8" t="s">
-        <v>1372</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>1373</v>
-      </c>
-      <c r="N42" s="8" t="s">
-        <v>1244</v>
-      </c>
-      <c r="P42" s="23" t="s">
-        <v>1370</v>
-      </c>
-      <c r="Q42" s="24" t="s">
+      <c r="P42" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S42" s="2" t="s">
+      <c r="R42" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="46" t="s">
         <v>1942</v>
       </c>
@@ -28305,36 +28158,33 @@
       <c r="E43" s="2" t="s">
         <v>1374</v>
       </c>
-      <c r="F43" s="65" t="s">
+      <c r="F43" s="7" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="I43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>1246</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>1373</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>1244</v>
+      </c>
+      <c r="O43" s="23" t="s">
         <v>1370</v>
       </c>
-      <c r="G43" s="7" t="s">
-        <v>1366</v>
-      </c>
-      <c r="H43" s="7"/>
-      <c r="J43" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>1246</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>1373</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>1244</v>
-      </c>
-      <c r="P43" s="23" t="s">
-        <v>1370</v>
-      </c>
-      <c r="Q43" s="24" t="s">
+      <c r="P43" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S43" s="2" t="s">
+      <c r="R43" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="46" t="s">
         <v>1943</v>
       </c>
@@ -28350,36 +28200,33 @@
       <c r="E44" s="2" t="s">
         <v>1375</v>
       </c>
-      <c r="F44" s="65" t="s">
+      <c r="F44" s="7" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="I44" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>1248</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>1373</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>1244</v>
+      </c>
+      <c r="O44" s="23" t="s">
         <v>1370</v>
       </c>
-      <c r="G44" s="7" t="s">
-        <v>1366</v>
-      </c>
-      <c r="H44" s="7"/>
-      <c r="J44" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L44" s="8" t="s">
-        <v>1248</v>
-      </c>
-      <c r="M44" s="8" t="s">
-        <v>1373</v>
-      </c>
-      <c r="N44" s="8" t="s">
-        <v>1244</v>
-      </c>
-      <c r="P44" s="23" t="s">
-        <v>1370</v>
-      </c>
-      <c r="Q44" s="24" t="s">
+      <c r="P44" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S44" s="2" t="s">
+      <c r="R44" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="46" t="s">
         <v>1945</v>
       </c>
@@ -28395,36 +28242,33 @@
       <c r="E45" s="2" t="s">
         <v>1377</v>
       </c>
-      <c r="F45" s="65" t="s">
+      <c r="F45" s="51" t="s">
+        <v>1944</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="I45" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>1379</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>1380</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>1381</v>
+      </c>
+      <c r="O45" s="23" t="s">
         <v>1382</v>
       </c>
-      <c r="G45" s="51" t="s">
-        <v>1944</v>
-      </c>
-      <c r="H45" s="7"/>
-      <c r="J45" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L45" s="8" t="s">
-        <v>1379</v>
-      </c>
-      <c r="M45" s="8" t="s">
-        <v>1380</v>
-      </c>
-      <c r="N45" s="8" t="s">
-        <v>1381</v>
-      </c>
-      <c r="P45" s="23" t="s">
-        <v>1382</v>
-      </c>
-      <c r="Q45" s="24" t="s">
+      <c r="P45" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S45" s="2" t="s">
+      <c r="R45" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="46" t="s">
         <v>1946</v>
       </c>
@@ -28440,36 +28284,33 @@
       <c r="E46" s="2" t="s">
         <v>1383</v>
       </c>
-      <c r="F46" s="65" t="s">
+      <c r="F46" s="7" t="s">
+        <v>1378</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="I46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>1384</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>1330</v>
+      </c>
+      <c r="O46" s="23" t="s">
         <v>1382</v>
       </c>
-      <c r="G46" s="7" t="s">
-        <v>1378</v>
-      </c>
-      <c r="H46" s="7"/>
-      <c r="J46" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L46" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>1384</v>
-      </c>
-      <c r="N46" s="8" t="s">
-        <v>1330</v>
-      </c>
-      <c r="P46" s="23" t="s">
-        <v>1382</v>
-      </c>
-      <c r="Q46" s="24" t="s">
+      <c r="P46" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S46" s="2" t="s">
+      <c r="R46" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="62" t="s">
         <v>1948</v>
       </c>
@@ -28485,34 +28326,31 @@
       <c r="E47" s="2" t="s">
         <v>1386</v>
       </c>
-      <c r="F47" s="65" t="s">
+      <c r="F47" s="22" t="s">
+        <v>1947</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="I47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>1388</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="M47" s="8"/>
+      <c r="O47" s="23" t="s">
         <v>1389</v>
       </c>
-      <c r="G47" s="22" t="s">
-        <v>1947</v>
-      </c>
-      <c r="H47" s="7"/>
-      <c r="J47" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L47" s="8" t="s">
-        <v>1388</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>1386</v>
-      </c>
-      <c r="N47" s="8"/>
-      <c r="P47" s="23" t="s">
-        <v>1389</v>
-      </c>
-      <c r="Q47" s="24" t="s">
+      <c r="P47" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S47" s="2" t="s">
+      <c r="R47" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="62" t="s">
         <v>1949</v>
       </c>
@@ -28528,34 +28366,31 @@
       <c r="E48" s="2" t="s">
         <v>1390</v>
       </c>
-      <c r="F48" s="65" t="s">
+      <c r="F48" s="22" t="s">
+        <v>1387</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="I48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>1391</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="M48" s="8"/>
+      <c r="O48" s="23" t="s">
         <v>1389</v>
       </c>
-      <c r="G48" s="22" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H48" s="7"/>
-      <c r="J48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L48" s="8" t="s">
-        <v>1391</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>1390</v>
-      </c>
-      <c r="N48" s="8"/>
-      <c r="P48" s="23" t="s">
-        <v>1389</v>
-      </c>
-      <c r="Q48" s="24" t="s">
+      <c r="P48" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S48" s="2" t="s">
+      <c r="R48" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="62" t="s">
         <v>1950</v>
       </c>
@@ -28571,30 +28406,27 @@
       <c r="E49" s="2" t="s">
         <v>1392</v>
       </c>
-      <c r="F49" s="65" t="s">
+      <c r="F49" s="22" t="s">
+        <v>1387</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="I49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>1393</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="M49" s="8"/>
+      <c r="O49" s="23" t="s">
         <v>1389</v>
       </c>
-      <c r="G49" s="22" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H49" s="7"/>
-      <c r="J49" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>1393</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>1394</v>
-      </c>
-      <c r="N49" s="8"/>
-      <c r="P49" s="23" t="s">
-        <v>1389</v>
-      </c>
-      <c r="Q49" s="24" t="s">
+      <c r="P49" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="S49" s="2" t="s">
+      <c r="R49" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -28602,105 +28434,57 @@
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <phoneticPr fontId="24" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P10" r:id="rId1" tooltip="http://yapi.hikcreate.com/project/31/interface/api/57147"/>
-    <hyperlink ref="P7" r:id="rId2" tooltip="http://yapi.hikcreate.com/project/31/interface/api/57147"/>
-    <hyperlink ref="P8" r:id="rId3" tooltip="http://yapi.hikcreate.com/project/31/interface/api/57147"/>
-    <hyperlink ref="P9" r:id="rId4" tooltip="http://yapi.hikcreate.com/project/31/interface/api/57147"/>
-    <hyperlink ref="P5" r:id="rId5" tooltip="http://yapi.hikcreate.com/project/31/interface/api/55887"/>
-    <hyperlink ref="P6" r:id="rId6" tooltip="http://yapi.hikcreate.com/project/31/interface/api/57138"/>
-    <hyperlink ref="P2" r:id="rId7"/>
-    <hyperlink ref="P3" r:id="rId8" tooltip="http://yapi.hikcreate.com/project/31/interface/api/55878"/>
-    <hyperlink ref="P4" r:id="rId9" tooltip="http://yapi.hikcreate.com/project/31/interface/api/55869"/>
-    <hyperlink ref="P11" r:id="rId10" tooltip="http://yapi.hikcreate.com/project/31/interface/api/64302"/>
-    <hyperlink ref="P12" r:id="rId11" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56418"/>
-    <hyperlink ref="P13" r:id="rId12" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56418"/>
-    <hyperlink ref="P14" r:id="rId13" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56427"/>
-    <hyperlink ref="P15" r:id="rId14" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56436"/>
-    <hyperlink ref="P16" r:id="rId15" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56436"/>
-    <hyperlink ref="P17" r:id="rId16" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56436"/>
-    <hyperlink ref="P18" r:id="rId17" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56841"/>
-    <hyperlink ref="P19" r:id="rId18" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56841"/>
-    <hyperlink ref="P20" r:id="rId19" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56841"/>
-    <hyperlink ref="P47" r:id="rId20" tooltip="http://yapi.hikcreate.com/project/31/interface/api/61233"/>
-    <hyperlink ref="P48" r:id="rId21" tooltip="http://yapi.hikcreate.com/project/31/interface/api/61233"/>
-    <hyperlink ref="P49" r:id="rId22" tooltip="http://yapi.hikcreate.com/project/31/interface/api/61233"/>
-    <hyperlink ref="P21" r:id="rId23" tooltip="http://yapi.hikcreate.com/project/31/interface/api/55896"/>
-    <hyperlink ref="P22" r:id="rId24" tooltip="http://yapi.hikcreate.com/project/31/interface/api/55896"/>
-    <hyperlink ref="P23" r:id="rId25" tooltip="http://yapi.hikcreate.com/project/31/interface/api/55896"/>
-    <hyperlink ref="P24" r:id="rId26" tooltip="http://yapi.hikcreate.com/project/31/interface/api/55896"/>
-    <hyperlink ref="P25" r:id="rId27" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56076"/>
-    <hyperlink ref="P26" r:id="rId28" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56076"/>
-    <hyperlink ref="P27" r:id="rId29" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56076"/>
-    <hyperlink ref="P28" r:id="rId30" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56085"/>
-    <hyperlink ref="P29" r:id="rId31" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56085"/>
-    <hyperlink ref="P30" r:id="rId32" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56085"/>
-    <hyperlink ref="P31" r:id="rId33" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56085"/>
-    <hyperlink ref="P32" r:id="rId34" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56085"/>
-    <hyperlink ref="P33" r:id="rId35" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56085"/>
-    <hyperlink ref="P34" r:id="rId36" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56085"/>
-    <hyperlink ref="P35" r:id="rId37" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56085"/>
-    <hyperlink ref="P36" r:id="rId38" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56094"/>
-    <hyperlink ref="P37" r:id="rId39" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56094"/>
-    <hyperlink ref="P38" r:id="rId40" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56094"/>
-    <hyperlink ref="P39" r:id="rId41" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56094"/>
-    <hyperlink ref="P40" r:id="rId42" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56094"/>
-    <hyperlink ref="P41" r:id="rId43" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56103"/>
-    <hyperlink ref="P42" r:id="rId44" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56103"/>
-    <hyperlink ref="P43" r:id="rId45" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56103"/>
-    <hyperlink ref="P44" r:id="rId46" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56103"/>
-    <hyperlink ref="P45" r:id="rId47" tooltip="http://yapi.hikcreate.com/project/31/interface/api/57354"/>
-    <hyperlink ref="P46" r:id="rId48" tooltip="http://yapi.hikcreate.com/project/31/interface/api/57354"/>
-    <hyperlink ref="F10" r:id="rId49" tooltip="http://yapi.hikcreate.com/project/31/interface/api/57147"/>
-    <hyperlink ref="F7" r:id="rId50" tooltip="http://yapi.hikcreate.com/project/31/interface/api/57147"/>
-    <hyperlink ref="F8" r:id="rId51" tooltip="http://yapi.hikcreate.com/project/31/interface/api/57147"/>
-    <hyperlink ref="F9" r:id="rId52" tooltip="http://yapi.hikcreate.com/project/31/interface/api/57147"/>
-    <hyperlink ref="F5" r:id="rId53" tooltip="http://yapi.hikcreate.com/project/31/interface/api/55887"/>
-    <hyperlink ref="F6" r:id="rId54"/>
-    <hyperlink ref="F2" r:id="rId55"/>
-    <hyperlink ref="F3" r:id="rId56"/>
-    <hyperlink ref="F4" r:id="rId57" tooltip="http://yapi.hikcreate.com/project/31/interface/api/55869"/>
-    <hyperlink ref="F11" r:id="rId58" tooltip="http://yapi.hikcreate.com/project/31/interface/api/64302"/>
-    <hyperlink ref="F12" r:id="rId59" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56418"/>
-    <hyperlink ref="F13" r:id="rId60" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56418"/>
-    <hyperlink ref="F14" r:id="rId61" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56427"/>
-    <hyperlink ref="F15" r:id="rId62" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56436"/>
-    <hyperlink ref="F16" r:id="rId63" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56436"/>
-    <hyperlink ref="F17" r:id="rId64" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56436"/>
-    <hyperlink ref="F18" r:id="rId65" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56841"/>
-    <hyperlink ref="F19" r:id="rId66" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56841"/>
-    <hyperlink ref="F20" r:id="rId67" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56841"/>
-    <hyperlink ref="F47" r:id="rId68" tooltip="http://yapi.hikcreate.com/project/31/interface/api/61233"/>
-    <hyperlink ref="F48" r:id="rId69" tooltip="http://yapi.hikcreate.com/project/31/interface/api/61233"/>
-    <hyperlink ref="F49" r:id="rId70" tooltip="http://yapi.hikcreate.com/project/31/interface/api/61233"/>
-    <hyperlink ref="F21" r:id="rId71" tooltip="http://yapi.hikcreate.com/project/31/interface/api/55896"/>
-    <hyperlink ref="F22" r:id="rId72" tooltip="http://yapi.hikcreate.com/project/31/interface/api/55896"/>
-    <hyperlink ref="F23" r:id="rId73" tooltip="http://yapi.hikcreate.com/project/31/interface/api/55896"/>
-    <hyperlink ref="F24" r:id="rId74" tooltip="http://yapi.hikcreate.com/project/31/interface/api/55896"/>
-    <hyperlink ref="F25" r:id="rId75" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56076"/>
-    <hyperlink ref="F26" r:id="rId76" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56076"/>
-    <hyperlink ref="F27" r:id="rId77" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56076"/>
-    <hyperlink ref="F28" r:id="rId78" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56085"/>
-    <hyperlink ref="F29" r:id="rId79" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56085"/>
-    <hyperlink ref="F30" r:id="rId80" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56085"/>
-    <hyperlink ref="F31" r:id="rId81" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56085"/>
-    <hyperlink ref="F32" r:id="rId82" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56085"/>
-    <hyperlink ref="F33" r:id="rId83" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56085"/>
-    <hyperlink ref="F34" r:id="rId84" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56085"/>
-    <hyperlink ref="F35" r:id="rId85" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56085"/>
-    <hyperlink ref="F36" r:id="rId86" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56094"/>
-    <hyperlink ref="F37" r:id="rId87" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56094"/>
-    <hyperlink ref="F38" r:id="rId88" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56094"/>
-    <hyperlink ref="F39" r:id="rId89" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56094"/>
-    <hyperlink ref="F40" r:id="rId90" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56094"/>
-    <hyperlink ref="F41" r:id="rId91" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56103"/>
-    <hyperlink ref="F42" r:id="rId92" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56103"/>
-    <hyperlink ref="F43" r:id="rId93" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56103"/>
-    <hyperlink ref="F44" r:id="rId94" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56103"/>
-    <hyperlink ref="F45" r:id="rId95" tooltip="http://yapi.hikcreate.com/project/31/interface/api/57354"/>
-    <hyperlink ref="F46" r:id="rId96" tooltip="http://yapi.hikcreate.com/project/31/interface/api/57354"/>
+    <hyperlink ref="O10" r:id="rId1" tooltip="http://yapi.hikcreate.com/project/31/interface/api/57147"/>
+    <hyperlink ref="O7" r:id="rId2" tooltip="http://yapi.hikcreate.com/project/31/interface/api/57147"/>
+    <hyperlink ref="O8" r:id="rId3" tooltip="http://yapi.hikcreate.com/project/31/interface/api/57147"/>
+    <hyperlink ref="O9" r:id="rId4" tooltip="http://yapi.hikcreate.com/project/31/interface/api/57147"/>
+    <hyperlink ref="O5" r:id="rId5" tooltip="http://yapi.hikcreate.com/project/31/interface/api/55887"/>
+    <hyperlink ref="O6" r:id="rId6" tooltip="http://yapi.hikcreate.com/project/31/interface/api/57138"/>
+    <hyperlink ref="O2" r:id="rId7"/>
+    <hyperlink ref="O3" r:id="rId8" tooltip="http://yapi.hikcreate.com/project/31/interface/api/55878"/>
+    <hyperlink ref="O4" r:id="rId9" tooltip="http://yapi.hikcreate.com/project/31/interface/api/55869"/>
+    <hyperlink ref="O11" r:id="rId10" tooltip="http://yapi.hikcreate.com/project/31/interface/api/64302"/>
+    <hyperlink ref="O12" r:id="rId11" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56418"/>
+    <hyperlink ref="O13" r:id="rId12" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56418"/>
+    <hyperlink ref="O14" r:id="rId13" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56427"/>
+    <hyperlink ref="O15" r:id="rId14" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56436"/>
+    <hyperlink ref="O16" r:id="rId15" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56436"/>
+    <hyperlink ref="O17" r:id="rId16" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56436"/>
+    <hyperlink ref="O18" r:id="rId17" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56841"/>
+    <hyperlink ref="O19" r:id="rId18" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56841"/>
+    <hyperlink ref="O20" r:id="rId19" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56841"/>
+    <hyperlink ref="O47" r:id="rId20" tooltip="http://yapi.hikcreate.com/project/31/interface/api/61233"/>
+    <hyperlink ref="O48" r:id="rId21" tooltip="http://yapi.hikcreate.com/project/31/interface/api/61233"/>
+    <hyperlink ref="O49" r:id="rId22" tooltip="http://yapi.hikcreate.com/project/31/interface/api/61233"/>
+    <hyperlink ref="O21" r:id="rId23" tooltip="http://yapi.hikcreate.com/project/31/interface/api/55896"/>
+    <hyperlink ref="O22" r:id="rId24" tooltip="http://yapi.hikcreate.com/project/31/interface/api/55896"/>
+    <hyperlink ref="O23" r:id="rId25" tooltip="http://yapi.hikcreate.com/project/31/interface/api/55896"/>
+    <hyperlink ref="O24" r:id="rId26" tooltip="http://yapi.hikcreate.com/project/31/interface/api/55896"/>
+    <hyperlink ref="O25" r:id="rId27" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56076"/>
+    <hyperlink ref="O26" r:id="rId28" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56076"/>
+    <hyperlink ref="O27" r:id="rId29" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56076"/>
+    <hyperlink ref="O28" r:id="rId30" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56085"/>
+    <hyperlink ref="O29" r:id="rId31" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56085"/>
+    <hyperlink ref="O30" r:id="rId32" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56085"/>
+    <hyperlink ref="O31" r:id="rId33" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56085"/>
+    <hyperlink ref="O32" r:id="rId34" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56085"/>
+    <hyperlink ref="O33" r:id="rId35" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56085"/>
+    <hyperlink ref="O34" r:id="rId36" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56085"/>
+    <hyperlink ref="O35" r:id="rId37" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56085"/>
+    <hyperlink ref="O36" r:id="rId38" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56094"/>
+    <hyperlink ref="O37" r:id="rId39" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56094"/>
+    <hyperlink ref="O38" r:id="rId40" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56094"/>
+    <hyperlink ref="O39" r:id="rId41" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56094"/>
+    <hyperlink ref="O40" r:id="rId42" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56094"/>
+    <hyperlink ref="O41" r:id="rId43" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56103"/>
+    <hyperlink ref="O42" r:id="rId44" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56103"/>
+    <hyperlink ref="O43" r:id="rId45" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56103"/>
+    <hyperlink ref="O44" r:id="rId46" tooltip="http://yapi.hikcreate.com/project/31/interface/api/56103"/>
+    <hyperlink ref="O45" r:id="rId47" tooltip="http://yapi.hikcreate.com/project/31/interface/api/57354"/>
+    <hyperlink ref="O46" r:id="rId48" tooltip="http://yapi.hikcreate.com/project/31/interface/api/57354"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId97"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>
 </worksheet>
 </file>
 
@@ -29379,39 +29163,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="11"/>
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="12"/>
-  <pixelatorList sheetStid="9"/>
-  <pixelatorList sheetStid="8"/>
-  <pixelatorList sheetStid="10"/>
-  <pixelatorList sheetStid="13"/>
-  <pixelatorList sheetStid="14"/>
-  <pixelatorList sheetStid="15"/>
-</pixelators>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="11" master=""/>
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="12" master=""/>
-  <rangeList sheetStid="9" master=""/>
-  <rangeList sheetStid="8" master=""/>
-  <rangeList sheetStid="10" master=""/>
-  <rangeList sheetStid="13" master=""/>
-  <rangeList sheetStid="14" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
@@ -29433,12 +29184,45 @@
 </woProps>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="11" master=""/>
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="12" master=""/>
+  <rangeList sheetStid="9" master=""/>
+  <rangeList sheetStid="8" master=""/>
+  <rangeList sheetStid="10" master=""/>
+  <rangeList sheetStid="13" master=""/>
+  <rangeList sheetStid="14" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="11"/>
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="12"/>
+  <pixelatorList sheetStid="9"/>
+  <pixelatorList sheetStid="8"/>
+  <pixelatorList sheetStid="10"/>
+  <pixelatorList sheetStid="13"/>
+  <pixelatorList sheetStid="14"/>
+  <pixelatorList sheetStid="15"/>
+</pixelators>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -29456,7 +29240,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/test_case_data/bmc/bmc_testcase01_20210513.xlsx
+++ b/test_case_data/bmc/bmc_testcase01_20210513.xlsx
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5610" uniqueCount="1983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5610" uniqueCount="1984">
   <si>
     <t>caseNum</t>
   </si>
@@ -9167,11 +9167,15 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>{"success":true,"code":1000,"msg":"操作成功","errorMsg:"操作成功"}</t>
+    <t>{"success":true,"code":1000,"msg":"操作成功","errorMsg":"操作成功"}</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>{"success":false,"code:1005,"msg":"关注渠道不能为空","errorMsg":"BindException.Field error in object "focusSuccessReq".[FocusSuccessReq(channel=,userId=null)] on field "channel": rejected value [].default message [关注渠道不能为空]"}</t>
+    <t>{"success":true,"code":1000,"msg":"操作成功","errorMsg":"操作成功"}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false,"code":1005,"msg":"关注渠道不能为空","errorMsg":"BindException.Field error in object 'focusSuccessReq'.[FocusSuccessReq(channel=,userId=null)] on field 'channel': rejected value [].default message [关注渠道不能为空]"}</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -9640,9 +9644,6 @@
     <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -9663,6 +9664,9 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10353,13 +10357,13 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
@@ -10374,11 +10378,11 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
@@ -26399,8 +26403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="L40" workbookViewId="0">
+      <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28412,13 +28416,13 @@
       </c>
     </row>
     <row r="47" spans="1:18" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="61" t="s">
+      <c r="A47" s="60" t="s">
         <v>1980</v>
       </c>
       <c r="B47" s="35" t="s">
         <v>1215</v>
       </c>
-      <c r="C47" s="62" t="s">
+      <c r="C47" s="61" t="s">
         <v>1942</v>
       </c>
       <c r="D47" s="35" t="s">
@@ -28427,23 +28431,23 @@
       <c r="E47" s="35" t="s">
         <v>1379</v>
       </c>
-      <c r="F47" s="63" t="s">
+      <c r="F47" s="62" t="s">
         <v>1939</v>
       </c>
       <c r="G47" s="7"/>
       <c r="I47" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="K47" s="64" t="s">
+      <c r="K47" s="63" t="s">
         <v>1381</v>
       </c>
       <c r="L47" s="35" t="s">
         <v>1379</v>
       </c>
-      <c r="M47" s="65" t="s">
-        <v>1981</v>
-      </c>
-      <c r="O47" s="66" t="s">
+      <c r="M47" s="64" t="s">
+        <v>1982</v>
+      </c>
+      <c r="O47" s="65" t="s">
         <v>1382</v>
       </c>
       <c r="P47" s="22" t="s">
@@ -28454,13 +28458,13 @@
       </c>
     </row>
     <row r="48" spans="1:18" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="61" t="s">
+      <c r="A48" s="60" t="s">
         <v>1940</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>1215</v>
       </c>
-      <c r="C48" s="67" t="s">
+      <c r="C48" s="66" t="s">
         <v>1378</v>
       </c>
       <c r="D48" s="35" t="s">
@@ -28469,23 +28473,23 @@
       <c r="E48" s="35" t="s">
         <v>1383</v>
       </c>
-      <c r="F48" s="63" t="s">
+      <c r="F48" s="62" t="s">
         <v>1380</v>
       </c>
       <c r="G48" s="7"/>
       <c r="I48" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="K48" s="64" t="s">
+      <c r="K48" s="63" t="s">
         <v>1384</v>
       </c>
       <c r="L48" s="35" t="s">
         <v>1383</v>
       </c>
-      <c r="M48" s="65" t="s">
+      <c r="M48" s="64" t="s">
         <v>1981</v>
       </c>
-      <c r="O48" s="66" t="s">
+      <c r="O48" s="65" t="s">
         <v>1382</v>
       </c>
       <c r="P48" s="22" t="s">
@@ -28496,13 +28500,13 @@
       </c>
     </row>
     <row r="49" spans="1:18" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="61" t="s">
+      <c r="A49" s="60" t="s">
         <v>1941</v>
       </c>
       <c r="B49" s="35" t="s">
         <v>1215</v>
       </c>
-      <c r="C49" s="67" t="s">
+      <c r="C49" s="66" t="s">
         <v>1378</v>
       </c>
       <c r="D49" s="35" t="s">
@@ -28511,23 +28515,23 @@
       <c r="E49" s="35" t="s">
         <v>1385</v>
       </c>
-      <c r="F49" s="63" t="s">
+      <c r="F49" s="62" t="s">
         <v>1380</v>
       </c>
       <c r="G49" s="7"/>
       <c r="I49" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="K49" s="64" t="s">
+      <c r="K49" s="63" t="s">
         <v>1386</v>
       </c>
       <c r="L49" s="35" t="s">
         <v>1387</v>
       </c>
-      <c r="M49" s="65" t="s">
-        <v>1982</v>
-      </c>
-      <c r="O49" s="66" t="s">
+      <c r="M49" s="64" t="s">
+        <v>1983</v>
+      </c>
+      <c r="O49" s="65" t="s">
         <v>1382</v>
       </c>
       <c r="P49" s="22" t="s">
@@ -29270,6 +29274,39 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="11"/>
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="12"/>
+  <pixelatorList sheetStid="9"/>
+  <pixelatorList sheetStid="8"/>
+  <pixelatorList sheetStid="10"/>
+  <pixelatorList sheetStid="13"/>
+  <pixelatorList sheetStid="14"/>
+  <pixelatorList sheetStid="15"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="11" master=""/>
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="12" master=""/>
+  <rangeList sheetStid="9" master=""/>
+  <rangeList sheetStid="8" master=""/>
+  <rangeList sheetStid="10" master=""/>
+  <rangeList sheetStid="13" master=""/>
+  <rangeList sheetStid="14" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
@@ -29291,45 +29328,12 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="11" master=""/>
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="12" master=""/>
-  <rangeList sheetStid="9" master=""/>
-  <rangeList sheetStid="8" master=""/>
-  <rangeList sheetStid="10" master=""/>
-  <rangeList sheetStid="13" master=""/>
-  <rangeList sheetStid="14" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="11"/>
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="12"/>
-  <pixelatorList sheetStid="9"/>
-  <pixelatorList sheetStid="8"/>
-  <pixelatorList sheetStid="10"/>
-  <pixelatorList sheetStid="13"/>
-  <pixelatorList sheetStid="14"/>
-  <pixelatorList sheetStid="15"/>
-</pixelators>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -29347,7 +29351,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/test_case_data/bmc/bmc_testcase01_20210513.xlsx
+++ b/test_case_data/bmc/bmc_testcase01_20210513.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\接口自动化\InterfaceAutoTest\test_case_data\bmc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\InterfaceAutoTest\test_case_data\bmc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -9640,9 +9640,6 @@
     <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -9663,6 +9660,9 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10353,13 +10353,13 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
@@ -10374,11 +10374,11 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
@@ -26397,10 +26397,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28412,13 +28412,13 @@
       </c>
     </row>
     <row r="47" spans="1:18" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="61" t="s">
+      <c r="A47" s="60" t="s">
         <v>1980</v>
       </c>
       <c r="B47" s="35" t="s">
         <v>1215</v>
       </c>
-      <c r="C47" s="62" t="s">
+      <c r="C47" s="61" t="s">
         <v>1942</v>
       </c>
       <c r="D47" s="35" t="s">
@@ -28427,23 +28427,23 @@
       <c r="E47" s="35" t="s">
         <v>1379</v>
       </c>
-      <c r="F47" s="63" t="s">
+      <c r="F47" s="62" t="s">
         <v>1939</v>
       </c>
       <c r="G47" s="7"/>
       <c r="I47" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="K47" s="64" t="s">
+      <c r="K47" s="63" t="s">
         <v>1381</v>
       </c>
       <c r="L47" s="35" t="s">
         <v>1379</v>
       </c>
-      <c r="M47" s="65" t="s">
+      <c r="M47" s="64" t="s">
         <v>1981</v>
       </c>
-      <c r="O47" s="66" t="s">
+      <c r="O47" s="65" t="s">
         <v>1382</v>
       </c>
       <c r="P47" s="22" t="s">
@@ -28454,13 +28454,13 @@
       </c>
     </row>
     <row r="48" spans="1:18" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="61" t="s">
+      <c r="A48" s="60" t="s">
         <v>1940</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>1215</v>
       </c>
-      <c r="C48" s="67" t="s">
+      <c r="C48" s="66" t="s">
         <v>1378</v>
       </c>
       <c r="D48" s="35" t="s">
@@ -28469,23 +28469,23 @@
       <c r="E48" s="35" t="s">
         <v>1383</v>
       </c>
-      <c r="F48" s="63" t="s">
+      <c r="F48" s="62" t="s">
         <v>1380</v>
       </c>
       <c r="G48" s="7"/>
       <c r="I48" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="K48" s="64" t="s">
+      <c r="K48" s="63" t="s">
         <v>1384</v>
       </c>
       <c r="L48" s="35" t="s">
         <v>1383</v>
       </c>
-      <c r="M48" s="65" t="s">
+      <c r="M48" s="64" t="s">
         <v>1981</v>
       </c>
-      <c r="O48" s="66" t="s">
+      <c r="O48" s="65" t="s">
         <v>1382</v>
       </c>
       <c r="P48" s="22" t="s">
@@ -28496,13 +28496,13 @@
       </c>
     </row>
     <row r="49" spans="1:18" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="61" t="s">
+      <c r="A49" s="60" t="s">
         <v>1941</v>
       </c>
       <c r="B49" s="35" t="s">
         <v>1215</v>
       </c>
-      <c r="C49" s="67" t="s">
+      <c r="C49" s="66" t="s">
         <v>1378</v>
       </c>
       <c r="D49" s="35" t="s">
@@ -28511,23 +28511,23 @@
       <c r="E49" s="35" t="s">
         <v>1385</v>
       </c>
-      <c r="F49" s="63" t="s">
+      <c r="F49" s="62" t="s">
         <v>1380</v>
       </c>
       <c r="G49" s="7"/>
       <c r="I49" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="K49" s="64" t="s">
+      <c r="K49" s="63" t="s">
         <v>1386</v>
       </c>
       <c r="L49" s="35" t="s">
         <v>1387</v>
       </c>
-      <c r="M49" s="65" t="s">
+      <c r="M49" s="64" t="s">
         <v>1982</v>
       </c>
-      <c r="O49" s="66" t="s">
+      <c r="O49" s="65" t="s">
         <v>1382</v>
       </c>
       <c r="P49" s="22" t="s">
@@ -28536,6 +28536,16 @@
       <c r="R49" s="35" t="s">
         <v>74</v>
       </c>
+    </row>
+    <row r="50" spans="1:18" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="60"/>
+      <c r="C50" s="66"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="7"/>
+      <c r="K50" s="63"/>
+      <c r="M50" s="23"/>
+      <c r="O50" s="65"/>
+      <c r="P50" s="22"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -29270,6 +29280,39 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="11"/>
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="12"/>
+  <pixelatorList sheetStid="9"/>
+  <pixelatorList sheetStid="8"/>
+  <pixelatorList sheetStid="10"/>
+  <pixelatorList sheetStid="13"/>
+  <pixelatorList sheetStid="14"/>
+  <pixelatorList sheetStid="15"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="11" master=""/>
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="12" master=""/>
+  <rangeList sheetStid="9" master=""/>
+  <rangeList sheetStid="8" master=""/>
+  <rangeList sheetStid="10" master=""/>
+  <rangeList sheetStid="13" master=""/>
+  <rangeList sheetStid="14" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
@@ -29291,45 +29334,12 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="11" master=""/>
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="12" master=""/>
-  <rangeList sheetStid="9" master=""/>
-  <rangeList sheetStid="8" master=""/>
-  <rangeList sheetStid="10" master=""/>
-  <rangeList sheetStid="13" master=""/>
-  <rangeList sheetStid="14" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="11"/>
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="12"/>
-  <pixelatorList sheetStid="9"/>
-  <pixelatorList sheetStid="8"/>
-  <pixelatorList sheetStid="10"/>
-  <pixelatorList sheetStid="13"/>
-  <pixelatorList sheetStid="14"/>
-  <pixelatorList sheetStid="15"/>
-</pixelators>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -29347,7 +29357,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/test_case_data/bmc/bmc_testcase01_20210513.xlsx
+++ b/test_case_data/bmc/bmc_testcase01_20210513.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="样例" sheetId="1" r:id="rId1"/>
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5610" uniqueCount="1984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5615" uniqueCount="1992">
   <si>
     <t>caseNum</t>
   </si>
@@ -5423,9 +5423,6 @@
     <t>回调失败</t>
   </si>
   <si>
-    <t>Illegalstudy001</t>
-  </si>
-  <si>
     <t>违法学习</t>
   </si>
   <si>
@@ -5441,36 +5438,18 @@
     <t>查询失败，返回提示信息</t>
   </si>
   <si>
-    <t>{"success":False,"code":1006,"msg":"该用户没有答题记录！"}</t>
-  </si>
-  <si>
     <t>http://yapi.hikcreate.com/project/32/interface/api/67503</t>
   </si>
   <si>
-    <t>Illegalstudy002</t>
-  </si>
-  <si>
     <t>存在答题记录查询</t>
   </si>
   <si>
     <t>查询最近答题记录成功</t>
   </si>
   <si>
-    <t>{ "success": true,"code": 1000,"msg": "操作成功",}</t>
-  </si>
-  <si>
-    <t>Illegalstudy003</t>
-  </si>
-  <si>
-    <t>获取典型案例视频</t>
-  </si>
-  <si>
     <t>获取类型为三车违法的视频</t>
   </si>
   <si>
-    <t>/illegal/study/video/typicalCase</t>
-  </si>
-  <si>
     <t>查询类型为三车违法类型的视频成功</t>
   </si>
   <si>
@@ -5480,27 +5459,15 @@
     <t>http://yapi.hikcreate.com/project/31/interface/api/57606</t>
   </si>
   <si>
-    <t>Illegalstudy004</t>
-  </si>
-  <si>
-    <t>获取试卷</t>
-  </si>
-  <si>
     <t>获取答题试卷</t>
   </si>
   <si>
-    <t>/paper/getPaper</t>
-  </si>
-  <si>
     <t>获取试卷成功</t>
   </si>
   <si>
     <t>http://yapi.hikcreate.com/project/32/interface/api/69573</t>
   </si>
   <si>
-    <t>Illegalstudy005</t>
-  </si>
-  <si>
     <t>提交答案</t>
   </si>
   <si>
@@ -5522,9 +5489,6 @@
     <t>http://yapi.hikcreate.com/project/31/interface/api/67473</t>
   </si>
   <si>
-    <t>Illegalstudy006</t>
-  </si>
-  <si>
     <t>提交浏览题答案，topicid不是该试卷中的题目id</t>
   </si>
   <si>
@@ -5534,45 +5498,24 @@
     <t>提交答案失败</t>
   </si>
   <si>
-    <t>{ "success": False,"code": 1006,"msg": "提交答案失败",}</t>
-  </si>
-  <si>
-    <t>Illegalstudy007</t>
-  </si>
-  <si>
     <t>提交答案，answerId值与试卷实际获取不一致</t>
   </si>
   <si>
     <t>{"answerId":994,"topicId":455,"topicType":2,"isSuccess":0}</t>
   </si>
   <si>
-    <t>{ "success": False,"code": 1006,"msg": "提交答案失败"}</t>
-  </si>
-  <si>
-    <t>Illegalstudy008</t>
-  </si>
-  <si>
     <t>提交答案，topicType值为‘1’单选题，而实际题目类型为浏览提</t>
   </si>
   <si>
     <t>{"answerId":993,"topicId":455,"topicType":1,"isSuccess":0}</t>
   </si>
   <si>
-    <t>{ "success": False,"code": 1001,"msg": "系统出现错误[1001]"}</t>
-  </si>
-  <si>
-    <t>Illegalstudy009</t>
-  </si>
-  <si>
     <t>提交单选题答案</t>
   </si>
   <si>
     <t>{"answerId":994,"topicId":373,"topicType":1,"isSuccess":0,"userAnswer":3}</t>
   </si>
   <si>
-    <t>Illegalstudy010</t>
-  </si>
-  <si>
     <t>查询成绩（只有错题）</t>
   </si>
   <si>
@@ -5588,49 +5531,19 @@
     <t>http://yapi.hikcreate.com/project/32/interface/api/67485</t>
   </si>
   <si>
-    <t>Illegalstudy011</t>
-  </si>
-  <si>
     <t>答题记录主键id错误</t>
   </si>
   <si>
     <t>查询失败，返回错误信息</t>
   </si>
   <si>
-    <t>{ "success": False,"code": 1006,"msg": "未找到相关答题记录"}</t>
-  </si>
-  <si>
-    <t>Illegalstudy012</t>
-  </si>
-  <si>
     <t>答题记录主键未传id</t>
   </si>
   <si>
-    <t>{ "success": False,"code": 1005,"msg": " "系统出现错误[1001]"}</t>
-  </si>
-  <si>
-    <t>Illegalstudy013</t>
-  </si>
-  <si>
-    <t>查询答题记录列表</t>
-  </si>
-  <si>
-    <t>/answer/logList</t>
-  </si>
-  <si>
     <t>查询答题记录列表成功</t>
   </si>
   <si>
     <t>http://yapi.hikcreate.com/project/31/interface/api/67497</t>
-  </si>
-  <si>
-    <t>Illegalstudy014</t>
-  </si>
-  <si>
-    <t>答题记录查询</t>
-  </si>
-  <si>
-    <t>/answer/log</t>
   </si>
   <si>
     <t>查询答题记录成功</t>
@@ -9176,6 +9089,227 @@
   </si>
   <si>
     <t>{"success":false,"code":1005,"msg":"关注渠道不能为空","errorMsg":"BindException.Field error in object 'focusSuccessReq'.[FocusSuccessReq(channel=,userId=null)] on field 'channel': rejected value [].default message [关注渠道不能为空]"}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>recentGradeIllegalstudy001</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/paper/getPaper</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPaperIllegalstudy001</t>
+  </si>
+  <si>
+    <t>submitAnswerIllegalstudy001</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>submitAnswerIllegalstudy003</t>
+  </si>
+  <si>
+    <t>submitAnswerIllegalstudy004</t>
+  </si>
+  <si>
+    <r>
+      <t>detailIllegalstudy0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>detailIllegalstudy002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>detailIllegalstudy003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>查询最近成绩</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/answer/recentGrade</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取典型案例视频</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/illegal/study/video/typicalCase</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPaperIllegalstudy001</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取试卷</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交答案</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/paper/submitAnswer</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/paper/submitAnswer</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询成绩（只有错题）</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/answer/detail</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询答题记录列表</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/answer/logList</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>logIllegalstudy0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>答题记录查询</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/answer/log</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false,"code":1006,"msg":"该用户没有答题记录！"}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>recentGradeIllegalstudy002</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true,"code":1000,"msg":"操作成功"}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false,"code":1006,"msg":"提交答案失败"}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false,"code":1001,"msg":"系统出现错误[1001]"}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false,"code":1006,"msg":"未找到相关答题记录"}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true,"code":1000,"msg":"操作成功"}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false,"code": 1005,"msg":"系统出现错误[1001]"}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>typicalCaseIllegalstudy0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>submitAnswerIllegalstudy002</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>logListIllegalstudy0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>submitAnswerIllegalstudy005</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -9467,7 +9601,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9667,6 +9801,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10493,40 +10630,40 @@
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>1460</v>
+        <v>1431</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1461</v>
+        <v>1432</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1462</v>
+        <v>1433</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1463</v>
+        <v>1434</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1464</v>
+        <v>1435</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="2" t="s">
-        <v>1465</v>
+        <v>1436</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="8" t="s">
-        <v>1466</v>
+        <v>1437</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O2" s="10"/>
       <c r="P2" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>74</v>
@@ -10534,42 +10671,42 @@
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>1469</v>
+        <v>1440</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1461</v>
+        <v>1432</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1470</v>
+        <v>1441</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1471</v>
+        <v>1442</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>1472</v>
+        <v>1443</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="2" t="s">
-        <v>1465</v>
+        <v>1436</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="8" t="s">
-        <v>1473</v>
+        <v>1444</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>1474</v>
+        <v>1445</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>74</v>
@@ -10577,42 +10714,42 @@
     </row>
     <row r="4" spans="1:18" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>1475</v>
+        <v>1446</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1461</v>
+        <v>1432</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1470</v>
+        <v>1441</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1476</v>
+        <v>1447</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>1477</v>
+        <v>1448</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="2" t="s">
-        <v>1465</v>
+        <v>1436</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="8" t="s">
-        <v>1478</v>
+        <v>1449</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>1479</v>
+        <v>1450</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>74</v>
@@ -10620,44 +10757,44 @@
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>1480</v>
+        <v>1451</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1461</v>
+        <v>1432</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1470</v>
+        <v>1441</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1481</v>
+        <v>1452</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>1482</v>
+        <v>1453</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="2" t="s">
-        <v>1465</v>
+        <v>1436</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>1483</v>
+        <v>1454</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>1484</v>
+        <v>1455</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>1485</v>
+        <v>1456</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>74</v>
@@ -10665,46 +10802,46 @@
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>1486</v>
+        <v>1457</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1461</v>
+        <v>1432</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1470</v>
+        <v>1441</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1487</v>
+        <v>1458</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>1488</v>
+        <v>1459</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>1482</v>
+        <v>1453</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>1465</v>
+        <v>1436</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>1489</v>
+        <v>1460</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>1490</v>
+        <v>1461</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>1491</v>
+        <v>1462</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>74</v>
@@ -10712,46 +10849,46 @@
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>1492</v>
+        <v>1463</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1461</v>
+        <v>1432</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1470</v>
+        <v>1441</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1493</v>
+        <v>1464</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>1494</v>
+        <v>1465</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>1488</v>
+        <v>1459</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>1465</v>
+        <v>1436</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>1495</v>
+        <v>1466</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>1496</v>
+        <v>1467</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>1497</v>
+        <v>1468</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>74</v>
@@ -10759,41 +10896,41 @@
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>1498</v>
+        <v>1469</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1461</v>
+        <v>1432</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1499</v>
+        <v>1470</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1500</v>
+        <v>1471</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>1501</v>
+        <v>1472</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>1465</v>
+        <v>1436</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>1502</v>
+        <v>1473</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>1503</v>
+        <v>1474</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>74</v>
@@ -10801,41 +10938,41 @@
     </row>
     <row r="9" spans="1:18" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>1504</v>
+        <v>1475</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1461</v>
+        <v>1432</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1505</v>
+        <v>1476</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1506</v>
+        <v>1477</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>1507</v>
+        <v>1478</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>1465</v>
+        <v>1436</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>1508</v>
+        <v>1479</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>1509</v>
+        <v>1480</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>74</v>
@@ -10843,41 +10980,41 @@
     </row>
     <row r="10" spans="1:18" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>1510</v>
+        <v>1481</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1461</v>
+        <v>1432</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1511</v>
+        <v>1482</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1512</v>
+        <v>1483</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>1513</v>
+        <v>1484</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>1465</v>
+        <v>1436</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>1514</v>
+        <v>1485</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>1515</v>
+        <v>1486</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>74</v>
@@ -10885,46 +11022,46 @@
     </row>
     <row r="11" spans="1:18" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>1516</v>
+        <v>1487</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1461</v>
+        <v>1432</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1470</v>
+        <v>1441</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1517</v>
+        <v>1488</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>1488</v>
+        <v>1459</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>1482</v>
+        <v>1453</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>1465</v>
+        <v>1436</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>1518</v>
+        <v>1489</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>1490</v>
+        <v>1461</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>1491</v>
+        <v>1462</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>74</v>
@@ -10932,41 +11069,41 @@
     </row>
     <row r="12" spans="1:18" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>1519</v>
+        <v>1490</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1461</v>
+        <v>1432</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1520</v>
+        <v>1491</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1521</v>
+        <v>1492</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>1522</v>
+        <v>1493</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>1465</v>
+        <v>1436</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>1523</v>
+        <v>1494</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>1524</v>
+        <v>1495</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>74</v>
@@ -10974,41 +11111,41 @@
     </row>
     <row r="13" spans="1:18" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>1525</v>
+        <v>1496</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1461</v>
+        <v>1432</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1520</v>
+        <v>1491</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1526</v>
+        <v>1497</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>1522</v>
+        <v>1493</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>1465</v>
+        <v>1436</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>1527</v>
+        <v>1498</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>1524</v>
+        <v>1495</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>74</v>
@@ -11016,41 +11153,41 @@
     </row>
     <row r="14" spans="1:18" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>1528</v>
+        <v>1499</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1461</v>
+        <v>1432</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1520</v>
+        <v>1491</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1526</v>
+        <v>1497</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>1522</v>
+        <v>1493</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>1465</v>
+        <v>1436</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>1529</v>
+        <v>1500</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="9" t="s">
-        <v>1530</v>
+        <v>1501</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>1524</v>
+        <v>1495</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>74</v>
@@ -11165,42 +11302,42 @@
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>1531</v>
+        <v>1502</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1533</v>
+        <v>1504</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1534</v>
+        <v>1505</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1535</v>
+        <v>1506</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="2" t="s">
-        <v>1536</v>
+        <v>1507</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="8" t="s">
-        <v>1537</v>
+        <v>1508</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>1538</v>
+        <v>1509</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>74</v>
@@ -11208,42 +11345,42 @@
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>1539</v>
+        <v>1510</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1540</v>
+        <v>1511</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1541</v>
+        <v>1512</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>1542</v>
+        <v>1513</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="2" t="s">
-        <v>1536</v>
+        <v>1507</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="8" t="s">
-        <v>1543</v>
+        <v>1514</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>1544</v>
+        <v>1515</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>74</v>
@@ -11251,41 +11388,41 @@
     </row>
     <row r="4" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>1545</v>
+        <v>1516</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1546</v>
+        <v>1517</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1547</v>
+        <v>1518</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>1548</v>
+        <v>1519</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="2" t="s">
-        <v>1536</v>
+        <v>1507</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>1549</v>
+        <v>1520</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>1550</v>
+        <v>1521</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>74</v>
@@ -11293,42 +11430,42 @@
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1551</v>
+        <v>1522</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1552</v>
+        <v>1523</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1553</v>
+        <v>1524</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>1554</v>
+        <v>1525</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="2" t="s">
-        <v>1536</v>
+        <v>1507</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="8" t="s">
-        <v>1555</v>
+        <v>1526</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>1556</v>
+        <v>1527</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>74</v>
@@ -11336,42 +11473,42 @@
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>1557</v>
+        <v>1528</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1558</v>
+        <v>1529</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>1560</v>
+        <v>1531</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="2" t="s">
-        <v>1536</v>
+        <v>1507</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="8" t="s">
-        <v>1561</v>
+        <v>1532</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>1562</v>
+        <v>1533</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>74</v>
@@ -11379,44 +11516,44 @@
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>1563</v>
+        <v>1534</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1564</v>
+        <v>1535</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1564</v>
+        <v>1535</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>1565</v>
+        <v>1536</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="2" t="s">
-        <v>1566</v>
+        <v>1537</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>1567</v>
+        <v>1538</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>1568</v>
+        <v>1539</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>1569</v>
+        <v>1540</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>74</v>
@@ -11424,44 +11561,44 @@
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>1570</v>
+        <v>1541</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1571</v>
+        <v>1542</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1572</v>
+        <v>1543</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>1573</v>
+        <v>1544</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="2" t="s">
-        <v>1566</v>
+        <v>1537</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>1574</v>
+        <v>1545</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>1575</v>
+        <v>1546</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>1576</v>
+        <v>1547</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>74</v>
@@ -11469,44 +11606,44 @@
     </row>
     <row r="9" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>1577</v>
+        <v>1548</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1571</v>
+        <v>1542</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1578</v>
+        <v>1549</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>1573</v>
+        <v>1544</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="2" t="s">
-        <v>1566</v>
+        <v>1537</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>1579</v>
+        <v>1550</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>1575</v>
+        <v>1546</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>1576</v>
+        <v>1547</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>74</v>
@@ -11514,44 +11651,44 @@
     </row>
     <row r="10" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>1580</v>
+        <v>1551</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1571</v>
+        <v>1542</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1581</v>
+        <v>1552</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>1573</v>
+        <v>1544</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="2" t="s">
-        <v>1566</v>
+        <v>1537</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>1582</v>
+        <v>1553</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>1575</v>
+        <v>1546</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>1576</v>
+        <v>1547</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>74</v>
@@ -11559,44 +11696,44 @@
     </row>
     <row r="11" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>1583</v>
+        <v>1554</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1571</v>
+        <v>1542</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1584</v>
+        <v>1555</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>1573</v>
+        <v>1544</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="2" t="s">
-        <v>1566</v>
+        <v>1537</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>1585</v>
+        <v>1556</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>1575</v>
+        <v>1546</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>1576</v>
+        <v>1547</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>74</v>
@@ -11604,44 +11741,44 @@
     </row>
     <row r="12" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>1586</v>
+        <v>1557</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1571</v>
+        <v>1542</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1587</v>
+        <v>1558</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>1573</v>
+        <v>1544</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="2" t="s">
-        <v>1566</v>
+        <v>1537</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>1588</v>
+        <v>1559</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>1575</v>
+        <v>1546</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>1576</v>
+        <v>1547</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>74</v>
@@ -11649,44 +11786,44 @@
     </row>
     <row r="13" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>1589</v>
+        <v>1560</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1571</v>
+        <v>1542</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1590</v>
+        <v>1561</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>1573</v>
+        <v>1544</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="2" t="s">
-        <v>1566</v>
+        <v>1537</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>1591</v>
+        <v>1562</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>1575</v>
+        <v>1546</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>1576</v>
+        <v>1547</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>74</v>
@@ -11694,44 +11831,44 @@
     </row>
     <row r="14" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>1592</v>
+        <v>1563</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1571</v>
+        <v>1542</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1593</v>
+        <v>1564</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>1573</v>
+        <v>1544</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="2" t="s">
-        <v>1566</v>
+        <v>1537</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>1594</v>
+        <v>1565</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>1575</v>
+        <v>1546</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>1576</v>
+        <v>1547</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>74</v>
@@ -11739,44 +11876,44 @@
     </row>
     <row r="15" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>1595</v>
+        <v>1566</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>1571</v>
+        <v>1542</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>1596</v>
+        <v>1567</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>1573</v>
+        <v>1544</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="2" t="s">
-        <v>1566</v>
+        <v>1537</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>1597</v>
+        <v>1568</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>1575</v>
+        <v>1546</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>1576</v>
+        <v>1547</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>74</v>
@@ -11784,44 +11921,44 @@
     </row>
     <row r="16" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>1598</v>
+        <v>1569</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1571</v>
+        <v>1542</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>1599</v>
+        <v>1570</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>1573</v>
+        <v>1544</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="2" t="s">
-        <v>1566</v>
+        <v>1537</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>1600</v>
+        <v>1571</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>1575</v>
+        <v>1546</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>1576</v>
+        <v>1547</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>74</v>
@@ -11829,44 +11966,44 @@
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>1601</v>
+        <v>1572</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>1571</v>
+        <v>1542</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>1602</v>
+        <v>1573</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>1573</v>
+        <v>1544</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="2" t="s">
-        <v>1566</v>
+        <v>1537</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>1603</v>
+        <v>1574</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>1604</v>
+        <v>1575</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>1576</v>
+        <v>1547</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>74</v>
@@ -11874,44 +12011,44 @@
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>1605</v>
+        <v>1576</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1571</v>
+        <v>1542</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>1606</v>
+        <v>1577</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>1573</v>
+        <v>1544</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="2" t="s">
-        <v>1566</v>
+        <v>1537</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>1607</v>
+        <v>1578</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>1608</v>
+        <v>1579</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>1609</v>
+        <v>1580</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>1576</v>
+        <v>1547</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>74</v>
@@ -11919,44 +12056,44 @@
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>1610</v>
+        <v>1581</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>1611</v>
+        <v>1582</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>1612</v>
+        <v>1583</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>1613</v>
+        <v>1584</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="2" t="s">
-        <v>1566</v>
+        <v>1537</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>1614</v>
+        <v>1585</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>1615</v>
+        <v>1586</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>1616</v>
+        <v>1587</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>74</v>
@@ -11964,44 +12101,44 @@
     </row>
     <row r="20" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>1617</v>
+        <v>1588</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1611</v>
+        <v>1582</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>1618</v>
+        <v>1589</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>1613</v>
+        <v>1584</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="2" t="s">
-        <v>1566</v>
+        <v>1537</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>1619</v>
+        <v>1590</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>1620</v>
+        <v>1591</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>1616</v>
+        <v>1587</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>74</v>
@@ -12009,44 +12146,44 @@
     </row>
     <row r="21" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>1621</v>
+        <v>1592</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1622</v>
+        <v>1593</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1623</v>
+        <v>1594</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>1624</v>
+        <v>1595</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="2" t="s">
-        <v>1566</v>
+        <v>1537</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>1625</v>
+        <v>1596</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>1626</v>
+        <v>1597</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>1627</v>
+        <v>1598</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>74</v>
@@ -12054,44 +12191,44 @@
     </row>
     <row r="22" spans="1:18" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>1628</v>
+        <v>1599</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1622</v>
+        <v>1593</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1629</v>
+        <v>1600</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>1624</v>
+        <v>1595</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="2" t="s">
-        <v>1566</v>
+        <v>1537</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>1630</v>
+        <v>1601</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>1631</v>
+        <v>1602</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>1632</v>
+        <v>1603</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>1627</v>
+        <v>1598</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>74</v>
@@ -12099,44 +12236,44 @@
     </row>
     <row r="23" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>1633</v>
+        <v>1604</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1634</v>
+        <v>1605</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1635</v>
+        <v>1606</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>1636</v>
+        <v>1607</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="2" t="s">
-        <v>1566</v>
+        <v>1537</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>1637</v>
+        <v>1608</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>1638</v>
+        <v>1609</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>1639</v>
+        <v>1610</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>74</v>
@@ -12144,42 +12281,42 @@
     </row>
     <row r="24" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>1640</v>
+        <v>1611</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1641</v>
+        <v>1612</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1642</v>
+        <v>1613</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>1643</v>
+        <v>1614</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="2" t="s">
-        <v>1566</v>
+        <v>1537</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8" t="s">
-        <v>1644</v>
+        <v>1615</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>1645</v>
+        <v>1616</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R24" s="2" t="s">
         <v>74</v>
@@ -12187,44 +12324,44 @@
     </row>
     <row r="25" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>1646</v>
+        <v>1617</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1647</v>
+        <v>1618</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1648</v>
+        <v>1619</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>1649</v>
+        <v>1620</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="2" t="s">
-        <v>1566</v>
+        <v>1537</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>1650</v>
+        <v>1621</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>1651</v>
+        <v>1622</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>1652</v>
+        <v>1623</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R25" s="2" t="s">
         <v>74</v>
@@ -12232,44 +12369,44 @@
     </row>
     <row r="26" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>1653</v>
+        <v>1624</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1654</v>
+        <v>1625</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1655</v>
+        <v>1626</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>1656</v>
+        <v>1627</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="2" t="s">
-        <v>1566</v>
+        <v>1537</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>1657</v>
+        <v>1628</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>1658</v>
+        <v>1629</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>1659</v>
+        <v>1630</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R26" s="2" t="s">
         <v>74</v>
@@ -12277,44 +12414,44 @@
     </row>
     <row r="27" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>1660</v>
+        <v>1631</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1654</v>
+        <v>1625</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1661</v>
+        <v>1632</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>1656</v>
+        <v>1627</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="2" t="s">
-        <v>1566</v>
+        <v>1537</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>1662</v>
+        <v>1633</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>1663</v>
+        <v>1634</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>1664</v>
+        <v>1635</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>1659</v>
+        <v>1630</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R27" s="2" t="s">
         <v>74</v>
@@ -12322,44 +12459,44 @@
     </row>
     <row r="28" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>1665</v>
+        <v>1636</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1666</v>
+        <v>1637</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1666</v>
+        <v>1637</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>1667</v>
+        <v>1638</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="2" t="s">
-        <v>1566</v>
+        <v>1537</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>1662</v>
+        <v>1633</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>1668</v>
+        <v>1639</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>1669</v>
+        <v>1640</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R28" s="2" t="s">
         <v>74</v>
@@ -12367,42 +12504,42 @@
     </row>
     <row r="29" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>1670</v>
+        <v>1641</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1671</v>
+        <v>1642</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1672</v>
+        <v>1643</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>1673</v>
+        <v>1644</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="2" t="s">
-        <v>1566</v>
+        <v>1537</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K29" s="8"/>
       <c r="L29" s="8" t="s">
-        <v>1674</v>
+        <v>1645</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>1675</v>
+        <v>1646</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R29" s="2" t="s">
         <v>74</v>
@@ -12410,44 +12547,44 @@
     </row>
     <row r="30" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>1676</v>
+        <v>1647</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1677</v>
+        <v>1648</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1678</v>
+        <v>1649</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>1679</v>
+        <v>1650</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="2" t="s">
-        <v>1566</v>
+        <v>1537</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>1680</v>
+        <v>1651</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>1681</v>
+        <v>1652</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>1682</v>
+        <v>1653</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R30" s="2" t="s">
         <v>74</v>
@@ -12455,44 +12592,44 @@
     </row>
     <row r="31" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>1683</v>
+        <v>1654</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1677</v>
+        <v>1648</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1684</v>
+        <v>1655</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>1679</v>
+        <v>1650</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="2" t="s">
-        <v>1566</v>
+        <v>1537</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>1685</v>
+        <v>1656</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>1686</v>
+        <v>1657</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>1682</v>
+        <v>1653</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R31" s="2" t="s">
         <v>74</v>
@@ -12500,40 +12637,40 @@
     </row>
     <row r="32" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>1687</v>
+        <v>1658</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>1688</v>
+        <v>1659</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1689</v>
+        <v>1660</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>1690</v>
+        <v>1661</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="2" t="s">
-        <v>1691</v>
+        <v>1662</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K32" s="8"/>
       <c r="L32" s="8" t="s">
-        <v>1692</v>
+        <v>1663</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O32" s="10"/>
       <c r="P32" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R32" s="2" t="s">
         <v>74</v>
@@ -12541,44 +12678,44 @@
     </row>
     <row r="33" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>1693</v>
+        <v>1664</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>1677</v>
+        <v>1648</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>1694</v>
+        <v>1665</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>1679</v>
+        <v>1650</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="2" t="s">
-        <v>1691</v>
+        <v>1662</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>1695</v>
+        <v>1666</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>1696</v>
+        <v>1667</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>1682</v>
+        <v>1653</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R33" s="2" t="s">
         <v>74</v>
@@ -12586,44 +12723,44 @@
     </row>
     <row r="34" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>1697</v>
+        <v>1668</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1677</v>
+        <v>1648</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1698</v>
+        <v>1669</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>1679</v>
+        <v>1650</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="2" t="s">
-        <v>1691</v>
+        <v>1662</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>1699</v>
+        <v>1670</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>1700</v>
+        <v>1671</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>1682</v>
+        <v>1653</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R34" s="2" t="s">
         <v>74</v>
@@ -12631,44 +12768,44 @@
     </row>
     <row r="35" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>1701</v>
+        <v>1672</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1702</v>
+        <v>1673</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1703</v>
+        <v>1674</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>1704</v>
+        <v>1675</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="2" t="s">
-        <v>1691</v>
+        <v>1662</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>1705</v>
+        <v>1676</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>1706</v>
+        <v>1677</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>1707</v>
+        <v>1678</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R35" s="2" t="s">
         <v>74</v>
@@ -12676,44 +12813,44 @@
     </row>
     <row r="36" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>1708</v>
+        <v>1679</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>1702</v>
+        <v>1673</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1709</v>
+        <v>1680</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>1704</v>
+        <v>1675</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="2" t="s">
-        <v>1691</v>
+        <v>1662</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>1710</v>
+        <v>1681</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>1711</v>
+        <v>1682</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>1707</v>
+        <v>1678</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R36" s="2" t="s">
         <v>74</v>
@@ -12721,42 +12858,42 @@
     </row>
     <row r="37" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>1712</v>
+        <v>1683</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>1713</v>
+        <v>1684</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1714</v>
+        <v>1685</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>1715</v>
+        <v>1686</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="2" t="s">
-        <v>1691</v>
+        <v>1662</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K37" s="8"/>
       <c r="L37" s="8" t="s">
-        <v>1716</v>
+        <v>1687</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>1717</v>
+        <v>1688</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R37" s="2" t="s">
         <v>74</v>
@@ -12764,44 +12901,44 @@
     </row>
     <row r="38" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>1718</v>
+        <v>1689</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>1702</v>
+        <v>1673</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>1719</v>
+        <v>1690</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>1720</v>
+        <v>1691</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="2" t="s">
-        <v>1691</v>
+        <v>1662</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>1721</v>
+        <v>1692</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>1722</v>
+        <v>1693</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>1707</v>
+        <v>1678</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>74</v>
@@ -12809,44 +12946,44 @@
     </row>
     <row r="39" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>1723</v>
+        <v>1694</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>1702</v>
+        <v>1673</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>1724</v>
+        <v>1695</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>1725</v>
+        <v>1696</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="2" t="s">
-        <v>1726</v>
+        <v>1697</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>1721</v>
+        <v>1692</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>1727</v>
+        <v>1698</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>1728</v>
+        <v>1699</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R39" s="2" t="s">
         <v>74</v>
@@ -12854,44 +12991,44 @@
     </row>
     <row r="40" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>1729</v>
+        <v>1700</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1730</v>
+        <v>1701</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>1462</v>
+        <v>1433</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>1731</v>
+        <v>1702</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>1732</v>
+        <v>1703</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="2" t="s">
-        <v>1733</v>
+        <v>1704</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>1734</v>
+        <v>1705</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>1735</v>
+        <v>1706</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>1736</v>
+        <v>1707</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R40" s="2" t="s">
         <v>600</v>
@@ -12899,44 +13036,44 @@
     </row>
     <row r="41" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>1737</v>
+        <v>1708</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1730</v>
+        <v>1701</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>1462</v>
+        <v>1433</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>1738</v>
+        <v>1709</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>1732</v>
+        <v>1703</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="2" t="s">
-        <v>1733</v>
+        <v>1704</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>1739</v>
+        <v>1710</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>1735</v>
+        <v>1706</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O41" s="10" t="s">
-        <v>1736</v>
+        <v>1707</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R41" s="2" t="s">
         <v>600</v>
@@ -12944,44 +13081,44 @@
     </row>
     <row r="42" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>1740</v>
+        <v>1711</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1730</v>
+        <v>1701</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>1462</v>
+        <v>1433</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>1741</v>
+        <v>1712</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>1732</v>
+        <v>1703</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="2" t="s">
-        <v>1733</v>
+        <v>1704</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>1742</v>
+        <v>1713</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>1743</v>
+        <v>1714</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>1744</v>
+        <v>1715</v>
       </c>
       <c r="O42" s="11" t="s">
-        <v>1736</v>
+        <v>1707</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R42" s="2" t="s">
         <v>600</v>
@@ -12989,44 +13126,44 @@
     </row>
     <row r="43" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>1745</v>
+        <v>1716</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1730</v>
+        <v>1701</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>1746</v>
+        <v>1717</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>1747</v>
+        <v>1718</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>1748</v>
+        <v>1719</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="2" t="s">
-        <v>1733</v>
+        <v>1704</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>1749</v>
+        <v>1720</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>1750</v>
+        <v>1721</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>1751</v>
+        <v>1722</v>
       </c>
       <c r="O43" s="10" t="s">
-        <v>1752</v>
+        <v>1723</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R43" s="2" t="s">
         <v>600</v>
@@ -13034,44 +13171,44 @@
     </row>
     <row r="44" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>1753</v>
+        <v>1724</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1730</v>
+        <v>1701</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>1746</v>
+        <v>1717</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>1754</v>
+        <v>1725</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>1732</v>
+        <v>1703</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="2" t="s">
-        <v>1733</v>
+        <v>1704</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>1755</v>
+        <v>1726</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>1735</v>
+        <v>1706</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>1752</v>
+        <v>1723</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R44" s="2" t="s">
         <v>600</v>
@@ -13079,44 +13216,44 @@
     </row>
     <row r="45" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>1756</v>
+        <v>1727</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1730</v>
+        <v>1701</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>1746</v>
+        <v>1717</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>1757</v>
+        <v>1728</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>1732</v>
+        <v>1703</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="2" t="s">
-        <v>1733</v>
+        <v>1704</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>1758</v>
+        <v>1729</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>1735</v>
+        <v>1706</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O45" s="10" t="s">
-        <v>1752</v>
+        <v>1723</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R45" s="2" t="s">
         <v>600</v>
@@ -13124,44 +13261,44 @@
     </row>
     <row r="46" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>1759</v>
+        <v>1730</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1730</v>
+        <v>1701</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>1746</v>
+        <v>1717</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>1760</v>
+        <v>1731</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>1732</v>
+        <v>1703</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="2" t="s">
-        <v>1733</v>
+        <v>1704</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>1761</v>
+        <v>1732</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>1735</v>
+        <v>1706</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>1752</v>
+        <v>1723</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R46" s="2" t="s">
         <v>600</v>
@@ -13169,44 +13306,44 @@
     </row>
     <row r="47" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>1762</v>
+        <v>1733</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1730</v>
+        <v>1701</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>1462</v>
+        <v>1433</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>1763</v>
+        <v>1734</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>1732</v>
+        <v>1703</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="2" t="s">
-        <v>1733</v>
+        <v>1704</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>1764</v>
+        <v>1735</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>1735</v>
+        <v>1706</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O47" s="10" t="s">
-        <v>1736</v>
+        <v>1707</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R47" s="2" t="s">
         <v>600</v>
@@ -13214,44 +13351,44 @@
     </row>
     <row r="48" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>1765</v>
+        <v>1736</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1730</v>
+        <v>1701</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>1462</v>
+        <v>1433</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>1766</v>
+        <v>1737</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>1732</v>
+        <v>1703</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="2" t="s">
-        <v>1733</v>
+        <v>1704</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>1764</v>
+        <v>1735</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>1735</v>
+        <v>1706</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O48" s="10" t="s">
-        <v>1736</v>
+        <v>1707</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R48" s="2" t="s">
         <v>600</v>
@@ -13259,44 +13396,44 @@
     </row>
     <row r="49" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>1767</v>
+        <v>1738</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1730</v>
+        <v>1701</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>1768</v>
+        <v>1739</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>1769</v>
+        <v>1740</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>1770</v>
+        <v>1741</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="2" t="s">
-        <v>1733</v>
+        <v>1704</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>1771</v>
+        <v>1742</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>1735</v>
+        <v>1706</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O49" s="11" t="s">
-        <v>1772</v>
+        <v>1743</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R49" s="2" t="s">
         <v>600</v>
@@ -13304,44 +13441,44 @@
     </row>
     <row r="50" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>1773</v>
+        <v>1744</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1730</v>
+        <v>1701</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>1774</v>
+        <v>1745</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>1775</v>
+        <v>1746</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>1776</v>
+        <v>1747</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="2" t="s">
-        <v>1733</v>
+        <v>1704</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K50" s="9" t="s">
+        <v>1720</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>1706</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>1748</v>
+      </c>
+      <c r="O50" s="10" t="s">
         <v>1749</v>
       </c>
-      <c r="L50" s="8" t="s">
-        <v>1735</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>1777</v>
-      </c>
-      <c r="O50" s="10" t="s">
-        <v>1778</v>
-      </c>
       <c r="P50" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R50" s="2" t="s">
         <v>600</v>
@@ -13349,44 +13486,44 @@
     </row>
     <row r="51" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>1779</v>
+        <v>1750</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1730</v>
+        <v>1701</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>1774</v>
+        <v>1745</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>1780</v>
+        <v>1751</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>1781</v>
+        <v>1752</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="2" t="s">
-        <v>1733</v>
+        <v>1704</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>1782</v>
+        <v>1753</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>1783</v>
+        <v>1754</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O51" s="10" t="s">
-        <v>1784</v>
+        <v>1755</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R51" s="2" t="s">
         <v>600</v>
@@ -13394,44 +13531,44 @@
     </row>
     <row r="52" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>1785</v>
+        <v>1756</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1730</v>
+        <v>1701</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>1774</v>
+        <v>1745</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>1786</v>
+        <v>1757</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>1776</v>
+        <v>1747</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="2" t="s">
-        <v>1733</v>
+        <v>1704</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K52" s="9" t="s">
+        <v>1720</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>1706</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>1758</v>
+      </c>
+      <c r="O52" s="10" t="s">
         <v>1749</v>
       </c>
-      <c r="L52" s="8" t="s">
-        <v>1735</v>
-      </c>
-      <c r="M52" s="9" t="s">
-        <v>1787</v>
-      </c>
-      <c r="O52" s="10" t="s">
-        <v>1778</v>
-      </c>
       <c r="P52" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R52" s="2" t="s">
         <v>600</v>
@@ -13439,44 +13576,44 @@
     </row>
     <row r="53" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>1788</v>
+        <v>1759</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1730</v>
+        <v>1701</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>1774</v>
+        <v>1745</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>1789</v>
+        <v>1760</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>1781</v>
+        <v>1752</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="2" t="s">
-        <v>1733</v>
+        <v>1704</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>1790</v>
+        <v>1761</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>1791</v>
+        <v>1762</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O53" s="10" t="s">
-        <v>1784</v>
+        <v>1755</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R53" s="2" t="s">
         <v>600</v>
@@ -13484,44 +13621,44 @@
     </row>
     <row r="54" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>1792</v>
+        <v>1763</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1730</v>
+        <v>1701</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>1462</v>
+        <v>1433</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>1793</v>
+        <v>1764</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>1732</v>
+        <v>1703</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="2" t="s">
-        <v>1794</v>
+        <v>1765</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>1795</v>
+        <v>1766</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>1735</v>
+        <v>1706</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O54" s="10" t="s">
-        <v>1736</v>
+        <v>1707</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R54" s="2" t="s">
         <v>600</v>
@@ -13529,44 +13666,44 @@
     </row>
     <row r="55" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>1796</v>
+        <v>1767</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1730</v>
+        <v>1701</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>1462</v>
+        <v>1433</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>1797</v>
+        <v>1768</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>1732</v>
+        <v>1703</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="2" t="s">
-        <v>1794</v>
+        <v>1765</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>1798</v>
+        <v>1769</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>1735</v>
+        <v>1706</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O55" s="10" t="s">
-        <v>1736</v>
+        <v>1707</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R55" s="2" t="s">
         <v>600</v>
@@ -13574,44 +13711,44 @@
     </row>
     <row r="56" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>1799</v>
+        <v>1770</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1730</v>
+        <v>1701</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>1800</v>
+        <v>1771</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>1801</v>
+        <v>1772</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>1732</v>
+        <v>1703</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="2" t="s">
-        <v>1802</v>
+        <v>1773</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>1795</v>
+        <v>1766</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>1735</v>
+        <v>1706</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="O56" s="10" t="s">
-        <v>1736</v>
+        <v>1707</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R56" s="2" t="s">
         <v>600</v>
@@ -13619,41 +13756,41 @@
     </row>
     <row r="57" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>1803</v>
+        <v>1774</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1730</v>
+        <v>1701</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>1804</v>
+        <v>1775</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>1805</v>
+        <v>1776</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>1806</v>
+        <v>1777</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="2" t="s">
-        <v>1802</v>
+        <v>1773</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>1807</v>
+        <v>1778</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>1735</v>
+        <v>1706</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R57" s="2" t="s">
         <v>74</v>
@@ -13661,41 +13798,41 @@
     </row>
     <row r="58" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>1808</v>
+        <v>1779</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1730</v>
+        <v>1701</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>1804</v>
+        <v>1775</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>1809</v>
+        <v>1780</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>1806</v>
+        <v>1777</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="2" t="s">
-        <v>1810</v>
+        <v>1781</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>1811</v>
+        <v>1782</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>1735</v>
+        <v>1706</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="R58" s="2" t="s">
         <v>74</v>
@@ -15894,7 +16031,7 @@
     </row>
     <row r="44" spans="1:19" s="16" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A44" s="44" t="s">
-        <v>1822</v>
+        <v>1793</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>18</v>
@@ -15939,7 +16076,7 @@
     </row>
     <row r="45" spans="1:19" s="16" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>1821</v>
+        <v>1792</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>18</v>
@@ -18686,7 +18823,7 @@
     </row>
     <row r="2" spans="1:18" s="29" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
-        <v>1836</v>
+        <v>1807</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>474</v>
@@ -18710,7 +18847,7 @@
         <v>98</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>1896</v>
+        <v>1867</v>
       </c>
       <c r="L2" s="29" t="s">
         <v>243</v>
@@ -20082,7 +20219,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1833</v>
+        <v>1804</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>5</v>
@@ -20100,7 +20237,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>1834</v>
+        <v>1805</v>
       </c>
       <c r="L1" s="17" t="s">
         <v>11</v>
@@ -20126,13 +20263,13 @@
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="44" t="s">
-        <v>1826</v>
+        <v>1797</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>593</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>1839</v>
+        <v>1810</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -20141,7 +20278,7 @@
         <v>595</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1824</v>
+        <v>1795</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="2" t="s">
@@ -20151,7 +20288,7 @@
         <v>98</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>1827</v>
+        <v>1798</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>598</v>
@@ -20160,18 +20297,18 @@
         <v>101</v>
       </c>
       <c r="O2" s="46" t="s">
-        <v>1828</v>
+        <v>1799</v>
       </c>
       <c r="P2" s="22" t="s">
         <v>73</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>1837</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="54" t="s">
-        <v>1838</v>
+        <v>1809</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>593</v>
@@ -20183,10 +20320,10 @@
         <v>76</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>1847</v>
+        <v>1818</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>1824</v>
+        <v>1795</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="2" t="s">
@@ -20196,7 +20333,7 @@
         <v>98</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>1830</v>
+        <v>1801</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>598</v>
@@ -20205,18 +20342,18 @@
         <v>101</v>
       </c>
       <c r="O3" s="46" t="s">
-        <v>1823</v>
+        <v>1794</v>
       </c>
       <c r="P3" s="22" t="s">
         <v>73</v>
       </c>
       <c r="R3" s="30" t="s">
-        <v>1853</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>1835</v>
+        <v>1806</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>593</v>
@@ -20241,7 +20378,7 @@
         <v>98</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>1831</v>
+        <v>1802</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>598</v>
@@ -20261,13 +20398,13 @@
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
-        <v>1841</v>
+        <v>1812</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>593</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>1843</v>
+        <v>1814</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -20276,7 +20413,7 @@
         <v>603</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>1844</v>
+        <v>1815</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="2" t="s">
@@ -20286,7 +20423,7 @@
         <v>98</v>
       </c>
       <c r="K5" s="48" t="s">
-        <v>1829</v>
+        <v>1800</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>602</v>
@@ -20295,7 +20432,7 @@
         <v>101</v>
       </c>
       <c r="O5" s="46" t="s">
-        <v>1842</v>
+        <v>1813</v>
       </c>
       <c r="P5" s="22" t="s">
         <v>73</v>
@@ -20306,13 +20443,13 @@
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
-        <v>1840</v>
+        <v>1811</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>593</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>1825</v>
+        <v>1796</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>76</v>
@@ -20351,7 +20488,7 @@
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
-        <v>1876</v>
+        <v>1847</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>593</v>
@@ -20396,13 +20533,13 @@
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="44" t="s">
-        <v>1845</v>
+        <v>1816</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>593</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>1869</v>
+        <v>1840</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>76</v>
@@ -20411,7 +20548,7 @@
         <v>608</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>1868</v>
+        <v>1839</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="2" t="s">
@@ -20441,7 +20578,7 @@
     </row>
     <row r="9" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="44" t="s">
-        <v>1856</v>
+        <v>1827</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>593</v>
@@ -20486,7 +20623,7 @@
     </row>
     <row r="10" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="44" t="s">
-        <v>1846</v>
+        <v>1817</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>593</v>
@@ -20531,13 +20668,13 @@
     </row>
     <row r="11" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="44" t="s">
-        <v>1850</v>
+        <v>1821</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>593</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>1848</v>
+        <v>1819</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>31</v>
@@ -20546,7 +20683,7 @@
         <v>615</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>1849</v>
+        <v>1820</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="8" t="s">
@@ -20576,7 +20713,7 @@
     </row>
     <row r="12" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="44" t="s">
-        <v>1851</v>
+        <v>1822</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>593</v>
@@ -20621,7 +20758,7 @@
     </row>
     <row r="13" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="44" t="s">
-        <v>1852</v>
+        <v>1823</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>593</v>
@@ -20666,13 +20803,13 @@
     </row>
     <row r="14" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
-        <v>1863</v>
+        <v>1834</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>593</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>1855</v>
+        <v>1826</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>31</v>
@@ -20681,7 +20818,7 @@
         <v>622</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>1854</v>
+        <v>1825</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="8" t="s">
@@ -20711,7 +20848,7 @@
     </row>
     <row r="15" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51" t="s">
-        <v>1864</v>
+        <v>1835</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>593</v>
@@ -20726,7 +20863,7 @@
         <v>628</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>1854</v>
+        <v>1825</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="52" t="s">
@@ -20756,10 +20893,10 @@
     </row>
     <row r="16" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
-        <v>1865</v>
+        <v>1836</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1832</v>
+        <v>1803</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>621</v>
@@ -20801,7 +20938,7 @@
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
-        <v>1866</v>
+        <v>1837</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>593</v>
@@ -20816,11 +20953,11 @@
         <v>633</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>1858</v>
+        <v>1829</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="53" t="s">
-        <v>1859</v>
+        <v>1830</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>24</v>
@@ -20846,7 +20983,7 @@
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
-        <v>1867</v>
+        <v>1838</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>593</v>
@@ -20858,14 +20995,14 @@
         <v>31</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>1860</v>
+        <v>1831</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>1858</v>
+        <v>1829</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="48" t="s">
-        <v>1861</v>
+        <v>1832</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>24</v>
@@ -20877,7 +21014,7 @@
         <v>630</v>
       </c>
       <c r="M18" s="48" t="s">
-        <v>1862</v>
+        <v>1833</v>
       </c>
       <c r="O18" s="21" t="s">
         <v>627</v>
@@ -20891,13 +21028,13 @@
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
-        <v>1871</v>
+        <v>1842</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>593</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>1870</v>
+        <v>1841</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>20</v>
@@ -20906,7 +21043,7 @@
         <v>635</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>1857</v>
+        <v>1828</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="2" t="s">
@@ -20958,7 +21095,7 @@
         <v>98</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>1873</v>
+        <v>1844</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>641</v>
@@ -20991,7 +21128,7 @@
         <v>644</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>1872</v>
+        <v>1843</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="2" t="s">
@@ -21173,7 +21310,7 @@
         <v>98</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>1874</v>
+        <v>1845</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>657</v>
@@ -21206,7 +21343,7 @@
         <v>660</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>1875</v>
+        <v>1846</v>
       </c>
       <c r="G26" s="4"/>
       <c r="I26" s="2" t="s">
@@ -21231,7 +21368,7 @@
     </row>
     <row r="27" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="56" t="s">
-        <v>1877</v>
+        <v>1848</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>659</v>
@@ -21286,14 +21423,14 @@
         <v>594</v>
       </c>
       <c r="F28" s="57" t="s">
-        <v>1878</v>
+        <v>1849</v>
       </c>
       <c r="G28" s="4"/>
       <c r="I28" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K28" s="57" t="s">
-        <v>1812</v>
+        <v>1783</v>
       </c>
       <c r="L28" s="8" t="s">
         <v>661</v>
@@ -21313,7 +21450,7 @@
     </row>
     <row r="29" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="44" t="s">
-        <v>1893</v>
+        <v>1864</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>665</v>
@@ -21328,7 +21465,7 @@
         <v>667</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>1879</v>
+        <v>1850</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>668</v>
@@ -21356,16 +21493,16 @@
         <v>673</v>
       </c>
       <c r="E30" s="44" t="s">
-        <v>1885</v>
+        <v>1856</v>
       </c>
       <c r="F30" s="44" t="s">
-        <v>1880</v>
+        <v>1851</v>
       </c>
       <c r="K30" s="44" t="s">
-        <v>1881</v>
+        <v>1852</v>
       </c>
       <c r="M30" s="48" t="s">
-        <v>1882</v>
+        <v>1853</v>
       </c>
       <c r="O30" s="11"/>
       <c r="Q30" s="33"/>
@@ -21387,7 +21524,7 @@
         <v>674</v>
       </c>
       <c r="F31" s="44" t="s">
-        <v>1880</v>
+        <v>1851</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>668</v>
@@ -21396,7 +21533,7 @@
         <v>669</v>
       </c>
       <c r="K31" s="44" t="s">
-        <v>1883</v>
+        <v>1854</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>675</v>
@@ -21412,7 +21549,7 @@
       </c>
       <c r="Q31" s="33"/>
       <c r="R31" s="44" t="s">
-        <v>1884</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -21441,7 +21578,7 @@
         <v>669</v>
       </c>
       <c r="K32" s="44" t="s">
-        <v>1813</v>
+        <v>1784</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>675</v>
@@ -21482,7 +21619,7 @@
         <v>669</v>
       </c>
       <c r="K33" s="44" t="s">
-        <v>1814</v>
+        <v>1785</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>675</v>
@@ -21523,7 +21660,7 @@
         <v>669</v>
       </c>
       <c r="K34" s="44" t="s">
-        <v>1815</v>
+        <v>1786</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>686</v>
@@ -21555,7 +21692,7 @@
         <v>690</v>
       </c>
       <c r="F35" s="44" t="s">
-        <v>1887</v>
+        <v>1858</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>684</v>
@@ -21567,7 +21704,7 @@
         <v>692</v>
       </c>
       <c r="K35" s="44" t="s">
-        <v>1886</v>
+        <v>1857</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>694</v>
@@ -21635,10 +21772,10 @@
         <v>702</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>1890</v>
+        <v>1861</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>1888</v>
+        <v>1859</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>753</v>
@@ -21664,7 +21801,7 @@
         <v>703</v>
       </c>
       <c r="F38" s="44" t="s">
-        <v>1888</v>
+        <v>1859</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>704</v>
@@ -21673,7 +21810,7 @@
         <v>669</v>
       </c>
       <c r="K38" s="48" t="s">
-        <v>1891</v>
+        <v>1862</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>705</v>
@@ -21705,7 +21842,7 @@
         <v>710</v>
       </c>
       <c r="F39" s="44" t="s">
-        <v>1892</v>
+        <v>1863</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>704</v>
@@ -21714,7 +21851,7 @@
         <v>669</v>
       </c>
       <c r="K39" s="48" t="s">
-        <v>1889</v>
+        <v>1860</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>705</v>
@@ -21731,7 +21868,7 @@
     </row>
     <row r="40" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="51" t="s">
-        <v>1894</v>
+        <v>1865</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>665</v>
@@ -21787,7 +21924,7 @@
         <v>719</v>
       </c>
       <c r="F41" s="44" t="s">
-        <v>1895</v>
+        <v>1866</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>714</v>
@@ -26403,7 +26540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L40" workbookViewId="0">
+    <sheetView topLeftCell="L40" workbookViewId="0">
       <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
@@ -26487,13 +26624,13 @@
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
-        <v>1897</v>
+        <v>1868</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1215</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>1944</v>
+        <v>1915</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -26502,7 +26639,7 @@
         <v>1216</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>1949</v>
+        <v>1920</v>
       </c>
       <c r="G2" s="7"/>
       <c r="I2" s="2" t="s">
@@ -26515,7 +26652,7 @@
         <v>101</v>
       </c>
       <c r="O2" s="46" t="s">
-        <v>1945</v>
+        <v>1916</v>
       </c>
       <c r="P2" s="22" t="s">
         <v>73</v>
@@ -26526,13 +26663,13 @@
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
-        <v>1979</v>
+        <v>1950</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1215</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>1947</v>
+        <v>1918</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -26541,7 +26678,7 @@
         <v>1218</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>1950</v>
+        <v>1921</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="2" t="s">
@@ -26569,13 +26706,13 @@
     </row>
     <row r="4" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
-        <v>1946</v>
+        <v>1917</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1215</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>1951</v>
+        <v>1922</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -26584,7 +26721,7 @@
         <v>1223</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>1952</v>
+        <v>1923</v>
       </c>
       <c r="G4" s="7"/>
       <c r="I4" s="2" t="s">
@@ -26609,13 +26746,13 @@
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
-        <v>1954</v>
+        <v>1925</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1215</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>1943</v>
+        <v>1914</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -26624,7 +26761,7 @@
         <v>1227</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>1953</v>
+        <v>1924</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="2" t="s">
@@ -26652,13 +26789,13 @@
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
-        <v>1955</v>
+        <v>1926</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1215</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>1956</v>
+        <v>1927</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
@@ -26667,7 +26804,7 @@
         <v>1232</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>1957</v>
+        <v>1928</v>
       </c>
       <c r="G6" s="7"/>
       <c r="I6" s="2" t="s">
@@ -26692,13 +26829,13 @@
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
-        <v>1899</v>
+        <v>1870</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1215</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>1958</v>
+        <v>1929</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
@@ -26707,7 +26844,7 @@
         <v>1236</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>1959</v>
+        <v>1930</v>
       </c>
       <c r="G7" s="7"/>
       <c r="I7" s="2" t="s">
@@ -26734,7 +26871,7 @@
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
-        <v>1900</v>
+        <v>1871</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1215</v>
@@ -26776,7 +26913,7 @@
     </row>
     <row r="9" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
-        <v>1901</v>
+        <v>1872</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1215</v>
@@ -26818,7 +26955,7 @@
     </row>
     <row r="10" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
-        <v>1902</v>
+        <v>1873</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1215</v>
@@ -26860,13 +26997,13 @@
     </row>
     <row r="11" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
-        <v>1960</v>
+        <v>1931</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1215</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>1961</v>
+        <v>1932</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>31</v>
@@ -26875,7 +27012,7 @@
         <v>1249</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>1962</v>
+        <v>1933</v>
       </c>
       <c r="G11" s="7"/>
       <c r="I11" s="2" t="s">
@@ -26899,13 +27036,13 @@
     </row>
     <row r="12" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="44" t="s">
-        <v>1963</v>
+        <v>1934</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1215</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>1964</v>
+        <v>1935</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>20</v>
@@ -26914,7 +27051,7 @@
         <v>1251</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>1965</v>
+        <v>1936</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="2" t="s">
@@ -26930,7 +27067,7 @@
         <v>1255</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>1948</v>
+        <v>1919</v>
       </c>
       <c r="O12" s="21" t="s">
         <v>1256</v>
@@ -26944,7 +27081,7 @@
     </row>
     <row r="13" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="44" t="s">
-        <v>1903</v>
+        <v>1874</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1215</v>
@@ -26989,13 +27126,13 @@
     </row>
     <row r="14" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="44" t="s">
-        <v>1966</v>
+        <v>1937</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1215</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>1967</v>
+        <v>1938</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>31</v>
@@ -27004,7 +27141,7 @@
         <v>1261</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>1968</v>
+        <v>1939</v>
       </c>
       <c r="G14" s="7"/>
       <c r="I14" s="2" t="s">
@@ -27028,13 +27165,13 @@
     </row>
     <row r="15" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
-        <v>1969</v>
+        <v>1940</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1215</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>1970</v>
+        <v>1941</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>20</v>
@@ -27073,7 +27210,7 @@
     </row>
     <row r="16" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
-        <v>1904</v>
+        <v>1875</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1215</v>
@@ -27118,7 +27255,7 @@
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
-        <v>1905</v>
+        <v>1876</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1215</v>
@@ -27160,7 +27297,7 @@
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="44" t="s">
-        <v>1907</v>
+        <v>1878</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1215</v>
@@ -27175,7 +27312,7 @@
         <v>1279</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>1906</v>
+        <v>1877</v>
       </c>
       <c r="G18" s="7"/>
       <c r="I18" s="2" t="s">
@@ -27202,7 +27339,7 @@
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="44" t="s">
-        <v>1908</v>
+        <v>1879</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>1215</v>
@@ -27244,7 +27381,7 @@
     </row>
     <row r="20" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="44" t="s">
-        <v>1909</v>
+        <v>1880</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>1215</v>
@@ -27286,7 +27423,7 @@
     </row>
     <row r="21" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="44" t="s">
-        <v>1910</v>
+        <v>1881</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>1215</v>
@@ -27328,7 +27465,7 @@
     </row>
     <row r="22" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="44" t="s">
-        <v>1911</v>
+        <v>1882</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>1215</v>
@@ -27370,7 +27507,7 @@
     </row>
     <row r="23" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="44" t="s">
-        <v>1912</v>
+        <v>1883</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>1215</v>
@@ -27412,7 +27549,7 @@
     </row>
     <row r="24" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="44" t="s">
-        <v>1913</v>
+        <v>1884</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>1215</v>
@@ -27454,13 +27591,13 @@
     </row>
     <row r="25" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
-        <v>1914</v>
+        <v>1885</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>1215</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>1898</v>
+        <v>1869</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>20</v>
@@ -27496,7 +27633,7 @@
     </row>
     <row r="26" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
-        <v>1915</v>
+        <v>1886</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>1215</v>
@@ -27538,7 +27675,7 @@
     </row>
     <row r="27" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
-        <v>1916</v>
+        <v>1887</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>1215</v>
@@ -27580,7 +27717,7 @@
     </row>
     <row r="28" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
-        <v>1918</v>
+        <v>1889</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>1215</v>
@@ -27595,7 +27732,7 @@
         <v>1320</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>1917</v>
+        <v>1888</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="2" t="s">
@@ -27605,7 +27742,7 @@
         <v>24</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>1972</v>
+        <v>1943</v>
       </c>
       <c r="L28" s="8" t="s">
         <v>1323</v>
@@ -27625,7 +27762,7 @@
     </row>
     <row r="29" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
-        <v>1971</v>
+        <v>1942</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>1215</v>
@@ -27650,7 +27787,7 @@
         <v>24</v>
       </c>
       <c r="K29" s="48" t="s">
-        <v>1973</v>
+        <v>1944</v>
       </c>
       <c r="L29" s="8" t="s">
         <v>1327</v>
@@ -27670,7 +27807,7 @@
     </row>
     <row r="30" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
-        <v>1919</v>
+        <v>1890</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>1215</v>
@@ -27695,7 +27832,7 @@
         <v>24</v>
       </c>
       <c r="K30" s="48" t="s">
-        <v>1974</v>
+        <v>1945</v>
       </c>
       <c r="L30" s="8" t="s">
         <v>1327</v>
@@ -27715,7 +27852,7 @@
     </row>
     <row r="31" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
-        <v>1920</v>
+        <v>1891</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>1215</v>
@@ -27740,7 +27877,7 @@
         <v>24</v>
       </c>
       <c r="K31" s="48" t="s">
-        <v>1975</v>
+        <v>1946</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>1327</v>
@@ -27760,7 +27897,7 @@
     </row>
     <row r="32" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
-        <v>1921</v>
+        <v>1892</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>1215</v>
@@ -27785,7 +27922,7 @@
         <v>24</v>
       </c>
       <c r="K32" s="48" t="s">
-        <v>1976</v>
+        <v>1947</v>
       </c>
       <c r="L32" s="8" t="s">
         <v>1327</v>
@@ -27805,7 +27942,7 @@
     </row>
     <row r="33" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
-        <v>1922</v>
+        <v>1893</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>1215</v>
@@ -27830,7 +27967,7 @@
         <v>24</v>
       </c>
       <c r="K33" s="48" t="s">
-        <v>1977</v>
+        <v>1948</v>
       </c>
       <c r="L33" s="8" t="s">
         <v>1327</v>
@@ -27850,7 +27987,7 @@
     </row>
     <row r="34" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
-        <v>1923</v>
+        <v>1894</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>1215</v>
@@ -27875,7 +28012,7 @@
         <v>24</v>
       </c>
       <c r="K34" s="48" t="s">
-        <v>1978</v>
+        <v>1949</v>
       </c>
       <c r="L34" s="8" t="s">
         <v>1327</v>
@@ -27895,7 +28032,7 @@
     </row>
     <row r="35" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>1924</v>
+        <v>1895</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>1215</v>
@@ -27940,7 +28077,7 @@
     </row>
     <row r="36" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
-        <v>1926</v>
+        <v>1897</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>1215</v>
@@ -27955,7 +28092,7 @@
         <v>1341</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>1925</v>
+        <v>1896</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="2" t="s">
@@ -27985,7 +28122,7 @@
     </row>
     <row r="37" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
-        <v>1927</v>
+        <v>1898</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>1215</v>
@@ -28030,7 +28167,7 @@
     </row>
     <row r="38" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
-        <v>1928</v>
+        <v>1899</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>1215</v>
@@ -28075,7 +28212,7 @@
     </row>
     <row r="39" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
-        <v>1929</v>
+        <v>1900</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>1215</v>
@@ -28120,7 +28257,7 @@
     </row>
     <row r="40" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
-        <v>1930</v>
+        <v>1901</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>1215</v>
@@ -28165,7 +28302,7 @@
     </row>
     <row r="41" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="44" t="s">
-        <v>1932</v>
+        <v>1903</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>1215</v>
@@ -28180,7 +28317,7 @@
         <v>1358</v>
       </c>
       <c r="F41" s="49" t="s">
-        <v>1931</v>
+        <v>1902</v>
       </c>
       <c r="G41" s="7"/>
       <c r="I41" s="2" t="s">
@@ -28207,7 +28344,7 @@
     </row>
     <row r="42" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="44" t="s">
-        <v>1933</v>
+        <v>1904</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>1215</v>
@@ -28249,7 +28386,7 @@
     </row>
     <row r="43" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="44" t="s">
-        <v>1934</v>
+        <v>1905</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>1215</v>
@@ -28291,7 +28428,7 @@
     </row>
     <row r="44" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="44" t="s">
-        <v>1935</v>
+        <v>1906</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>1215</v>
@@ -28333,7 +28470,7 @@
     </row>
     <row r="45" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="44" t="s">
-        <v>1937</v>
+        <v>1908</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>1215</v>
@@ -28348,7 +28485,7 @@
         <v>1370</v>
       </c>
       <c r="F45" s="49" t="s">
-        <v>1936</v>
+        <v>1907</v>
       </c>
       <c r="G45" s="7"/>
       <c r="I45" s="2" t="s">
@@ -28375,7 +28512,7 @@
     </row>
     <row r="46" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="44" t="s">
-        <v>1938</v>
+        <v>1909</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>1215</v>
@@ -28417,13 +28554,13 @@
     </row>
     <row r="47" spans="1:18" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="60" t="s">
-        <v>1980</v>
+        <v>1951</v>
       </c>
       <c r="B47" s="35" t="s">
         <v>1215</v>
       </c>
       <c r="C47" s="61" t="s">
-        <v>1942</v>
+        <v>1913</v>
       </c>
       <c r="D47" s="35" t="s">
         <v>20</v>
@@ -28432,7 +28569,7 @@
         <v>1379</v>
       </c>
       <c r="F47" s="62" t="s">
-        <v>1939</v>
+        <v>1910</v>
       </c>
       <c r="G47" s="7"/>
       <c r="I47" s="35" t="s">
@@ -28445,7 +28582,7 @@
         <v>1379</v>
       </c>
       <c r="M47" s="64" t="s">
-        <v>1982</v>
+        <v>1953</v>
       </c>
       <c r="O47" s="65" t="s">
         <v>1382</v>
@@ -28459,7 +28596,7 @@
     </row>
     <row r="48" spans="1:18" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="60" t="s">
-        <v>1940</v>
+        <v>1911</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>1215</v>
@@ -28487,7 +28624,7 @@
         <v>1383</v>
       </c>
       <c r="M48" s="64" t="s">
-        <v>1981</v>
+        <v>1952</v>
       </c>
       <c r="O48" s="65" t="s">
         <v>1382</v>
@@ -28501,7 +28638,7 @@
     </row>
     <row r="49" spans="1:18" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="60" t="s">
-        <v>1941</v>
+        <v>1912</v>
       </c>
       <c r="B49" s="35" t="s">
         <v>1215</v>
@@ -28529,7 +28666,7 @@
         <v>1387</v>
       </c>
       <c r="M49" s="64" t="s">
-        <v>1983</v>
+        <v>1954</v>
       </c>
       <c r="O49" s="65" t="s">
         <v>1382</v>
@@ -28603,19 +28740,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="30.25" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="21.25" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="5" max="5" width="61.5" customWidth="1"/>
     <col min="6" max="6" width="25.75" customWidth="1"/>
-    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="7" max="7" width="26.875" customWidth="1"/>
     <col min="8" max="8" width="19.125" customWidth="1"/>
     <col min="9" max="9" width="8.125" customWidth="1"/>
     <col min="10" max="10" width="9.25" customWidth="1"/>
@@ -28686,23 +28823,23 @@
       </c>
     </row>
     <row r="2" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="45" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>1388</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>1389</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>1390</v>
+      <c r="C2" s="45" t="s">
+        <v>1964</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>1392</v>
+        <v>1965</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>922</v>
@@ -28711,36 +28848,36 @@
         <v>98</v>
       </c>
       <c r="L2" s="12" t="s">
+        <v>1392</v>
+      </c>
+      <c r="M2" s="45" t="s">
+        <v>1980</v>
+      </c>
+      <c r="O2" s="68" t="s">
         <v>1393</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>1394</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>1395</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>1396</v>
+      <c r="A3" s="45" t="s">
+        <v>1981</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>1389</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>1390</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>922</v>
@@ -28749,36 +28886,36 @@
         <v>98</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>1398</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>1399</v>
-      </c>
-      <c r="O3" s="14" t="s">
         <v>1395</v>
+      </c>
+      <c r="M3" s="45" t="s">
+        <v>1982</v>
+      </c>
+      <c r="O3" s="68" t="s">
+        <v>1393</v>
       </c>
       <c r="P3" s="12" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1400</v>
+      <c r="A4" s="45" t="s">
+        <v>1988</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>1389</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>1401</v>
+        <v>1388</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>1966</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>1403</v>
+        <v>1967</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>922</v>
@@ -28787,42 +28924,42 @@
         <v>98</v>
       </c>
       <c r="K4" s="45" t="s">
-        <v>1816</v>
+        <v>1787</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>1404</v>
-      </c>
-      <c r="M4" s="12" t="s">
+        <v>1397</v>
+      </c>
+      <c r="M4" s="45" t="s">
+        <v>1982</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>1398</v>
+      </c>
+      <c r="O4" s="68" t="s">
         <v>1399</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>1405</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>1406</v>
       </c>
       <c r="P4" s="12" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
-        <v>1407</v>
+      <c r="A5" s="45" t="s">
+        <v>1968</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>1389</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>1408</v>
+        <v>1388</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>1969</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>1409</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>1410</v>
+        <v>1400</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>1956</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>922</v>
@@ -28831,36 +28968,39 @@
         <v>98</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>1411</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>1399</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>1412</v>
+        <v>1401</v>
+      </c>
+      <c r="M5" s="45" t="s">
+        <v>1982</v>
+      </c>
+      <c r="O5" s="68" t="s">
+        <v>1402</v>
       </c>
       <c r="P5" s="12" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
-        <v>1413</v>
+      <c r="A6" s="45" t="s">
+        <v>1958</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>1389</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>1414</v>
+        <v>1388</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>1970</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>1415</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>1416</v>
+        <v>1404</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>1971</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>1957</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>922</v>
@@ -28869,42 +29009,45 @@
         <v>692</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>1417</v>
+        <v>1406</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>1418</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>1399</v>
+        <v>1407</v>
+      </c>
+      <c r="M6" s="45" t="s">
+        <v>1982</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>1419</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>1420</v>
+        <v>1408</v>
+      </c>
+      <c r="O6" s="68" t="s">
+        <v>1409</v>
       </c>
       <c r="P6" s="12" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
-        <v>1421</v>
+      <c r="A7" s="45" t="s">
+        <v>1989</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>1414</v>
+        <v>1403</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>1422</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>1416</v>
+        <v>1410</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>1972</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>1957</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>922</v>
@@ -28913,42 +29056,45 @@
         <v>692</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>1423</v>
+        <v>1411</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>1424</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>1425</v>
+        <v>1412</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>1983</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>1419</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>1420</v>
+        <v>1408</v>
+      </c>
+      <c r="O7" s="68" t="s">
+        <v>1409</v>
       </c>
       <c r="P7" s="12" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
-        <v>1426</v>
+      <c r="A8" s="45" t="s">
+        <v>1959</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>1414</v>
+        <v>1403</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>1427</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>1416</v>
+        <v>1413</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>1972</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>1957</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>922</v>
@@ -28957,39 +29103,42 @@
         <v>692</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>1428</v>
+        <v>1414</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>1424</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>1429</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>1420</v>
+        <v>1412</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>1983</v>
+      </c>
+      <c r="O8" s="68" t="s">
+        <v>1409</v>
       </c>
       <c r="P8" s="12" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
-        <v>1430</v>
+      <c r="A9" s="45" t="s">
+        <v>1960</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>1414</v>
+        <v>1403</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>1431</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>1416</v>
+        <v>1415</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>1972</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>1957</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>922</v>
@@ -28998,39 +29147,42 @@
         <v>692</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>1432</v>
+        <v>1416</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>1424</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>1433</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>1420</v>
+        <v>1412</v>
+      </c>
+      <c r="M9" s="45" t="s">
+        <v>1984</v>
+      </c>
+      <c r="O9" s="68" t="s">
+        <v>1409</v>
       </c>
       <c r="P9" s="12" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
-        <v>1434</v>
+      <c r="A10" s="45" t="s">
+        <v>1991</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>1414</v>
+        <v>1403</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1435</v>
+        <v>1417</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>1416</v>
+        <v>1405</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>1957</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>922</v>
@@ -29039,39 +29191,39 @@
         <v>692</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>1436</v>
+        <v>1418</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>1418</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>1001</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>1420</v>
+        <v>1407</v>
+      </c>
+      <c r="M10" s="45" t="s">
+        <v>1982</v>
+      </c>
+      <c r="O10" s="68" t="s">
+        <v>1409</v>
       </c>
       <c r="P10" s="12" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
-        <v>1437</v>
+      <c r="A11" s="45" t="s">
+        <v>1961</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>1389</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>1438</v>
+        <v>1388</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>1973</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>1439</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>1440</v>
+        <v>1420</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>1974</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>922</v>
@@ -29080,39 +29232,39 @@
         <v>98</v>
       </c>
       <c r="K11" s="45" t="s">
-        <v>1817</v>
+        <v>1788</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>1441</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>1001</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>1442</v>
+        <v>1422</v>
+      </c>
+      <c r="M11" s="45" t="s">
+        <v>1982</v>
+      </c>
+      <c r="O11" s="68" t="s">
+        <v>1423</v>
       </c>
       <c r="P11" s="12" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
-        <v>1443</v>
+      <c r="A12" s="45" t="s">
+        <v>1962</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>1438</v>
+        <v>1419</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>1444</v>
+        <v>1424</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>1440</v>
+        <v>1421</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>922</v>
@@ -29121,39 +29273,39 @@
         <v>98</v>
       </c>
       <c r="K12" s="45" t="s">
-        <v>1818</v>
+        <v>1789</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>1445</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>1446</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>1442</v>
+        <v>1425</v>
+      </c>
+      <c r="M12" s="45" t="s">
+        <v>1985</v>
+      </c>
+      <c r="O12" s="68" t="s">
+        <v>1423</v>
       </c>
       <c r="P12" s="12" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="13" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="12" t="s">
-        <v>1447</v>
+      <c r="A13" s="45" t="s">
+        <v>1963</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>1438</v>
+        <v>1419</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>1448</v>
+        <v>1426</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>1440</v>
+        <v>1421</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>922</v>
@@ -29162,33 +29314,33 @@
         <v>98</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>1445</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>1449</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>1442</v>
+        <v>1425</v>
+      </c>
+      <c r="M13" s="45" t="s">
+        <v>1987</v>
+      </c>
+      <c r="O13" s="68" t="s">
+        <v>1423</v>
       </c>
       <c r="P13" s="12" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>1450</v>
+      <c r="A14" s="45" t="s">
+        <v>1990</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>1389</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>1451</v>
+        <v>1388</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>1975</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>1452</v>
+        <v>1976</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>922</v>
@@ -29197,36 +29349,36 @@
         <v>98</v>
       </c>
       <c r="K14" s="45" t="s">
-        <v>1819</v>
+        <v>1790</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>1453</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>1001</v>
+        <v>1427</v>
+      </c>
+      <c r="M14" s="45" t="s">
+        <v>1986</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>1454</v>
+        <v>1428</v>
       </c>
       <c r="P14" s="12" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="12" t="s">
-        <v>1455</v>
+      <c r="A15" s="45" t="s">
+        <v>1977</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>1389</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>1456</v>
+        <v>1388</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>1978</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>1457</v>
+      <c r="F15" s="45" t="s">
+        <v>1979</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>922</v>
@@ -29235,16 +29387,16 @@
         <v>98</v>
       </c>
       <c r="K15" s="45" t="s">
-        <v>1820</v>
+        <v>1791</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>1458</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>1001</v>
+        <v>1429</v>
+      </c>
+      <c r="M15" s="45" t="s">
+        <v>1986</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>1459</v>
+        <v>1430</v>
       </c>
       <c r="P15" s="12" t="s">
         <v>926</v>
@@ -29270,43 +29422,11 @@
     <hyperlink ref="O15" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="11"/>
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="12"/>
-  <pixelatorList sheetStid="9"/>
-  <pixelatorList sheetStid="8"/>
-  <pixelatorList sheetStid="10"/>
-  <pixelatorList sheetStid="13"/>
-  <pixelatorList sheetStid="14"/>
-  <pixelatorList sheetStid="15"/>
-</pixelators>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="11" master=""/>
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="12" master=""/>
-  <rangeList sheetStid="9" master=""/>
-  <rangeList sheetStid="8" master=""/>
-  <rangeList sheetStid="10" master=""/>
-  <rangeList sheetStid="13" master=""/>
-  <rangeList sheetStid="14" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
@@ -29328,12 +29448,45 @@
 </woProps>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="11" master=""/>
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="12" master=""/>
+  <rangeList sheetStid="9" master=""/>
+  <rangeList sheetStid="8" master=""/>
+  <rangeList sheetStid="10" master=""/>
+  <rangeList sheetStid="13" master=""/>
+  <rangeList sheetStid="14" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="11"/>
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="12"/>
+  <pixelatorList sheetStid="9"/>
+  <pixelatorList sheetStid="8"/>
+  <pixelatorList sheetStid="10"/>
+  <pixelatorList sheetStid="13"/>
+  <pixelatorList sheetStid="14"/>
+  <pixelatorList sheetStid="15"/>
+</pixelators>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -29351,7 +29504,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/test_case_data/bmc/bmc_testcase01_20210513.xlsx
+++ b/test_case_data/bmc/bmc_testcase01_20210513.xlsx
@@ -115,6 +115,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="A28" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>test:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+可添加一个 vehicleID
+不正确的
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A30" authorId="0" shapeId="0">
       <text>
         <r>
@@ -228,7 +256,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5610" uniqueCount="1987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5610" uniqueCount="1988">
   <si>
     <t>caseNum</t>
   </si>
@@ -6710,10 +6738,6 @@
     <t>{"eventCode": "ck_illegality_reminder_addcar","eventExtParam": {},"platform": "iOS"}</t>
   </si>
   <si>
-    <t>{"vehicleId":"5256","vehicleType":0}</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>{"plateType":"02","plateNum":"%E8%B4%B5AHJYDC","vehicleIdentifyNum":"000000","ownerName":"%E9%BB%84%E5%A9%A7%E9%9B%A8"}</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -7637,10 +7661,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>vehiclelist001</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>vehiclelist002</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -9347,11 +9367,11 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>http://yapi.hikcreate.com/project/32/interface/api/81596</t>
+    <t>/dlVeh/qr</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>/dlVeh/qr</t>
+    <t>{"vehicleId":"5256","vehicleType":0}</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
@@ -9375,6 +9395,18 @@
       </rPr>
       <t>001</t>
     </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>vehiclelist001</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/10913</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/81596</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -9666,7 +9698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9868,6 +9900,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -16096,7 +16131,7 @@
     </row>
     <row r="44" spans="1:19" s="16" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A44" s="44" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>18</v>
@@ -16141,7 +16176,7 @@
     </row>
     <row r="45" spans="1:19" s="16" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>18</v>
@@ -18888,7 +18923,7 @@
     </row>
     <row r="2" spans="1:18" s="29" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>474</v>
@@ -18912,7 +18947,7 @@
         <v>98</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="L2" s="29" t="s">
         <v>243</v>
@@ -20244,8 +20279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20284,7 +20319,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>5</v>
@@ -20302,7 +20337,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="L1" s="17" t="s">
         <v>11</v>
@@ -20328,13 +20363,13 @@
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="44" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>593</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -20343,7 +20378,7 @@
         <v>595</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="2" t="s">
@@ -20353,7 +20388,7 @@
         <v>98</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>598</v>
@@ -20362,18 +20397,18 @@
         <v>101</v>
       </c>
       <c r="O2" s="46" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="P2" s="22" t="s">
         <v>73</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="54" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>593</v>
@@ -20385,10 +20420,10 @@
         <v>76</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="2" t="s">
@@ -20398,7 +20433,7 @@
         <v>98</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>598</v>
@@ -20407,18 +20442,18 @@
         <v>101</v>
       </c>
       <c r="O3" s="46" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="P3" s="22" t="s">
         <v>73</v>
       </c>
       <c r="R3" s="30" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="44" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>593</v>
@@ -20443,7 +20478,7 @@
         <v>98</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>598</v>
@@ -20463,13 +20498,13 @@
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>593</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -20478,7 +20513,7 @@
         <v>603</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="2" t="s">
@@ -20488,7 +20523,7 @@
         <v>98</v>
       </c>
       <c r="K5" s="48" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>602</v>
@@ -20497,7 +20532,7 @@
         <v>101</v>
       </c>
       <c r="O5" s="46" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="P5" s="22" t="s">
         <v>73</v>
@@ -20508,13 +20543,13 @@
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>593</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>76</v>
@@ -20553,7 +20588,7 @@
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>593</v>
@@ -20598,13 +20633,13 @@
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="44" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>593</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>76</v>
@@ -20613,7 +20648,7 @@
         <v>608</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="2" t="s">
@@ -20643,7 +20678,7 @@
     </row>
     <row r="9" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="44" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>593</v>
@@ -20688,7 +20723,7 @@
     </row>
     <row r="10" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="44" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>593</v>
@@ -20733,13 +20768,13 @@
     </row>
     <row r="11" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="44" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>593</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>31</v>
@@ -20748,7 +20783,7 @@
         <v>615</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="8" t="s">
@@ -20778,7 +20813,7 @@
     </row>
     <row r="12" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="44" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>593</v>
@@ -20823,7 +20858,7 @@
     </row>
     <row r="13" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="44" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>593</v>
@@ -20868,13 +20903,13 @@
     </row>
     <row r="14" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>593</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>31</v>
@@ -20883,7 +20918,7 @@
         <v>622</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="8" t="s">
@@ -20913,7 +20948,7 @@
     </row>
     <row r="15" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>593</v>
@@ -20928,7 +20963,7 @@
         <v>628</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="52" t="s">
@@ -20958,10 +20993,10 @@
     </row>
     <row r="16" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>621</v>
@@ -21003,7 +21038,7 @@
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>593</v>
@@ -21018,11 +21053,11 @@
         <v>633</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="53" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>24</v>
@@ -21048,7 +21083,7 @@
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>593</v>
@@ -21060,14 +21095,14 @@
         <v>31</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="48" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>24</v>
@@ -21079,7 +21114,7 @@
         <v>630</v>
       </c>
       <c r="M18" s="48" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="O18" s="21" t="s">
         <v>627</v>
@@ -21093,13 +21128,13 @@
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>593</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>20</v>
@@ -21108,7 +21143,7 @@
         <v>635</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="2" t="s">
@@ -21135,7 +21170,7 @@
     </row>
     <row r="20" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>593</v>
@@ -21150,7 +21185,7 @@
         <v>639</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="2" t="s">
@@ -21160,7 +21195,7 @@
         <v>98</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>640</v>
@@ -21178,7 +21213,7 @@
     </row>
     <row r="21" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>593</v>
@@ -21193,7 +21228,7 @@
         <v>642</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="2" t="s">
@@ -21221,7 +21256,7 @@
     </row>
     <row r="22" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>593</v>
@@ -21264,7 +21299,7 @@
     </row>
     <row r="23" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>593</v>
@@ -21307,7 +21342,7 @@
     </row>
     <row r="24" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>593</v>
@@ -21350,7 +21385,7 @@
     </row>
     <row r="25" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>593</v>
@@ -21375,7 +21410,7 @@
         <v>98</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>651</v>
@@ -21393,13 +21428,13 @@
     </row>
     <row r="26" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="68" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>652</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>20</v>
@@ -21408,7 +21443,7 @@
         <v>653</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="G26" s="4"/>
       <c r="I26" s="2" t="s">
@@ -21422,7 +21457,7 @@
         <v>244</v>
       </c>
       <c r="O26" s="30" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="P26" s="22" t="s">
         <v>655</v>
@@ -21433,7 +21468,7 @@
     </row>
     <row r="27" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="56" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>652</v>
@@ -21472,8 +21507,8 @@
       </c>
     </row>
     <row r="28" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="68" t="s">
-        <v>1986</v>
+      <c r="A28" s="69" t="s">
+        <v>1984</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>652</v>
@@ -21488,14 +21523,14 @@
         <v>594</v>
       </c>
       <c r="F28" s="57" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="G28" s="4"/>
       <c r="I28" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K28" s="57" t="s">
-        <v>1788</v>
+        <v>1983</v>
       </c>
       <c r="L28" s="8" t="s">
         <v>654</v>
@@ -21504,7 +21539,7 @@
         <v>244</v>
       </c>
       <c r="O28" s="30" t="s">
-        <v>1984</v>
+        <v>1987</v>
       </c>
       <c r="P28" s="22" t="s">
         <v>655</v>
@@ -21515,7 +21550,7 @@
     </row>
     <row r="29" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="44" t="s">
-        <v>1868</v>
+        <v>1985</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>656</v>
@@ -21530,7 +21565,7 @@
         <v>658</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>659</v>
@@ -21544,8 +21579,8 @@
       <c r="M29" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="O29" s="11" t="s">
-        <v>661</v>
+      <c r="O29" s="30" t="s">
+        <v>1986</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>662</v>
@@ -21558,16 +21593,16 @@
         <v>664</v>
       </c>
       <c r="E30" s="44" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="F30" s="44" t="s">
+        <v>1854</v>
+      </c>
+      <c r="K30" s="44" t="s">
         <v>1855</v>
       </c>
-      <c r="K30" s="44" t="s">
+      <c r="M30" s="48" t="s">
         <v>1856</v>
-      </c>
-      <c r="M30" s="48" t="s">
-        <v>1857</v>
       </c>
       <c r="O30" s="11"/>
       <c r="Q30" s="33"/>
@@ -21589,7 +21624,7 @@
         <v>665</v>
       </c>
       <c r="F31" s="44" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>659</v>
@@ -21598,7 +21633,7 @@
         <v>660</v>
       </c>
       <c r="K31" s="44" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>666</v>
@@ -21614,7 +21649,7 @@
       </c>
       <c r="Q31" s="33"/>
       <c r="R31" s="44" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -21643,7 +21678,7 @@
         <v>660</v>
       </c>
       <c r="K32" s="44" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>666</v>
@@ -21684,7 +21719,7 @@
         <v>660</v>
       </c>
       <c r="K33" s="44" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>666</v>
@@ -21725,7 +21760,7 @@
         <v>660</v>
       </c>
       <c r="K34" s="44" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>677</v>
@@ -21757,7 +21792,7 @@
         <v>681</v>
       </c>
       <c r="F35" s="44" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>675</v>
@@ -21769,7 +21804,7 @@
         <v>683</v>
       </c>
       <c r="K35" s="44" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>685</v>
@@ -21837,10 +21872,10 @@
         <v>693</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>744</v>
@@ -21866,7 +21901,7 @@
         <v>694</v>
       </c>
       <c r="F38" s="44" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>695</v>
@@ -21875,7 +21910,7 @@
         <v>660</v>
       </c>
       <c r="K38" s="48" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>696</v>
@@ -21907,7 +21942,7 @@
         <v>701</v>
       </c>
       <c r="F39" s="44" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>695</v>
@@ -21916,7 +21951,7 @@
         <v>660</v>
       </c>
       <c r="K39" s="48" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>696</v>
@@ -21933,7 +21968,7 @@
     </row>
     <row r="40" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="51" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>656</v>
@@ -21989,7 +22024,7 @@
         <v>710</v>
       </c>
       <c r="F41" s="44" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>705</v>
@@ -26689,13 +26724,13 @@
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1206</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -26704,7 +26739,7 @@
         <v>1207</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="G2" s="7"/>
       <c r="I2" s="2" t="s">
@@ -26717,7 +26752,7 @@
         <v>101</v>
       </c>
       <c r="O2" s="46" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="P2" s="22" t="s">
         <v>73</v>
@@ -26728,13 +26763,13 @@
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1206</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -26743,7 +26778,7 @@
         <v>1209</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="2" t="s">
@@ -26771,13 +26806,13 @@
     </row>
     <row r="4" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1206</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -26786,7 +26821,7 @@
         <v>1214</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="G4" s="7"/>
       <c r="I4" s="2" t="s">
@@ -26811,13 +26846,13 @@
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1206</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -26826,7 +26861,7 @@
         <v>1218</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="2" t="s">
@@ -26854,13 +26889,13 @@
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1206</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
@@ -26869,7 +26904,7 @@
         <v>1223</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="G6" s="7"/>
       <c r="I6" s="2" t="s">
@@ -26894,13 +26929,13 @@
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1206</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
@@ -26909,7 +26944,7 @@
         <v>1227</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="G7" s="7"/>
       <c r="I7" s="2" t="s">
@@ -26936,7 +26971,7 @@
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1206</v>
@@ -26978,7 +27013,7 @@
     </row>
     <row r="9" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1206</v>
@@ -27020,7 +27055,7 @@
     </row>
     <row r="10" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1206</v>
@@ -27062,13 +27097,13 @@
     </row>
     <row r="11" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1206</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>31</v>
@@ -27077,7 +27112,7 @@
         <v>1240</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="G11" s="7"/>
       <c r="I11" s="2" t="s">
@@ -27101,13 +27136,13 @@
     </row>
     <row r="12" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="44" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1206</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>20</v>
@@ -27116,7 +27151,7 @@
         <v>1242</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="2" t="s">
@@ -27132,7 +27167,7 @@
         <v>1246</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="O12" s="21" t="s">
         <v>1247</v>
@@ -27146,7 +27181,7 @@
     </row>
     <row r="13" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="44" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1206</v>
@@ -27191,13 +27226,13 @@
     </row>
     <row r="14" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="44" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1206</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>31</v>
@@ -27206,7 +27241,7 @@
         <v>1252</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="G14" s="7"/>
       <c r="I14" s="2" t="s">
@@ -27230,13 +27265,13 @@
     </row>
     <row r="15" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1206</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>20</v>
@@ -27275,7 +27310,7 @@
     </row>
     <row r="16" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1206</v>
@@ -27320,7 +27355,7 @@
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1206</v>
@@ -27362,7 +27397,7 @@
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="44" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1206</v>
@@ -27377,7 +27412,7 @@
         <v>1270</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="G18" s="7"/>
       <c r="I18" s="2" t="s">
@@ -27404,7 +27439,7 @@
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="44" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>1206</v>
@@ -27446,7 +27481,7 @@
     </row>
     <row r="20" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="44" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>1206</v>
@@ -27488,7 +27523,7 @@
     </row>
     <row r="21" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="44" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>1206</v>
@@ -27530,7 +27565,7 @@
     </row>
     <row r="22" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="44" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>1206</v>
@@ -27572,7 +27607,7 @@
     </row>
     <row r="23" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="44" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>1206</v>
@@ -27614,7 +27649,7 @@
     </row>
     <row r="24" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="44" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>1206</v>
@@ -27656,13 +27691,13 @@
     </row>
     <row r="25" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>1206</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>20</v>
@@ -27698,7 +27733,7 @@
     </row>
     <row r="26" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>1206</v>
@@ -27740,7 +27775,7 @@
     </row>
     <row r="27" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>1206</v>
@@ -27782,7 +27817,7 @@
     </row>
     <row r="28" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>1206</v>
@@ -27797,7 +27832,7 @@
         <v>1311</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="2" t="s">
@@ -27807,7 +27842,7 @@
         <v>24</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="L28" s="8" t="s">
         <v>1314</v>
@@ -27827,7 +27862,7 @@
     </row>
     <row r="29" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>1206</v>
@@ -27852,7 +27887,7 @@
         <v>24</v>
       </c>
       <c r="K29" s="48" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="L29" s="8" t="s">
         <v>1318</v>
@@ -27872,7 +27907,7 @@
     </row>
     <row r="30" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>1206</v>
@@ -27897,7 +27932,7 @@
         <v>24</v>
       </c>
       <c r="K30" s="48" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="L30" s="8" t="s">
         <v>1318</v>
@@ -27917,7 +27952,7 @@
     </row>
     <row r="31" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>1206</v>
@@ -27942,7 +27977,7 @@
         <v>24</v>
       </c>
       <c r="K31" s="48" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>1318</v>
@@ -27962,7 +27997,7 @@
     </row>
     <row r="32" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>1206</v>
@@ -27987,7 +28022,7 @@
         <v>24</v>
       </c>
       <c r="K32" s="48" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="L32" s="8" t="s">
         <v>1318</v>
@@ -28007,7 +28042,7 @@
     </row>
     <row r="33" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>1206</v>
@@ -28032,7 +28067,7 @@
         <v>24</v>
       </c>
       <c r="K33" s="48" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="L33" s="8" t="s">
         <v>1318</v>
@@ -28052,7 +28087,7 @@
     </row>
     <row r="34" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>1206</v>
@@ -28077,7 +28112,7 @@
         <v>24</v>
       </c>
       <c r="K34" s="48" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="L34" s="8" t="s">
         <v>1318</v>
@@ -28097,7 +28132,7 @@
     </row>
     <row r="35" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>1206</v>
@@ -28142,7 +28177,7 @@
     </row>
     <row r="36" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>1206</v>
@@ -28157,7 +28192,7 @@
         <v>1332</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="2" t="s">
@@ -28187,7 +28222,7 @@
     </row>
     <row r="37" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>1206</v>
@@ -28232,7 +28267,7 @@
     </row>
     <row r="38" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>1206</v>
@@ -28277,7 +28312,7 @@
     </row>
     <row r="39" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>1206</v>
@@ -28322,7 +28357,7 @@
     </row>
     <row r="40" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>1206</v>
@@ -28367,7 +28402,7 @@
     </row>
     <row r="41" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="44" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>1206</v>
@@ -28382,7 +28417,7 @@
         <v>1349</v>
       </c>
       <c r="F41" s="49" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="G41" s="7"/>
       <c r="I41" s="2" t="s">
@@ -28409,7 +28444,7 @@
     </row>
     <row r="42" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="44" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>1206</v>
@@ -28451,7 +28486,7 @@
     </row>
     <row r="43" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="44" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>1206</v>
@@ -28493,7 +28528,7 @@
     </row>
     <row r="44" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="44" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>1206</v>
@@ -28535,7 +28570,7 @@
     </row>
     <row r="45" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="44" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>1206</v>
@@ -28550,7 +28585,7 @@
         <v>1361</v>
       </c>
       <c r="F45" s="49" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="G45" s="7"/>
       <c r="I45" s="2" t="s">
@@ -28577,7 +28612,7 @@
     </row>
     <row r="46" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="44" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>1206</v>
@@ -28619,13 +28654,13 @@
     </row>
     <row r="47" spans="1:18" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="60" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="B47" s="35" t="s">
         <v>1206</v>
       </c>
       <c r="C47" s="61" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="D47" s="35" t="s">
         <v>20</v>
@@ -28634,7 +28669,7 @@
         <v>1370</v>
       </c>
       <c r="F47" s="62" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="G47" s="7"/>
       <c r="I47" s="35" t="s">
@@ -28647,7 +28682,7 @@
         <v>1370</v>
       </c>
       <c r="M47" s="64" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="O47" s="65" t="s">
         <v>1373</v>
@@ -28661,7 +28696,7 @@
     </row>
     <row r="48" spans="1:18" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="60" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>1206</v>
@@ -28689,7 +28724,7 @@
         <v>1374</v>
       </c>
       <c r="M48" s="64" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="O48" s="65" t="s">
         <v>1373</v>
@@ -28703,7 +28738,7 @@
     </row>
     <row r="49" spans="1:18" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="60" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="B49" s="35" t="s">
         <v>1206</v>
@@ -28731,7 +28766,7 @@
         <v>1378</v>
       </c>
       <c r="M49" s="64" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="O49" s="65" t="s">
         <v>1373</v>
@@ -28899,7 +28934,7 @@
     </row>
     <row r="2" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>1379</v>
@@ -28937,7 +28972,7 @@
     </row>
     <row r="3" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>1379</v>
@@ -28975,7 +29010,7 @@
     </row>
     <row r="4" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>1379</v>
@@ -28999,7 +29034,7 @@
         <v>98</v>
       </c>
       <c r="K4" s="45" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="L4" s="12" t="s">
         <v>1392</v>
@@ -29019,7 +29054,7 @@
     </row>
     <row r="5" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="45" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>1379</v>
@@ -29057,7 +29092,7 @@
     </row>
     <row r="6" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="45" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>1379</v>
@@ -29101,7 +29136,7 @@
     </row>
     <row r="7" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="45" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>1379</v>
@@ -29145,7 +29180,7 @@
     </row>
     <row r="8" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="45" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>1379</v>
@@ -29186,7 +29221,7 @@
     </row>
     <row r="9" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="45" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>1379</v>
@@ -29227,13 +29262,13 @@
     </row>
     <row r="10" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="45" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>1379</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>20</v>
@@ -29268,7 +29303,7 @@
     </row>
     <row r="11" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="45" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>1379</v>
@@ -29292,7 +29327,7 @@
         <v>98</v>
       </c>
       <c r="K11" s="45" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="L11" s="12" t="s">
         <v>1422</v>
@@ -29309,7 +29344,7 @@
     </row>
     <row r="12" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="45" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>1379</v>
@@ -29333,7 +29368,7 @@
         <v>98</v>
       </c>
       <c r="K12" s="45" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>1425</v>
@@ -29350,7 +29385,7 @@
     </row>
     <row r="13" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="45" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>1379</v>
@@ -29388,7 +29423,7 @@
     </row>
     <row r="14" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>1379</v>
@@ -29409,7 +29444,7 @@
         <v>98</v>
       </c>
       <c r="K14" s="45" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>1431</v>
@@ -29426,7 +29461,7 @@
     </row>
     <row r="15" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="45" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>1379</v>
@@ -29438,7 +29473,7 @@
         <v>31</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>913</v>
@@ -29447,7 +29482,7 @@
         <v>98</v>
       </c>
       <c r="K15" s="45" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="L15" s="12" t="s">
         <v>1434</v>

--- a/test_case_data/bmc/bmc_testcase01_20210513.xlsx
+++ b/test_case_data/bmc/bmc_testcase01_20210513.xlsx
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5610" uniqueCount="1984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5610" uniqueCount="1983">
   <si>
     <t>caseNum</t>
   </si>
@@ -9122,14 +9122,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>{"success":true,"code":1000,"msg":"操作成功","errorMsg:"操作成功"}</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"success":false,"code:1005,"msg":"关注渠道不能为空","errorMsg":"BindException.Field error in object "focusSuccessReq".[FocusSuccessReq(channel=,userId=null)] on field "channel": rejected value [].default message [关注渠道不能为空]"}</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>recentGradeIllegalstudy001</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -9340,6 +9332,10 @@
       </rPr>
       <t>01</t>
     </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false,"code":1005,"msg":"关注渠道不能为空","errorMsg":"BindException.Field error in object 'focusSuccessReq'.[FocusSuccessReq(channel=,userId=null)] on field 'channel': rejected value [].default message [关注渠道不能为空]"}</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -26567,8 +26563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H28" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="L34" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28609,7 +28605,7 @@
         <v>1379</v>
       </c>
       <c r="M47" s="64" t="s">
-        <v>1966</v>
+        <v>1933</v>
       </c>
       <c r="O47" s="65" t="s">
         <v>1382</v>
@@ -28651,7 +28647,7 @@
         <v>1383</v>
       </c>
       <c r="M48" s="64" t="s">
-        <v>1966</v>
+        <v>1933</v>
       </c>
       <c r="O48" s="65" t="s">
         <v>1382</v>
@@ -28693,7 +28689,7 @@
         <v>1387</v>
       </c>
       <c r="M49" s="64" t="s">
-        <v>1967</v>
+        <v>1982</v>
       </c>
       <c r="O49" s="65" t="s">
         <v>1382</v>
@@ -28777,8 +28773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28861,7 +28857,7 @@
     </row>
     <row r="2" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>1388</v>
@@ -28899,7 +28895,7 @@
     </row>
     <row r="3" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>1388</v>
@@ -28937,7 +28933,7 @@
     </row>
     <row r="4" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>1388</v>
@@ -28981,7 +28977,7 @@
     </row>
     <row r="5" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="45" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>1388</v>
@@ -29019,7 +29015,7 @@
     </row>
     <row r="6" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="45" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>1388</v>
@@ -29063,7 +29059,7 @@
     </row>
     <row r="7" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="45" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>1388</v>
@@ -29107,7 +29103,7 @@
     </row>
     <row r="8" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="45" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>1388</v>
@@ -29148,7 +29144,7 @@
     </row>
     <row r="9" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="45" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>1388</v>
@@ -29189,13 +29185,13 @@
     </row>
     <row r="10" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="45" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>1388</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>20</v>
@@ -29230,7 +29226,7 @@
     </row>
     <row r="11" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="45" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>1388</v>
@@ -29271,7 +29267,7 @@
     </row>
     <row r="12" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="45" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>1388</v>
@@ -29312,7 +29308,7 @@
     </row>
     <row r="13" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="45" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>1388</v>
@@ -29350,7 +29346,7 @@
     </row>
     <row r="14" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>1388</v>
@@ -29388,7 +29384,7 @@
     </row>
     <row r="15" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="45" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>1388</v>
@@ -29400,7 +29396,7 @@
         <v>31</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>922</v>
@@ -29449,6 +29445,39 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="11"/>
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="12"/>
+  <pixelatorList sheetStid="9"/>
+  <pixelatorList sheetStid="8"/>
+  <pixelatorList sheetStid="10"/>
+  <pixelatorList sheetStid="13"/>
+  <pixelatorList sheetStid="14"/>
+  <pixelatorList sheetStid="15"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="11" master=""/>
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="12" master=""/>
+  <rangeList sheetStid="9" master=""/>
+  <rangeList sheetStid="8" master=""/>
+  <rangeList sheetStid="10" master=""/>
+  <rangeList sheetStid="13" master=""/>
+  <rangeList sheetStid="14" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
@@ -29470,45 +29499,12 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="11" master=""/>
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="12" master=""/>
-  <rangeList sheetStid="9" master=""/>
-  <rangeList sheetStid="8" master=""/>
-  <rangeList sheetStid="10" master=""/>
-  <rangeList sheetStid="13" master=""/>
-  <rangeList sheetStid="14" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="11"/>
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="12"/>
-  <pixelatorList sheetStid="9"/>
-  <pixelatorList sheetStid="8"/>
-  <pixelatorList sheetStid="10"/>
-  <pixelatorList sheetStid="13"/>
-  <pixelatorList sheetStid="14"/>
-  <pixelatorList sheetStid="15"/>
-</pixelators>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -29526,7 +29522,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/test_case_data/bmc/bmc_testcase01_20210513.xlsx
+++ b/test_case_data/bmc/bmc_testcase01_20210513.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="样例" sheetId="1" r:id="rId1"/>
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5610" uniqueCount="1983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5610" uniqueCount="1984">
   <si>
     <t>caseNum</t>
   </si>
@@ -5438,9 +5438,6 @@
     <t>查询失败，返回提示信息</t>
   </si>
   <si>
-    <t>{"success":False,"code":1006,"msg":"该用户没有答题记录！"}</t>
-  </si>
-  <si>
     <t>http://yapi.hikcreate.com/project/32/interface/api/67503</t>
   </si>
   <si>
@@ -5450,9 +5447,6 @@
     <t>查询最近答题记录成功</t>
   </si>
   <si>
-    <t>{ "success": true,"code": 1000,"msg": "操作成功",}</t>
-  </si>
-  <si>
     <t>获取典型案例视频</t>
   </si>
   <si>
@@ -5477,9 +5471,6 @@
     <t>获取答题试卷</t>
   </si>
   <si>
-    <t>/paper/getPaper</t>
-  </si>
-  <si>
     <t>获取试卷成功</t>
   </si>
   <si>
@@ -5516,27 +5507,18 @@
     <t>提交答案失败</t>
   </si>
   <si>
-    <t>{ "success": False,"code": 1006,"msg": "提交答案失败",}</t>
-  </si>
-  <si>
     <t>提交答案，answerId值与试卷实际获取不一致</t>
   </si>
   <si>
     <t>{"answerId":994,"topicId":455,"topicType":2,"isSuccess":0}</t>
   </si>
   <si>
-    <t>{ "success": False,"code": 1006,"msg": "提交答案失败"}</t>
-  </si>
-  <si>
     <t>提交答案，topicType值为‘1’单选题，而实际题目类型为浏览提</t>
   </si>
   <si>
     <t>{"answerId":993,"topicId":455,"topicType":1,"isSuccess":0}</t>
   </si>
   <si>
-    <t>{ "success": False,"code": 1001,"msg": "系统出现错误[1001]"}</t>
-  </si>
-  <si>
     <t>提交单选题答案</t>
   </si>
   <si>
@@ -5564,13 +5546,7 @@
     <t>查询失败，返回错误信息</t>
   </si>
   <si>
-    <t>{ "success": False,"code": 1006,"msg": "未找到相关答题记录"}</t>
-  </si>
-  <si>
     <t>答题记录主键未传id</t>
-  </si>
-  <si>
-    <t>{ "success": False,"code": 1005,"msg": " "系统出现错误[1001]"}</t>
   </si>
   <si>
     <t>查询答题记录列表</t>
@@ -9336,6 +9312,111 @@
   </si>
   <si>
     <t>{"success":false,"code":1005,"msg":"关注渠道不能为空","errorMsg":"BindException.Field error in object 'focusSuccessReq'.[FocusSuccessReq(channel=,userId=null)] on field 'channel': rejected value [].default message [关注渠道不能为空]"}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/paper/getPaper</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false,"code":1006,"msg":"该用户没有答题记录！"}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true,"code":1000,"msg":"操作成功"}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false,"code":1006,"msg":"提交答案失败"}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"success"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alse,"code":1001,"msg":"系统出现错误[1001]"}</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true,"code":1000,"msg":"操作成功"}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"success":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alse,"code":1006,"msg":"未找到相关答题记录"}</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"success":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alse,"code":1005,"msg":"系统出现错误[1001]"}</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true,"code":1000,"msg":"操作成功"}</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -10653,40 +10734,40 @@
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>1445</v>
+        <v>1437</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1447</v>
+        <v>1439</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1448</v>
+        <v>1440</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1449</v>
+        <v>1441</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="2" t="s">
-        <v>1450</v>
+        <v>1442</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="8" t="s">
-        <v>1451</v>
+        <v>1443</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O2" s="10"/>
       <c r="P2" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>74</v>
@@ -10694,42 +10775,42 @@
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1455</v>
+        <v>1447</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1456</v>
+        <v>1448</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>1457</v>
+        <v>1449</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="2" t="s">
-        <v>1450</v>
+        <v>1442</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="8" t="s">
-        <v>1458</v>
+        <v>1450</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>1459</v>
+        <v>1451</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>74</v>
@@ -10737,42 +10818,42 @@
     </row>
     <row r="4" spans="1:18" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>1460</v>
+        <v>1452</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1455</v>
+        <v>1447</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1461</v>
+        <v>1453</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>1462</v>
+        <v>1454</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="2" t="s">
-        <v>1450</v>
+        <v>1442</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="8" t="s">
-        <v>1463</v>
+        <v>1455</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>1464</v>
+        <v>1456</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>74</v>
@@ -10780,44 +10861,44 @@
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>1465</v>
+        <v>1457</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1455</v>
+        <v>1447</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1466</v>
+        <v>1458</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>1467</v>
+        <v>1459</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="2" t="s">
-        <v>1450</v>
+        <v>1442</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>1468</v>
+        <v>1460</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>1469</v>
+        <v>1461</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>1470</v>
+        <v>1462</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>74</v>
@@ -10825,46 +10906,46 @@
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1455</v>
+        <v>1447</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1472</v>
+        <v>1464</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>1473</v>
+        <v>1465</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>1467</v>
+        <v>1459</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>1450</v>
+        <v>1442</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>1474</v>
+        <v>1466</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>1475</v>
+        <v>1467</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>1476</v>
+        <v>1468</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>74</v>
@@ -10872,46 +10953,46 @@
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>1477</v>
+        <v>1469</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1455</v>
+        <v>1447</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1478</v>
+        <v>1470</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>1479</v>
+        <v>1471</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>1473</v>
+        <v>1465</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>1450</v>
+        <v>1442</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>1480</v>
+        <v>1472</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>1481</v>
+        <v>1473</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>1482</v>
+        <v>1474</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>74</v>
@@ -10919,41 +11000,41 @@
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>1483</v>
+        <v>1475</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1484</v>
+        <v>1476</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1485</v>
+        <v>1477</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>1486</v>
+        <v>1478</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>1450</v>
+        <v>1442</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>1487</v>
+        <v>1479</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>1488</v>
+        <v>1480</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>74</v>
@@ -10961,41 +11042,41 @@
     </row>
     <row r="9" spans="1:18" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>1489</v>
+        <v>1481</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1490</v>
+        <v>1482</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>1492</v>
+        <v>1484</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>1450</v>
+        <v>1442</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>1493</v>
+        <v>1485</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>74</v>
@@ -11003,41 +11084,41 @@
     </row>
     <row r="10" spans="1:18" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1497</v>
+        <v>1489</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>1498</v>
+        <v>1490</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>1450</v>
+        <v>1442</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>1499</v>
+        <v>1491</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>1500</v>
+        <v>1492</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>74</v>
@@ -11045,46 +11126,46 @@
     </row>
     <row r="11" spans="1:18" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>1501</v>
+        <v>1493</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1455</v>
+        <v>1447</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1502</v>
+        <v>1494</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>1473</v>
+        <v>1465</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>1467</v>
+        <v>1459</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>1450</v>
+        <v>1442</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>1503</v>
+        <v>1495</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>1475</v>
+        <v>1467</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>1476</v>
+        <v>1468</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>74</v>
@@ -11092,41 +11173,41 @@
     </row>
     <row r="12" spans="1:18" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>1504</v>
+        <v>1496</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1505</v>
+        <v>1497</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1506</v>
+        <v>1498</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>1507</v>
+        <v>1499</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>1450</v>
+        <v>1442</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>1508</v>
+        <v>1500</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>1509</v>
+        <v>1501</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>74</v>
@@ -11134,41 +11215,41 @@
     </row>
     <row r="13" spans="1:18" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>1510</v>
+        <v>1502</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1505</v>
+        <v>1497</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1511</v>
+        <v>1503</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>1507</v>
+        <v>1499</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>1450</v>
+        <v>1442</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>1512</v>
+        <v>1504</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>1509</v>
+        <v>1501</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>74</v>
@@ -11176,41 +11257,41 @@
     </row>
     <row r="14" spans="1:18" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>1513</v>
+        <v>1505</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1505</v>
+        <v>1497</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1511</v>
+        <v>1503</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>1507</v>
+        <v>1499</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>1450</v>
+        <v>1442</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>1514</v>
+        <v>1506</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="9" t="s">
-        <v>1515</v>
+        <v>1507</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>1509</v>
+        <v>1501</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>74</v>
@@ -11325,42 +11406,42 @@
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>1516</v>
+        <v>1508</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1518</v>
+        <v>1510</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1519</v>
+        <v>1511</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1520</v>
+        <v>1512</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="2" t="s">
-        <v>1521</v>
+        <v>1513</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="8" t="s">
-        <v>1522</v>
+        <v>1514</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>1523</v>
+        <v>1515</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>74</v>
@@ -11368,42 +11449,42 @@
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>1524</v>
+        <v>1516</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1517</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1525</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1526</v>
+        <v>1518</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>1527</v>
+        <v>1519</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="2" t="s">
-        <v>1521</v>
+        <v>1513</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="8" t="s">
-        <v>1528</v>
+        <v>1520</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>1529</v>
+        <v>1521</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>74</v>
@@ -11411,41 +11492,41 @@
     </row>
     <row r="4" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>1530</v>
+        <v>1522</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1531</v>
+        <v>1523</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1532</v>
+        <v>1524</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>1533</v>
+        <v>1525</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="2" t="s">
-        <v>1521</v>
+        <v>1513</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>1534</v>
+        <v>1526</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>1535</v>
+        <v>1527</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>74</v>
@@ -11453,42 +11534,42 @@
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1537</v>
+        <v>1529</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1538</v>
+        <v>1530</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>1539</v>
+        <v>1531</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="2" t="s">
-        <v>1521</v>
+        <v>1513</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="8" t="s">
-        <v>1540</v>
+        <v>1532</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>1541</v>
+        <v>1533</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>74</v>
@@ -11496,42 +11577,42 @@
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>1542</v>
+        <v>1534</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1543</v>
+        <v>1535</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1544</v>
+        <v>1536</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>1545</v>
+        <v>1537</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="2" t="s">
-        <v>1521</v>
+        <v>1513</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="8" t="s">
-        <v>1546</v>
+        <v>1538</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>1547</v>
+        <v>1539</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>74</v>
@@ -11539,44 +11620,44 @@
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>1548</v>
+        <v>1540</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1549</v>
+        <v>1541</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1549</v>
+        <v>1541</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>1550</v>
+        <v>1542</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="2" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>1552</v>
+        <v>1544</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>1553</v>
+        <v>1545</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>1554</v>
+        <v>1546</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>74</v>
@@ -11584,44 +11665,44 @@
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>1555</v>
+        <v>1547</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1556</v>
+        <v>1548</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1557</v>
+        <v>1549</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>1558</v>
+        <v>1550</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="2" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>1559</v>
+        <v>1551</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>1560</v>
+        <v>1552</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>1561</v>
+        <v>1553</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>74</v>
@@ -11629,44 +11710,44 @@
     </row>
     <row r="9" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>1562</v>
+        <v>1554</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1556</v>
+        <v>1548</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1563</v>
+        <v>1555</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>1558</v>
+        <v>1550</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="2" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>1564</v>
+        <v>1556</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>1560</v>
+        <v>1552</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>1561</v>
+        <v>1553</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>74</v>
@@ -11674,44 +11755,44 @@
     </row>
     <row r="10" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>1565</v>
+        <v>1557</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1556</v>
+        <v>1548</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>1558</v>
+        <v>1550</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="2" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>1567</v>
+        <v>1559</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>1560</v>
+        <v>1552</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>1561</v>
+        <v>1553</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>74</v>
@@ -11719,44 +11800,44 @@
     </row>
     <row r="11" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>1568</v>
+        <v>1560</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1556</v>
+        <v>1548</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1569</v>
+        <v>1561</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>1558</v>
+        <v>1550</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="2" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>1570</v>
+        <v>1562</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>1560</v>
+        <v>1552</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>1561</v>
+        <v>1553</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>74</v>
@@ -11764,44 +11845,44 @@
     </row>
     <row r="12" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>1571</v>
+        <v>1563</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1556</v>
+        <v>1548</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1572</v>
+        <v>1564</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>1558</v>
+        <v>1550</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="2" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>1573</v>
+        <v>1565</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>1560</v>
+        <v>1552</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>1561</v>
+        <v>1553</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>74</v>
@@ -11809,44 +11890,44 @@
     </row>
     <row r="13" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>1574</v>
+        <v>1566</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1556</v>
+        <v>1548</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1575</v>
+        <v>1567</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>1558</v>
+        <v>1550</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="2" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>1576</v>
+        <v>1568</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>1560</v>
+        <v>1552</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>1561</v>
+        <v>1553</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>74</v>
@@ -11854,44 +11935,44 @@
     </row>
     <row r="14" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>1577</v>
+        <v>1569</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1556</v>
+        <v>1548</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1578</v>
+        <v>1570</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>1558</v>
+        <v>1550</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="2" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>1579</v>
+        <v>1571</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>1560</v>
+        <v>1552</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>1561</v>
+        <v>1553</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>74</v>
@@ -11899,44 +11980,44 @@
     </row>
     <row r="15" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>1580</v>
+        <v>1572</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>1556</v>
+        <v>1548</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>1581</v>
+        <v>1573</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>1558</v>
+        <v>1550</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="2" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>1582</v>
+        <v>1574</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>1560</v>
+        <v>1552</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>1561</v>
+        <v>1553</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>74</v>
@@ -11944,44 +12025,44 @@
     </row>
     <row r="16" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>1583</v>
+        <v>1575</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1556</v>
+        <v>1548</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>1584</v>
+        <v>1576</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>1558</v>
+        <v>1550</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="2" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>1585</v>
+        <v>1577</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>1560</v>
+        <v>1552</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>1561</v>
+        <v>1553</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>74</v>
@@ -11989,44 +12070,44 @@
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>1586</v>
+        <v>1578</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>1556</v>
+        <v>1548</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>1587</v>
+        <v>1579</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>1558</v>
+        <v>1550</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="2" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>1588</v>
+        <v>1580</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>1589</v>
+        <v>1581</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>1561</v>
+        <v>1553</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>74</v>
@@ -12034,44 +12115,44 @@
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>1590</v>
+        <v>1582</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1556</v>
+        <v>1548</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>1591</v>
+        <v>1583</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>1558</v>
+        <v>1550</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="2" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>1592</v>
+        <v>1584</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>1593</v>
+        <v>1585</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>1594</v>
+        <v>1586</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>1561</v>
+        <v>1553</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>74</v>
@@ -12079,44 +12160,44 @@
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>1595</v>
+        <v>1587</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>1596</v>
+        <v>1588</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>1597</v>
+        <v>1589</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>1598</v>
+        <v>1590</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="2" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>1599</v>
+        <v>1591</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>1600</v>
+        <v>1592</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>1601</v>
+        <v>1593</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>74</v>
@@ -12124,44 +12205,44 @@
     </row>
     <row r="20" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>1602</v>
+        <v>1594</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1596</v>
+        <v>1588</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>1598</v>
+        <v>1590</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="2" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>1604</v>
+        <v>1596</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>1605</v>
+        <v>1597</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>1601</v>
+        <v>1593</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>74</v>
@@ -12169,44 +12250,44 @@
     </row>
     <row r="21" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>1606</v>
+        <v>1598</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1608</v>
+        <v>1600</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>1609</v>
+        <v>1601</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="2" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>1612</v>
+        <v>1604</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>74</v>
@@ -12214,44 +12295,44 @@
     </row>
     <row r="22" spans="1:18" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>1613</v>
+        <v>1605</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1614</v>
+        <v>1606</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>1609</v>
+        <v>1601</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="2" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>1615</v>
+        <v>1607</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>1612</v>
+        <v>1604</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>74</v>
@@ -12259,44 +12340,44 @@
     </row>
     <row r="23" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1619</v>
+        <v>1611</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1620</v>
+        <v>1612</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>1621</v>
+        <v>1613</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="2" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>1622</v>
+        <v>1614</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>1624</v>
+        <v>1616</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>74</v>
@@ -12304,42 +12385,42 @@
     </row>
     <row r="24" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>1625</v>
+        <v>1617</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1626</v>
+        <v>1618</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1627</v>
+        <v>1619</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>1628</v>
+        <v>1620</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="2" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>1630</v>
+        <v>1622</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R24" s="2" t="s">
         <v>74</v>
@@ -12347,44 +12428,44 @@
     </row>
     <row r="25" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>1631</v>
+        <v>1623</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1632</v>
+        <v>1624</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1633</v>
+        <v>1625</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>1634</v>
+        <v>1626</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="2" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>1635</v>
+        <v>1627</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>1636</v>
+        <v>1628</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>1637</v>
+        <v>1629</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R25" s="2" t="s">
         <v>74</v>
@@ -12392,44 +12473,44 @@
     </row>
     <row r="26" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>1638</v>
+        <v>1630</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1639</v>
+        <v>1631</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1640</v>
+        <v>1632</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>1641</v>
+        <v>1633</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="2" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>1642</v>
+        <v>1634</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>1643</v>
+        <v>1635</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>1644</v>
+        <v>1636</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R26" s="2" t="s">
         <v>74</v>
@@ -12437,44 +12518,44 @@
     </row>
     <row r="27" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>1645</v>
+        <v>1637</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1639</v>
+        <v>1631</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1646</v>
+        <v>1638</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>1641</v>
+        <v>1633</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="2" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>1647</v>
+        <v>1639</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>1648</v>
+        <v>1640</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>1649</v>
+        <v>1641</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>1644</v>
+        <v>1636</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R27" s="2" t="s">
         <v>74</v>
@@ -12482,44 +12563,44 @@
     </row>
     <row r="28" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>1650</v>
+        <v>1642</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1651</v>
+        <v>1643</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1651</v>
+        <v>1643</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>1652</v>
+        <v>1644</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="2" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>1647</v>
+        <v>1639</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>1653</v>
+        <v>1645</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>1654</v>
+        <v>1646</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R28" s="2" t="s">
         <v>74</v>
@@ -12527,42 +12608,42 @@
     </row>
     <row r="29" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1656</v>
+        <v>1648</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1657</v>
+        <v>1649</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>1658</v>
+        <v>1650</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="2" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K29" s="8"/>
       <c r="L29" s="8" t="s">
-        <v>1659</v>
+        <v>1651</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>1660</v>
+        <v>1652</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R29" s="2" t="s">
         <v>74</v>
@@ -12570,44 +12651,44 @@
     </row>
     <row r="30" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>1661</v>
+        <v>1653</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1662</v>
+        <v>1654</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1663</v>
+        <v>1655</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="2" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>1665</v>
+        <v>1657</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>1666</v>
+        <v>1658</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>1667</v>
+        <v>1659</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R30" s="2" t="s">
         <v>74</v>
@@ -12615,44 +12696,44 @@
     </row>
     <row r="31" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>1668</v>
+        <v>1660</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1662</v>
+        <v>1654</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1669</v>
+        <v>1661</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="2" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>1670</v>
+        <v>1662</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>1671</v>
+        <v>1663</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>1667</v>
+        <v>1659</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R31" s="2" t="s">
         <v>74</v>
@@ -12660,40 +12741,40 @@
     </row>
     <row r="32" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>1672</v>
+        <v>1664</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>1673</v>
+        <v>1665</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1674</v>
+        <v>1666</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="2" t="s">
-        <v>1676</v>
+        <v>1668</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K32" s="8"/>
       <c r="L32" s="8" t="s">
-        <v>1677</v>
+        <v>1669</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O32" s="10"/>
       <c r="P32" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R32" s="2" t="s">
         <v>74</v>
@@ -12701,44 +12782,44 @@
     </row>
     <row r="33" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>1678</v>
+        <v>1670</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>1662</v>
+        <v>1654</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>1679</v>
+        <v>1671</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="2" t="s">
-        <v>1676</v>
+        <v>1668</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>1680</v>
+        <v>1672</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>1681</v>
+        <v>1673</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>1667</v>
+        <v>1659</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R33" s="2" t="s">
         <v>74</v>
@@ -12746,44 +12827,44 @@
     </row>
     <row r="34" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>1682</v>
+        <v>1674</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1662</v>
+        <v>1654</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1683</v>
+        <v>1675</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="2" t="s">
-        <v>1676</v>
+        <v>1668</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>1684</v>
+        <v>1676</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>1685</v>
+        <v>1677</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>1667</v>
+        <v>1659</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R34" s="2" t="s">
         <v>74</v>
@@ -12791,44 +12872,44 @@
     </row>
     <row r="35" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>1686</v>
+        <v>1678</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1687</v>
+        <v>1679</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1688</v>
+        <v>1680</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>1689</v>
+        <v>1681</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="2" t="s">
-        <v>1676</v>
+        <v>1668</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>1690</v>
+        <v>1682</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>1691</v>
+        <v>1683</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>1692</v>
+        <v>1684</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R35" s="2" t="s">
         <v>74</v>
@@ -12836,44 +12917,44 @@
     </row>
     <row r="36" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>1693</v>
+        <v>1685</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>1687</v>
+        <v>1679</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1694</v>
+        <v>1686</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>1689</v>
+        <v>1681</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="2" t="s">
-        <v>1676</v>
+        <v>1668</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>1695</v>
+        <v>1687</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>1696</v>
+        <v>1688</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>1692</v>
+        <v>1684</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R36" s="2" t="s">
         <v>74</v>
@@ -12881,42 +12962,42 @@
     </row>
     <row r="37" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>1697</v>
+        <v>1689</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>1698</v>
+        <v>1690</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1699</v>
+        <v>1691</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>1700</v>
+        <v>1692</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="2" t="s">
-        <v>1676</v>
+        <v>1668</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K37" s="8"/>
       <c r="L37" s="8" t="s">
-        <v>1701</v>
+        <v>1693</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>1702</v>
+        <v>1694</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R37" s="2" t="s">
         <v>74</v>
@@ -12924,44 +13005,44 @@
     </row>
     <row r="38" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>1703</v>
+        <v>1695</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>1687</v>
+        <v>1679</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>1704</v>
+        <v>1696</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>1705</v>
+        <v>1697</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="2" t="s">
-        <v>1676</v>
+        <v>1668</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>1706</v>
+        <v>1698</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>1707</v>
+        <v>1699</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>1692</v>
+        <v>1684</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>74</v>
@@ -12969,44 +13050,44 @@
     </row>
     <row r="39" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>1708</v>
+        <v>1700</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>1687</v>
+        <v>1679</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>1709</v>
+        <v>1701</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>1710</v>
+        <v>1702</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="2" t="s">
-        <v>1711</v>
+        <v>1703</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>1706</v>
+        <v>1698</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>1712</v>
+        <v>1704</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>1713</v>
+        <v>1705</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R39" s="2" t="s">
         <v>74</v>
@@ -13014,44 +13095,44 @@
     </row>
     <row r="40" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>1714</v>
+        <v>1706</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>1447</v>
+        <v>1439</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>1716</v>
+        <v>1708</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>1717</v>
+        <v>1709</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="2" t="s">
-        <v>1718</v>
+        <v>1710</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>1719</v>
+        <v>1711</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>1721</v>
+        <v>1713</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R40" s="2" t="s">
         <v>600</v>
@@ -13059,44 +13140,44 @@
     </row>
     <row r="41" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>1722</v>
+        <v>1714</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>1447</v>
+        <v>1439</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>1723</v>
+        <v>1715</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>1717</v>
+        <v>1709</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="2" t="s">
-        <v>1718</v>
+        <v>1710</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>1724</v>
+        <v>1716</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O41" s="10" t="s">
-        <v>1721</v>
+        <v>1713</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R41" s="2" t="s">
         <v>600</v>
@@ -13104,44 +13185,44 @@
     </row>
     <row r="42" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>1725</v>
+        <v>1717</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>1447</v>
+        <v>1439</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>1726</v>
+        <v>1718</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>1717</v>
+        <v>1709</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="2" t="s">
-        <v>1718</v>
+        <v>1710</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>1727</v>
+        <v>1719</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>1728</v>
+        <v>1720</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>1729</v>
+        <v>1721</v>
       </c>
       <c r="O42" s="11" t="s">
-        <v>1721</v>
+        <v>1713</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R42" s="2" t="s">
         <v>600</v>
@@ -13149,44 +13230,44 @@
     </row>
     <row r="43" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>1730</v>
+        <v>1722</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>1731</v>
+        <v>1723</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>1732</v>
+        <v>1724</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>1733</v>
+        <v>1725</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="2" t="s">
-        <v>1718</v>
+        <v>1710</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>1734</v>
+        <v>1726</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>1735</v>
+        <v>1727</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>1736</v>
+        <v>1728</v>
       </c>
       <c r="O43" s="10" t="s">
-        <v>1737</v>
+        <v>1729</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R43" s="2" t="s">
         <v>600</v>
@@ -13194,44 +13275,44 @@
     </row>
     <row r="44" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>1738</v>
+        <v>1730</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>1731</v>
+        <v>1723</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>1739</v>
+        <v>1731</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>1717</v>
+        <v>1709</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="2" t="s">
-        <v>1718</v>
+        <v>1710</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>1740</v>
+        <v>1732</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>1737</v>
+        <v>1729</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R44" s="2" t="s">
         <v>600</v>
@@ -13239,44 +13320,44 @@
     </row>
     <row r="45" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>1741</v>
+        <v>1733</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>1731</v>
+        <v>1723</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>1742</v>
+        <v>1734</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>1717</v>
+        <v>1709</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="2" t="s">
-        <v>1718</v>
+        <v>1710</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>1743</v>
+        <v>1735</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O45" s="10" t="s">
-        <v>1737</v>
+        <v>1729</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R45" s="2" t="s">
         <v>600</v>
@@ -13284,44 +13365,44 @@
     </row>
     <row r="46" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>1744</v>
+        <v>1736</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>1731</v>
+        <v>1723</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>1745</v>
+        <v>1737</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>1717</v>
+        <v>1709</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="2" t="s">
-        <v>1718</v>
+        <v>1710</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>1746</v>
+        <v>1738</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>1737</v>
+        <v>1729</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R46" s="2" t="s">
         <v>600</v>
@@ -13329,44 +13410,44 @@
     </row>
     <row r="47" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>1747</v>
+        <v>1739</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>1447</v>
+        <v>1439</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>1748</v>
+        <v>1740</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>1717</v>
+        <v>1709</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="2" t="s">
-        <v>1718</v>
+        <v>1710</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>1749</v>
+        <v>1741</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O47" s="10" t="s">
-        <v>1721</v>
+        <v>1713</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R47" s="2" t="s">
         <v>600</v>
@@ -13374,44 +13455,44 @@
     </row>
     <row r="48" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>1750</v>
+        <v>1742</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>1447</v>
+        <v>1439</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>1751</v>
+        <v>1743</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>1717</v>
+        <v>1709</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="2" t="s">
-        <v>1718</v>
+        <v>1710</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>1749</v>
+        <v>1741</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O48" s="10" t="s">
-        <v>1721</v>
+        <v>1713</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R48" s="2" t="s">
         <v>600</v>
@@ -13419,44 +13500,44 @@
     </row>
     <row r="49" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>1752</v>
+        <v>1744</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>1753</v>
+        <v>1745</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>1754</v>
+        <v>1746</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>1755</v>
+        <v>1747</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="2" t="s">
-        <v>1718</v>
+        <v>1710</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>1756</v>
+        <v>1748</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O49" s="11" t="s">
-        <v>1757</v>
+        <v>1749</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R49" s="2" t="s">
         <v>600</v>
@@ -13464,44 +13545,44 @@
     </row>
     <row r="50" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>1758</v>
+        <v>1750</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>1759</v>
+        <v>1751</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>1760</v>
+        <v>1752</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>1761</v>
+        <v>1753</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="2" t="s">
-        <v>1718</v>
+        <v>1710</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>1734</v>
+        <v>1726</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>1762</v>
+        <v>1754</v>
       </c>
       <c r="O50" s="10" t="s">
-        <v>1763</v>
+        <v>1755</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R50" s="2" t="s">
         <v>600</v>
@@ -13509,44 +13590,44 @@
     </row>
     <row r="51" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>1764</v>
+        <v>1756</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>1759</v>
+        <v>1751</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>1765</v>
+        <v>1757</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>1766</v>
+        <v>1758</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="2" t="s">
-        <v>1718</v>
+        <v>1710</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>1767</v>
+        <v>1759</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>1768</v>
+        <v>1760</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O51" s="10" t="s">
-        <v>1769</v>
+        <v>1761</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R51" s="2" t="s">
         <v>600</v>
@@ -13554,44 +13635,44 @@
     </row>
     <row r="52" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>1770</v>
+        <v>1762</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>1759</v>
+        <v>1751</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>1771</v>
+        <v>1763</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>1761</v>
+        <v>1753</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="2" t="s">
-        <v>1718</v>
+        <v>1710</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>1734</v>
+        <v>1726</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>1772</v>
+        <v>1764</v>
       </c>
       <c r="O52" s="10" t="s">
-        <v>1763</v>
+        <v>1755</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R52" s="2" t="s">
         <v>600</v>
@@ -13599,44 +13680,44 @@
     </row>
     <row r="53" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>1773</v>
+        <v>1765</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>1759</v>
+        <v>1751</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>1774</v>
+        <v>1766</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>1766</v>
+        <v>1758</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="2" t="s">
-        <v>1718</v>
+        <v>1710</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>1775</v>
+        <v>1767</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O53" s="10" t="s">
-        <v>1769</v>
+        <v>1761</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R53" s="2" t="s">
         <v>600</v>
@@ -13644,44 +13725,44 @@
     </row>
     <row r="54" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>1777</v>
+        <v>1769</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>1447</v>
+        <v>1439</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>1717</v>
+        <v>1709</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="2" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>1780</v>
+        <v>1772</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O54" s="10" t="s">
-        <v>1721</v>
+        <v>1713</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R54" s="2" t="s">
         <v>600</v>
@@ -13689,44 +13770,44 @@
     </row>
     <row r="55" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>1447</v>
+        <v>1439</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>1782</v>
+        <v>1774</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>1717</v>
+        <v>1709</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="2" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>1783</v>
+        <v>1775</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O55" s="10" t="s">
-        <v>1721</v>
+        <v>1713</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R55" s="2" t="s">
         <v>600</v>
@@ -13734,44 +13815,44 @@
     </row>
     <row r="56" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>1784</v>
+        <v>1776</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>1785</v>
+        <v>1777</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>1786</v>
+        <v>1778</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>1717</v>
+        <v>1709</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="2" t="s">
-        <v>1787</v>
+        <v>1779</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>1780</v>
+        <v>1772</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="O56" s="10" t="s">
-        <v>1721</v>
+        <v>1713</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R56" s="2" t="s">
         <v>600</v>
@@ -13779,41 +13860,41 @@
     </row>
     <row r="57" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>1788</v>
+        <v>1780</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>1789</v>
+        <v>1781</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>1790</v>
+        <v>1782</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>1791</v>
+        <v>1783</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="2" t="s">
-        <v>1787</v>
+        <v>1779</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>1792</v>
+        <v>1784</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R57" s="2" t="s">
         <v>74</v>
@@ -13821,41 +13902,41 @@
     </row>
     <row r="58" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>1793</v>
+        <v>1785</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>1789</v>
+        <v>1781</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>1794</v>
+        <v>1786</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>1791</v>
+        <v>1783</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="2" t="s">
-        <v>1795</v>
+        <v>1787</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>1796</v>
+        <v>1788</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="R58" s="2" t="s">
         <v>74</v>
@@ -16054,7 +16135,7 @@
     </row>
     <row r="44" spans="1:19" s="16" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A44" s="44" t="s">
-        <v>1807</v>
+        <v>1799</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>18</v>
@@ -16099,7 +16180,7 @@
     </row>
     <row r="45" spans="1:19" s="16" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>1806</v>
+        <v>1798</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>18</v>
@@ -18846,7 +18927,7 @@
     </row>
     <row r="2" spans="1:18" s="29" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
-        <v>1821</v>
+        <v>1813</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>474</v>
@@ -18870,7 +18951,7 @@
         <v>98</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>1881</v>
+        <v>1873</v>
       </c>
       <c r="L2" s="29" t="s">
         <v>243</v>
@@ -20242,7 +20323,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>5</v>
@@ -20260,7 +20341,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>1819</v>
+        <v>1811</v>
       </c>
       <c r="L1" s="17" t="s">
         <v>11</v>
@@ -20286,13 +20367,13 @@
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="44" t="s">
-        <v>1811</v>
+        <v>1803</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>593</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>1824</v>
+        <v>1816</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -20301,7 +20382,7 @@
         <v>595</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1809</v>
+        <v>1801</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="2" t="s">
@@ -20311,7 +20392,7 @@
         <v>98</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>1812</v>
+        <v>1804</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>598</v>
@@ -20320,18 +20401,18 @@
         <v>101</v>
       </c>
       <c r="O2" s="46" t="s">
-        <v>1813</v>
+        <v>1805</v>
       </c>
       <c r="P2" s="22" t="s">
         <v>73</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>1822</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="54" t="s">
-        <v>1823</v>
+        <v>1815</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>593</v>
@@ -20343,10 +20424,10 @@
         <v>76</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>1832</v>
+        <v>1824</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>1809</v>
+        <v>1801</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="2" t="s">
@@ -20356,7 +20437,7 @@
         <v>98</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>598</v>
@@ -20365,18 +20446,18 @@
         <v>101</v>
       </c>
       <c r="O3" s="46" t="s">
-        <v>1808</v>
+        <v>1800</v>
       </c>
       <c r="P3" s="22" t="s">
         <v>73</v>
       </c>
       <c r="R3" s="30" t="s">
-        <v>1838</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>593</v>
@@ -20401,7 +20482,7 @@
         <v>98</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>598</v>
@@ -20421,13 +20502,13 @@
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
-        <v>1826</v>
+        <v>1818</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>593</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>1828</v>
+        <v>1820</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -20436,7 +20517,7 @@
         <v>603</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>1829</v>
+        <v>1821</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="2" t="s">
@@ -20446,7 +20527,7 @@
         <v>98</v>
       </c>
       <c r="K5" s="48" t="s">
-        <v>1814</v>
+        <v>1806</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>602</v>
@@ -20455,7 +20536,7 @@
         <v>101</v>
       </c>
       <c r="O5" s="46" t="s">
-        <v>1827</v>
+        <v>1819</v>
       </c>
       <c r="P5" s="22" t="s">
         <v>73</v>
@@ -20466,13 +20547,13 @@
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
-        <v>1825</v>
+        <v>1817</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>593</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>1810</v>
+        <v>1802</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>76</v>
@@ -20511,7 +20592,7 @@
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
-        <v>1861</v>
+        <v>1853</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>593</v>
@@ -20556,13 +20637,13 @@
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="44" t="s">
-        <v>1830</v>
+        <v>1822</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>593</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>1854</v>
+        <v>1846</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>76</v>
@@ -20571,7 +20652,7 @@
         <v>608</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>1853</v>
+        <v>1845</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="2" t="s">
@@ -20601,7 +20682,7 @@
     </row>
     <row r="9" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="44" t="s">
-        <v>1841</v>
+        <v>1833</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>593</v>
@@ -20646,7 +20727,7 @@
     </row>
     <row r="10" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="44" t="s">
-        <v>1831</v>
+        <v>1823</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>593</v>
@@ -20691,13 +20772,13 @@
     </row>
     <row r="11" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="44" t="s">
-        <v>1835</v>
+        <v>1827</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>593</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>1833</v>
+        <v>1825</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>31</v>
@@ -20706,7 +20787,7 @@
         <v>615</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>1834</v>
+        <v>1826</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="8" t="s">
@@ -20736,7 +20817,7 @@
     </row>
     <row r="12" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="44" t="s">
-        <v>1836</v>
+        <v>1828</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>593</v>
@@ -20781,7 +20862,7 @@
     </row>
     <row r="13" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="44" t="s">
-        <v>1837</v>
+        <v>1829</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>593</v>
@@ -20826,13 +20907,13 @@
     </row>
     <row r="14" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
-        <v>1848</v>
+        <v>1840</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>593</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>1840</v>
+        <v>1832</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>31</v>
@@ -20841,7 +20922,7 @@
         <v>622</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="8" t="s">
@@ -20871,7 +20952,7 @@
     </row>
     <row r="15" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51" t="s">
-        <v>1849</v>
+        <v>1841</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>593</v>
@@ -20886,7 +20967,7 @@
         <v>628</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="52" t="s">
@@ -20916,10 +20997,10 @@
     </row>
     <row r="16" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
-        <v>1850</v>
+        <v>1842</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>621</v>
@@ -20961,7 +21042,7 @@
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
-        <v>1851</v>
+        <v>1843</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>593</v>
@@ -20976,11 +21057,11 @@
         <v>633</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>1843</v>
+        <v>1835</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="53" t="s">
-        <v>1844</v>
+        <v>1836</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>24</v>
@@ -21006,7 +21087,7 @@
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
-        <v>1852</v>
+        <v>1844</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>593</v>
@@ -21018,14 +21099,14 @@
         <v>31</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>1845</v>
+        <v>1837</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>1843</v>
+        <v>1835</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="48" t="s">
-        <v>1846</v>
+        <v>1838</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>24</v>
@@ -21037,7 +21118,7 @@
         <v>630</v>
       </c>
       <c r="M18" s="48" t="s">
-        <v>1847</v>
+        <v>1839</v>
       </c>
       <c r="O18" s="21" t="s">
         <v>627</v>
@@ -21051,13 +21132,13 @@
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
-        <v>1856</v>
+        <v>1848</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>593</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>1855</v>
+        <v>1847</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>20</v>
@@ -21066,7 +21147,7 @@
         <v>635</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>1842</v>
+        <v>1834</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="2" t="s">
@@ -21118,7 +21199,7 @@
         <v>98</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>1858</v>
+        <v>1850</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>641</v>
@@ -21151,7 +21232,7 @@
         <v>644</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>1857</v>
+        <v>1849</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="2" t="s">
@@ -21333,7 +21414,7 @@
         <v>98</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>1859</v>
+        <v>1851</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>657</v>
@@ -21366,7 +21447,7 @@
         <v>660</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>1860</v>
+        <v>1852</v>
       </c>
       <c r="G26" s="4"/>
       <c r="I26" s="2" t="s">
@@ -21391,7 +21472,7 @@
     </row>
     <row r="27" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="56" t="s">
-        <v>1862</v>
+        <v>1854</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>659</v>
@@ -21446,14 +21527,14 @@
         <v>594</v>
       </c>
       <c r="F28" s="57" t="s">
-        <v>1863</v>
+        <v>1855</v>
       </c>
       <c r="G28" s="4"/>
       <c r="I28" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K28" s="57" t="s">
-        <v>1797</v>
+        <v>1789</v>
       </c>
       <c r="L28" s="8" t="s">
         <v>661</v>
@@ -21473,7 +21554,7 @@
     </row>
     <row r="29" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="44" t="s">
-        <v>1878</v>
+        <v>1870</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>665</v>
@@ -21488,7 +21569,7 @@
         <v>667</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>1864</v>
+        <v>1856</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>668</v>
@@ -21516,16 +21597,16 @@
         <v>673</v>
       </c>
       <c r="E30" s="44" t="s">
-        <v>1870</v>
+        <v>1862</v>
       </c>
       <c r="F30" s="44" t="s">
-        <v>1865</v>
+        <v>1857</v>
       </c>
       <c r="K30" s="44" t="s">
-        <v>1866</v>
+        <v>1858</v>
       </c>
       <c r="M30" s="48" t="s">
-        <v>1867</v>
+        <v>1859</v>
       </c>
       <c r="O30" s="11"/>
       <c r="Q30" s="33"/>
@@ -21547,7 +21628,7 @@
         <v>674</v>
       </c>
       <c r="F31" s="44" t="s">
-        <v>1865</v>
+        <v>1857</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>668</v>
@@ -21556,7 +21637,7 @@
         <v>669</v>
       </c>
       <c r="K31" s="44" t="s">
-        <v>1868</v>
+        <v>1860</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>675</v>
@@ -21572,7 +21653,7 @@
       </c>
       <c r="Q31" s="33"/>
       <c r="R31" s="44" t="s">
-        <v>1869</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -21601,7 +21682,7 @@
         <v>669</v>
       </c>
       <c r="K32" s="44" t="s">
-        <v>1798</v>
+        <v>1790</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>675</v>
@@ -21642,7 +21723,7 @@
         <v>669</v>
       </c>
       <c r="K33" s="44" t="s">
-        <v>1799</v>
+        <v>1791</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>675</v>
@@ -21683,7 +21764,7 @@
         <v>669</v>
       </c>
       <c r="K34" s="44" t="s">
-        <v>1800</v>
+        <v>1792</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>686</v>
@@ -21715,7 +21796,7 @@
         <v>690</v>
       </c>
       <c r="F35" s="44" t="s">
-        <v>1872</v>
+        <v>1864</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>684</v>
@@ -21727,7 +21808,7 @@
         <v>692</v>
       </c>
       <c r="K35" s="44" t="s">
-        <v>1871</v>
+        <v>1863</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>694</v>
@@ -21795,10 +21876,10 @@
         <v>702</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>1875</v>
+        <v>1867</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>1873</v>
+        <v>1865</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>753</v>
@@ -21824,7 +21905,7 @@
         <v>703</v>
       </c>
       <c r="F38" s="44" t="s">
-        <v>1873</v>
+        <v>1865</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>704</v>
@@ -21833,7 +21914,7 @@
         <v>669</v>
       </c>
       <c r="K38" s="48" t="s">
-        <v>1876</v>
+        <v>1868</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>705</v>
@@ -21865,7 +21946,7 @@
         <v>710</v>
       </c>
       <c r="F39" s="44" t="s">
-        <v>1877</v>
+        <v>1869</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>704</v>
@@ -21874,7 +21955,7 @@
         <v>669</v>
       </c>
       <c r="K39" s="48" t="s">
-        <v>1874</v>
+        <v>1866</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>705</v>
@@ -21891,7 +21972,7 @@
     </row>
     <row r="40" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="51" t="s">
-        <v>1879</v>
+        <v>1871</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>665</v>
@@ -21947,7 +22028,7 @@
         <v>719</v>
       </c>
       <c r="F41" s="44" t="s">
-        <v>1880</v>
+        <v>1872</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>714</v>
@@ -26563,7 +26644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L34" workbookViewId="0">
+    <sheetView topLeftCell="L34" workbookViewId="0">
       <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
@@ -26647,13 +26728,13 @@
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
-        <v>1882</v>
+        <v>1874</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1215</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>1929</v>
+        <v>1921</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -26662,7 +26743,7 @@
         <v>1216</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>1934</v>
+        <v>1926</v>
       </c>
       <c r="G2" s="7"/>
       <c r="I2" s="2" t="s">
@@ -26675,7 +26756,7 @@
         <v>101</v>
       </c>
       <c r="O2" s="46" t="s">
-        <v>1930</v>
+        <v>1922</v>
       </c>
       <c r="P2" s="22" t="s">
         <v>73</v>
@@ -26686,13 +26767,13 @@
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
-        <v>1964</v>
+        <v>1956</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1215</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>1932</v>
+        <v>1924</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -26701,7 +26782,7 @@
         <v>1218</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>1935</v>
+        <v>1927</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="2" t="s">
@@ -26729,13 +26810,13 @@
     </row>
     <row r="4" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
-        <v>1931</v>
+        <v>1923</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1215</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>1936</v>
+        <v>1928</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -26744,7 +26825,7 @@
         <v>1223</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>1937</v>
+        <v>1929</v>
       </c>
       <c r="G4" s="7"/>
       <c r="I4" s="2" t="s">
@@ -26769,13 +26850,13 @@
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
-        <v>1939</v>
+        <v>1931</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1215</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>1928</v>
+        <v>1920</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -26784,7 +26865,7 @@
         <v>1227</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>1938</v>
+        <v>1930</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="2" t="s">
@@ -26812,13 +26893,13 @@
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
-        <v>1940</v>
+        <v>1932</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1215</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>1941</v>
+        <v>1933</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
@@ -26827,7 +26908,7 @@
         <v>1232</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>1942</v>
+        <v>1934</v>
       </c>
       <c r="G6" s="7"/>
       <c r="I6" s="2" t="s">
@@ -26852,13 +26933,13 @@
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
-        <v>1884</v>
+        <v>1876</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1215</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>1943</v>
+        <v>1935</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
@@ -26867,7 +26948,7 @@
         <v>1236</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>1944</v>
+        <v>1936</v>
       </c>
       <c r="G7" s="7"/>
       <c r="I7" s="2" t="s">
@@ -26894,7 +26975,7 @@
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
-        <v>1885</v>
+        <v>1877</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1215</v>
@@ -26936,7 +27017,7 @@
     </row>
     <row r="9" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
-        <v>1886</v>
+        <v>1878</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1215</v>
@@ -26978,7 +27059,7 @@
     </row>
     <row r="10" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
-        <v>1887</v>
+        <v>1879</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1215</v>
@@ -27020,13 +27101,13 @@
     </row>
     <row r="11" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
-        <v>1945</v>
+        <v>1937</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1215</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>1946</v>
+        <v>1938</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>31</v>
@@ -27035,7 +27116,7 @@
         <v>1249</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>1947</v>
+        <v>1939</v>
       </c>
       <c r="G11" s="7"/>
       <c r="I11" s="2" t="s">
@@ -27059,13 +27140,13 @@
     </row>
     <row r="12" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="44" t="s">
-        <v>1948</v>
+        <v>1940</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1215</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>1949</v>
+        <v>1941</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>20</v>
@@ -27074,7 +27155,7 @@
         <v>1251</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>1950</v>
+        <v>1942</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="2" t="s">
@@ -27090,7 +27171,7 @@
         <v>1255</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>1933</v>
+        <v>1925</v>
       </c>
       <c r="O12" s="21" t="s">
         <v>1256</v>
@@ -27104,7 +27185,7 @@
     </row>
     <row r="13" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="44" t="s">
-        <v>1888</v>
+        <v>1880</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1215</v>
@@ -27149,13 +27230,13 @@
     </row>
     <row r="14" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="44" t="s">
-        <v>1951</v>
+        <v>1943</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1215</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>1952</v>
+        <v>1944</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>31</v>
@@ -27164,7 +27245,7 @@
         <v>1261</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>1953</v>
+        <v>1945</v>
       </c>
       <c r="G14" s="7"/>
       <c r="I14" s="2" t="s">
@@ -27188,13 +27269,13 @@
     </row>
     <row r="15" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
-        <v>1954</v>
+        <v>1946</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1215</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>1955</v>
+        <v>1947</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>20</v>
@@ -27233,7 +27314,7 @@
     </row>
     <row r="16" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
-        <v>1889</v>
+        <v>1881</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1215</v>
@@ -27278,7 +27359,7 @@
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
-        <v>1890</v>
+        <v>1882</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1215</v>
@@ -27320,7 +27401,7 @@
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="44" t="s">
-        <v>1892</v>
+        <v>1884</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1215</v>
@@ -27335,7 +27416,7 @@
         <v>1279</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>1891</v>
+        <v>1883</v>
       </c>
       <c r="G18" s="7"/>
       <c r="I18" s="2" t="s">
@@ -27362,7 +27443,7 @@
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="44" t="s">
-        <v>1893</v>
+        <v>1885</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>1215</v>
@@ -27404,7 +27485,7 @@
     </row>
     <row r="20" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="44" t="s">
-        <v>1894</v>
+        <v>1886</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>1215</v>
@@ -27446,7 +27527,7 @@
     </row>
     <row r="21" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="44" t="s">
-        <v>1895</v>
+        <v>1887</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>1215</v>
@@ -27488,7 +27569,7 @@
     </row>
     <row r="22" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="44" t="s">
-        <v>1896</v>
+        <v>1888</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>1215</v>
@@ -27530,7 +27611,7 @@
     </row>
     <row r="23" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="44" t="s">
-        <v>1897</v>
+        <v>1889</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>1215</v>
@@ -27572,7 +27653,7 @@
     </row>
     <row r="24" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="44" t="s">
-        <v>1898</v>
+        <v>1890</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>1215</v>
@@ -27614,13 +27695,13 @@
     </row>
     <row r="25" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
-        <v>1899</v>
+        <v>1891</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>1215</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>1883</v>
+        <v>1875</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>20</v>
@@ -27656,7 +27737,7 @@
     </row>
     <row r="26" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
-        <v>1900</v>
+        <v>1892</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>1215</v>
@@ -27698,7 +27779,7 @@
     </row>
     <row r="27" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
-        <v>1901</v>
+        <v>1893</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>1215</v>
@@ -27740,7 +27821,7 @@
     </row>
     <row r="28" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
-        <v>1903</v>
+        <v>1895</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>1215</v>
@@ -27755,7 +27836,7 @@
         <v>1320</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>1902</v>
+        <v>1894</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="2" t="s">
@@ -27765,7 +27846,7 @@
         <v>24</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>1957</v>
+        <v>1949</v>
       </c>
       <c r="L28" s="8" t="s">
         <v>1323</v>
@@ -27785,7 +27866,7 @@
     </row>
     <row r="29" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
-        <v>1956</v>
+        <v>1948</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>1215</v>
@@ -27810,7 +27891,7 @@
         <v>24</v>
       </c>
       <c r="K29" s="48" t="s">
-        <v>1958</v>
+        <v>1950</v>
       </c>
       <c r="L29" s="8" t="s">
         <v>1327</v>
@@ -27830,7 +27911,7 @@
     </row>
     <row r="30" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
-        <v>1904</v>
+        <v>1896</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>1215</v>
@@ -27855,7 +27936,7 @@
         <v>24</v>
       </c>
       <c r="K30" s="48" t="s">
-        <v>1959</v>
+        <v>1951</v>
       </c>
       <c r="L30" s="8" t="s">
         <v>1327</v>
@@ -27875,7 +27956,7 @@
     </row>
     <row r="31" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
-        <v>1905</v>
+        <v>1897</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>1215</v>
@@ -27900,7 +27981,7 @@
         <v>24</v>
       </c>
       <c r="K31" s="48" t="s">
-        <v>1960</v>
+        <v>1952</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>1327</v>
@@ -27920,7 +28001,7 @@
     </row>
     <row r="32" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
-        <v>1906</v>
+        <v>1898</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>1215</v>
@@ -27945,7 +28026,7 @@
         <v>24</v>
       </c>
       <c r="K32" s="48" t="s">
-        <v>1961</v>
+        <v>1953</v>
       </c>
       <c r="L32" s="8" t="s">
         <v>1327</v>
@@ -27965,7 +28046,7 @@
     </row>
     <row r="33" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
-        <v>1907</v>
+        <v>1899</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>1215</v>
@@ -27990,7 +28071,7 @@
         <v>24</v>
       </c>
       <c r="K33" s="48" t="s">
-        <v>1962</v>
+        <v>1954</v>
       </c>
       <c r="L33" s="8" t="s">
         <v>1327</v>
@@ -28010,7 +28091,7 @@
     </row>
     <row r="34" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
-        <v>1908</v>
+        <v>1900</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>1215</v>
@@ -28035,7 +28116,7 @@
         <v>24</v>
       </c>
       <c r="K34" s="48" t="s">
-        <v>1963</v>
+        <v>1955</v>
       </c>
       <c r="L34" s="8" t="s">
         <v>1327</v>
@@ -28055,7 +28136,7 @@
     </row>
     <row r="35" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>1909</v>
+        <v>1901</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>1215</v>
@@ -28100,7 +28181,7 @@
     </row>
     <row r="36" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
-        <v>1911</v>
+        <v>1903</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>1215</v>
@@ -28115,7 +28196,7 @@
         <v>1341</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>1910</v>
+        <v>1902</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="2" t="s">
@@ -28145,7 +28226,7 @@
     </row>
     <row r="37" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
-        <v>1912</v>
+        <v>1904</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>1215</v>
@@ -28190,7 +28271,7 @@
     </row>
     <row r="38" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
-        <v>1913</v>
+        <v>1905</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>1215</v>
@@ -28235,7 +28316,7 @@
     </row>
     <row r="39" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
-        <v>1914</v>
+        <v>1906</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>1215</v>
@@ -28280,7 +28361,7 @@
     </row>
     <row r="40" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
-        <v>1915</v>
+        <v>1907</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>1215</v>
@@ -28325,7 +28406,7 @@
     </row>
     <row r="41" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="44" t="s">
-        <v>1917</v>
+        <v>1909</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>1215</v>
@@ -28340,7 +28421,7 @@
         <v>1358</v>
       </c>
       <c r="F41" s="49" t="s">
-        <v>1916</v>
+        <v>1908</v>
       </c>
       <c r="G41" s="7"/>
       <c r="I41" s="2" t="s">
@@ -28367,7 +28448,7 @@
     </row>
     <row r="42" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="44" t="s">
-        <v>1918</v>
+        <v>1910</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>1215</v>
@@ -28409,7 +28490,7 @@
     </row>
     <row r="43" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="44" t="s">
-        <v>1919</v>
+        <v>1911</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>1215</v>
@@ -28451,7 +28532,7 @@
     </row>
     <row r="44" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="44" t="s">
-        <v>1920</v>
+        <v>1912</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>1215</v>
@@ -28493,7 +28574,7 @@
     </row>
     <row r="45" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="44" t="s">
-        <v>1922</v>
+        <v>1914</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>1215</v>
@@ -28508,7 +28589,7 @@
         <v>1370</v>
       </c>
       <c r="F45" s="49" t="s">
-        <v>1921</v>
+        <v>1913</v>
       </c>
       <c r="G45" s="7"/>
       <c r="I45" s="2" t="s">
@@ -28535,7 +28616,7 @@
     </row>
     <row r="46" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="44" t="s">
-        <v>1923</v>
+        <v>1915</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>1215</v>
@@ -28577,13 +28658,13 @@
     </row>
     <row r="47" spans="1:18" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="60" t="s">
-        <v>1965</v>
+        <v>1957</v>
       </c>
       <c r="B47" s="35" t="s">
         <v>1215</v>
       </c>
       <c r="C47" s="61" t="s">
-        <v>1927</v>
+        <v>1919</v>
       </c>
       <c r="D47" s="35" t="s">
         <v>20</v>
@@ -28592,7 +28673,7 @@
         <v>1379</v>
       </c>
       <c r="F47" s="62" t="s">
-        <v>1924</v>
+        <v>1916</v>
       </c>
       <c r="G47" s="7"/>
       <c r="I47" s="35" t="s">
@@ -28605,7 +28686,7 @@
         <v>1379</v>
       </c>
       <c r="M47" s="64" t="s">
-        <v>1933</v>
+        <v>1925</v>
       </c>
       <c r="O47" s="65" t="s">
         <v>1382</v>
@@ -28619,7 +28700,7 @@
     </row>
     <row r="48" spans="1:18" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="60" t="s">
-        <v>1925</v>
+        <v>1917</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>1215</v>
@@ -28647,7 +28728,7 @@
         <v>1383</v>
       </c>
       <c r="M48" s="64" t="s">
-        <v>1933</v>
+        <v>1925</v>
       </c>
       <c r="O48" s="65" t="s">
         <v>1382</v>
@@ -28661,7 +28742,7 @@
     </row>
     <row r="49" spans="1:18" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="60" t="s">
-        <v>1926</v>
+        <v>1918</v>
       </c>
       <c r="B49" s="35" t="s">
         <v>1215</v>
@@ -28689,7 +28770,7 @@
         <v>1387</v>
       </c>
       <c r="M49" s="64" t="s">
-        <v>1982</v>
+        <v>1974</v>
       </c>
       <c r="O49" s="65" t="s">
         <v>1382</v>
@@ -28773,8 +28854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28857,7 +28938,7 @@
     </row>
     <row r="2" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>1966</v>
+        <v>1958</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>1388</v>
@@ -28883,11 +28964,11 @@
       <c r="L2" s="12" t="s">
         <v>1392</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="45" t="s">
+        <v>1976</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>1393</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>1394</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>926</v>
@@ -28895,7 +28976,7 @@
     </row>
     <row r="3" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>1967</v>
+        <v>1959</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>1388</v>
@@ -28907,7 +28988,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>1391</v>
@@ -28919,13 +29000,13 @@
         <v>98</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>1396</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>1397</v>
+        <v>1395</v>
+      </c>
+      <c r="M3" s="45" t="s">
+        <v>1977</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="P3" s="12" t="s">
         <v>926</v>
@@ -28933,22 +29014,22 @@
     </row>
     <row r="4" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
-        <v>1968</v>
+        <v>1960</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>1388</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>922</v>
@@ -28957,19 +29038,19 @@
         <v>98</v>
       </c>
       <c r="K4" s="45" t="s">
-        <v>1801</v>
+        <v>1793</v>
       </c>
       <c r="L4" s="12" t="s">
+        <v>1399</v>
+      </c>
+      <c r="M4" s="45" t="s">
+        <v>1977</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>1400</v>
+      </c>
+      <c r="O4" s="14" t="s">
         <v>1401</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>1397</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>1402</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>1403</v>
       </c>
       <c r="P4" s="12" t="s">
         <v>926</v>
@@ -28977,22 +29058,22 @@
     </row>
     <row r="5" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="45" t="s">
-        <v>1969</v>
+        <v>1961</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>1388</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>1406</v>
+        <v>1975</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>922</v>
@@ -29001,13 +29082,13 @@
         <v>98</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>1407</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>1397</v>
+        <v>1404</v>
+      </c>
+      <c r="M5" s="45" t="s">
+        <v>1977</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="P5" s="12" t="s">
         <v>926</v>
@@ -29015,22 +29096,22 @@
     </row>
     <row r="6" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="45" t="s">
-        <v>1970</v>
+        <v>1962</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>1388</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>922</v>
@@ -29039,19 +29120,19 @@
         <v>692</v>
       </c>
       <c r="K6" s="12" t="s">
+        <v>1409</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>1410</v>
+      </c>
+      <c r="M6" s="45" t="s">
+        <v>1977</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>1411</v>
+      </c>
+      <c r="O6" s="14" t="s">
         <v>1412</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>1413</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>1397</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>1414</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>1415</v>
       </c>
       <c r="P6" s="12" t="s">
         <v>926</v>
@@ -29059,22 +29140,22 @@
     </row>
     <row r="7" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="45" t="s">
-        <v>1971</v>
+        <v>1963</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>1388</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>922</v>
@@ -29083,19 +29164,19 @@
         <v>692</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>1418</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>1419</v>
+        <v>1415</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>1978</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="P7" s="12" t="s">
         <v>926</v>
@@ -29103,22 +29184,22 @@
     </row>
     <row r="8" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="45" t="s">
-        <v>1972</v>
+        <v>1964</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>1388</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>922</v>
@@ -29127,16 +29208,16 @@
         <v>692</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>1418</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>1422</v>
+        <v>1415</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>1978</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="P8" s="12" t="s">
         <v>926</v>
@@ -29144,22 +29225,22 @@
     </row>
     <row r="9" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="45" t="s">
-        <v>1973</v>
+        <v>1965</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>1388</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>922</v>
@@ -29168,16 +29249,16 @@
         <v>692</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>1418</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>1425</v>
+        <v>1415</v>
+      </c>
+      <c r="M9" s="45" t="s">
+        <v>1979</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="P9" s="12" t="s">
         <v>926</v>
@@ -29185,22 +29266,22 @@
     </row>
     <row r="10" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="45" t="s">
-        <v>1974</v>
+        <v>1966</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>1388</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>1975</v>
+        <v>1967</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>922</v>
@@ -29209,16 +29290,16 @@
         <v>692</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>1413</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>1001</v>
+        <v>1410</v>
+      </c>
+      <c r="M10" s="45" t="s">
+        <v>1980</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="P10" s="12" t="s">
         <v>926</v>
@@ -29226,22 +29307,22 @@
     </row>
     <row r="11" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="45" t="s">
-        <v>1976</v>
+        <v>1968</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>1388</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>922</v>
@@ -29250,16 +29331,16 @@
         <v>98</v>
       </c>
       <c r="K11" s="45" t="s">
-        <v>1802</v>
+        <v>1794</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>1431</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>1001</v>
+        <v>1425</v>
+      </c>
+      <c r="M11" s="45" t="s">
+        <v>1980</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="P11" s="12" t="s">
         <v>926</v>
@@ -29267,22 +29348,22 @@
     </row>
     <row r="12" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="45" t="s">
-        <v>1977</v>
+        <v>1969</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>1388</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>922</v>
@@ -29291,16 +29372,16 @@
         <v>98</v>
       </c>
       <c r="K12" s="45" t="s">
-        <v>1803</v>
+        <v>1795</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>1434</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>1435</v>
+        <v>1428</v>
+      </c>
+      <c r="M12" s="45" t="s">
+        <v>1981</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="P12" s="12" t="s">
         <v>926</v>
@@ -29308,22 +29389,22 @@
     </row>
     <row r="13" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="45" t="s">
-        <v>1978</v>
+        <v>1970</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>1388</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>922</v>
@@ -29332,13 +29413,13 @@
         <v>98</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>1434</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>1437</v>
+        <v>1428</v>
+      </c>
+      <c r="M13" s="45" t="s">
+        <v>1982</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="P13" s="12" t="s">
         <v>926</v>
@@ -29346,19 +29427,19 @@
     </row>
     <row r="14" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
-        <v>1979</v>
+        <v>1971</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>1388</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>1438</v>
+        <v>1430</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>1439</v>
+        <v>1431</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>922</v>
@@ -29367,16 +29448,16 @@
         <v>98</v>
       </c>
       <c r="K14" s="45" t="s">
-        <v>1804</v>
+        <v>1796</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>1440</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>1001</v>
+        <v>1432</v>
+      </c>
+      <c r="M14" s="45" t="s">
+        <v>1983</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>1441</v>
+        <v>1433</v>
       </c>
       <c r="P14" s="12" t="s">
         <v>926</v>
@@ -29384,19 +29465,19 @@
     </row>
     <row r="15" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="45" t="s">
-        <v>1981</v>
+        <v>1973</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>1388</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>1442</v>
+        <v>1434</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>31</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>1980</v>
+        <v>1972</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>922</v>
@@ -29405,16 +29486,16 @@
         <v>98</v>
       </c>
       <c r="K15" s="45" t="s">
-        <v>1805</v>
+        <v>1797</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>1443</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>1001</v>
+        <v>1435</v>
+      </c>
+      <c r="M15" s="45" t="s">
+        <v>1983</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>1444</v>
+        <v>1436</v>
       </c>
       <c r="P15" s="12" t="s">
         <v>926</v>
@@ -29445,39 +29526,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="11"/>
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="12"/>
-  <pixelatorList sheetStid="9"/>
-  <pixelatorList sheetStid="8"/>
-  <pixelatorList sheetStid="10"/>
-  <pixelatorList sheetStid="13"/>
-  <pixelatorList sheetStid="14"/>
-  <pixelatorList sheetStid="15"/>
-</pixelators>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="11" master=""/>
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="12" master=""/>
-  <rangeList sheetStid="9" master=""/>
-  <rangeList sheetStid="8" master=""/>
-  <rangeList sheetStid="10" master=""/>
-  <rangeList sheetStid="13" master=""/>
-  <rangeList sheetStid="14" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
@@ -29499,12 +29547,45 @@
 </woProps>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="11" master=""/>
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="12" master=""/>
+  <rangeList sheetStid="9" master=""/>
+  <rangeList sheetStid="8" master=""/>
+  <rangeList sheetStid="10" master=""/>
+  <rangeList sheetStid="13" master=""/>
+  <rangeList sheetStid="14" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="11"/>
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="12"/>
+  <pixelatorList sheetStid="9"/>
+  <pixelatorList sheetStid="8"/>
+  <pixelatorList sheetStid="10"/>
+  <pixelatorList sheetStid="13"/>
+  <pixelatorList sheetStid="14"/>
+  <pixelatorList sheetStid="15"/>
+</pixelators>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -29522,7 +29603,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/test_case_data/bmc/bmc_testcase01_20210513.xlsx
+++ b/test_case_data/bmc/bmc_testcase01_20210513.xlsx
@@ -28854,8 +28854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14:M15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/test_case_data/bmc/bmc_testcase01_20210513.xlsx
+++ b/test_case_data/bmc/bmc_testcase01_20210513.xlsx
@@ -418,6 +418,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>备注：1.除注明非必填的，其他都是必填项</t>
@@ -427,6 +428,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -437,6 +439,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2.每个接口都是测过的，参数正确的可用的接口用例</t>
@@ -446,6 +449,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -456,6 +460,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3.不要添加删除类的接口，防止对后端数据引入未知异常</t>
@@ -465,6 +470,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -475,6 +481,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>4.目前每个用例都是针对单接口的，多接口用例，caseNum末尾加Multi标识,比如loginMulti，此类用例不 从模板获取数据,硬编码直接写在代码中</t>
@@ -942,6 +949,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>字符密码</t>
@@ -960,6 +968,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>登录</t>
@@ -1508,6 +1517,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>文章</t>
@@ -1526,6 +1536,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>列表</t>
@@ -1657,6 +1668,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1667,6 +1679,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1677,6 +1690,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3860,6 +3874,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Feedback</t>
@@ -3869,6 +3884,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3895,6 +3911,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Feedback</t>
@@ -3904,6 +3921,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3930,6 +3948,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Feedback</t>
@@ -3939,6 +3958,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3956,6 +3976,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Feedback</t>
@@ -3965,6 +3986,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3982,6 +4004,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Feedback</t>
@@ -3991,6 +4014,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4008,6 +4032,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Feedback</t>
@@ -4017,6 +4042,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4040,6 +4066,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Feedback</t>
@@ -4049,6 +4076,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4081,6 +4109,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Feedback</t>
@@ -4090,6 +4119,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4107,6 +4137,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Feedback</t>
@@ -4116,6 +4147,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4139,6 +4171,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Feedback</t>
@@ -4148,6 +4181,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4168,6 +4202,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Feedback</t>
@@ -4177,6 +4212,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4206,6 +4242,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Feedback</t>
@@ -4215,6 +4252,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4251,6 +4289,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4261,6 +4300,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4271,6 +4311,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4281,6 +4322,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4291,6 +4333,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4301,6 +4344,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4311,6 +4355,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4332,6 +4377,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4342,6 +4388,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4352,6 +4399,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4362,6 +4410,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4372,6 +4421,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4382,6 +4432,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4392,6 +4443,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4402,6 +4454,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4412,6 +4465,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4422,6 +4476,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4432,6 +4487,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4442,6 +4498,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4466,6 +4523,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4476,6 +4534,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4486,6 +4545,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4496,6 +4556,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4506,6 +4567,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4516,6 +4578,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4526,6 +4589,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4536,6 +4600,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4546,6 +4611,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4556,6 +4622,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4566,6 +4633,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4602,6 +4670,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4612,6 +4681,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4622,6 +4692,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4632,6 +4703,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4642,6 +4714,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4652,6 +4725,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4662,6 +4736,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4755,6 +4830,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4765,6 +4841,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4775,6 +4852,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4799,6 +4877,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4809,6 +4888,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4819,6 +4899,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4855,6 +4936,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4865,6 +4947,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4875,6 +4958,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4899,6 +4983,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4909,6 +4994,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4919,6 +5005,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4952,6 +5039,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4962,6 +5050,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4972,6 +5061,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4982,6 +5072,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4992,6 +5083,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5043,6 +5135,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5053,6 +5146,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5063,6 +5157,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5078,6 +5173,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5088,6 +5184,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5098,6 +5195,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5116,6 +5214,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5126,6 +5225,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5136,6 +5236,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5223,6 +5324,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5233,6 +5335,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5243,6 +5346,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5351,6 +5455,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5361,6 +5466,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5371,6 +5477,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5901,6 +6008,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>获取常用油标</t>
@@ -5919,6 +6027,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（汽油、柴油、天然气）</t>
@@ -6748,6 +6857,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6769,6 +6879,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6790,6 +6901,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6811,6 +6923,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6832,6 +6945,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6852,6 +6966,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6873,6 +6988,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6889,6 +7005,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6910,6 +7027,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6931,6 +7049,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6952,6 +7071,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6968,6 +7088,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6989,6 +7110,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7081,6 +7203,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7107,6 +7230,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7181,6 +7305,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7202,6 +7327,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7218,6 +7344,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7239,6 +7366,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7266,6 +7394,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7287,6 +7416,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7419,6 +7549,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7473,6 +7604,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7494,6 +7626,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7515,6 +7648,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7542,6 +7676,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7558,6 +7693,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7579,6 +7715,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7600,6 +7737,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7679,6 +7817,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7723,6 +7862,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7760,6 +7900,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7797,6 +7938,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7876,6 +8018,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7903,6 +8046,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7929,6 +8073,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7955,6 +8100,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7992,6 +8138,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8030,6 +8177,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8067,6 +8215,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8245,6 +8394,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8283,6 +8433,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8331,6 +8482,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8379,6 +8531,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8420,6 +8573,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8447,6 +8601,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8499,6 +8654,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8554,6 +8710,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8581,6 +8738,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8647,6 +8805,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8693,6 +8852,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8739,6 +8899,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8787,6 +8948,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8797,6 +8959,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8813,6 +8976,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8823,6 +8987,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8844,6 +9009,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8860,6 +9026,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8870,6 +9037,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8891,6 +9059,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8907,6 +9076,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8917,6 +9087,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8938,6 +9109,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8954,6 +9126,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8964,6 +9137,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8985,6 +9159,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -9012,6 +9187,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -9028,6 +9204,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -9038,6 +9215,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -9059,6 +9237,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -9075,6 +9254,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -9350,6 +9530,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -9381,6 +9562,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -9408,6 +9590,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -9445,11 +9628,13 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -9462,11 +9647,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -9474,6 +9661,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -9487,6 +9675,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -9494,11 +9683,13 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -9506,6 +9697,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -9514,6 +9706,7 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -9521,6 +9714,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -9529,12 +9723,14 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -9543,6 +9739,7 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -9550,6 +9747,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -9557,18 +9755,21 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -29526,6 +29727,22 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="11" master=""/>
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="12" master=""/>
+  <rangeList sheetStid="9" master=""/>
+  <rangeList sheetStid="8" master=""/>
+  <rangeList sheetStid="10" master=""/>
+  <rangeList sheetStid="13" master=""/>
+  <rangeList sheetStid="14" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
@@ -29547,23 +29764,11 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="11" master=""/>
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="12" master=""/>
-  <rangeList sheetStid="9" master=""/>
-  <rangeList sheetStid="8" master=""/>
-  <rangeList sheetStid="10" master=""/>
-  <rangeList sheetStid="13" master=""/>
-  <rangeList sheetStid="14" master=""/>
-</allowEditUser>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="4"/>
@@ -29580,11 +29785,16 @@
 </pixelators>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -29593,17 +29803,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -29612,7 +29813,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/test_case_data/bmc/bmc_testcase01_20210513.xlsx
+++ b/test_case_data/bmc/bmc_testcase01_20210513.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\接口自动化\InterfaceAutoTest\test_case_data\bmc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\InterfaceAutoTest\test_case_data\bmc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5610" uniqueCount="1984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5610" uniqueCount="1986">
   <si>
     <t>caseNum</t>
   </si>
@@ -9601,6 +9601,14 @@
   <si>
     <t>{"success":true,"code":1000,"msg":"操作成功"}</t>
     <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>frontCondition</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectResult</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -9909,7 +9917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10109,6 +10117,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -29055,8 +29066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -29081,59 +29092,59 @@
     <col min="18" max="18" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:18" s="15" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="68" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I1" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="68" t="s">
+        <v>1985</v>
+      </c>
+      <c r="M1" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="68" t="s">
         <v>62</v>
       </c>
     </row>
@@ -29727,19 +29738,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="11" master=""/>
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="12" master=""/>
-  <rangeList sheetStid="9" master=""/>
-  <rangeList sheetStid="8" master=""/>
-  <rangeList sheetStid="10" master=""/>
-  <rangeList sheetStid="13" master=""/>
-  <rangeList sheetStid="14" master=""/>
-</allowEditUser>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29765,7 +29764,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="11" master=""/>
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="12" master=""/>
+  <rangeList sheetStid="9" master=""/>
+  <rangeList sheetStid="8" master=""/>
+  <rangeList sheetStid="10" master=""/>
+  <rangeList sheetStid="13" master=""/>
+  <rangeList sheetStid="14" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29786,7 +29797,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -29804,7 +29815,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
